--- a/metadata/excel/projects/unige/foram/metadata.xlsx
+++ b/metadata/excel/projects/unige/foram/metadata.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="4900" windowWidth="47660" windowHeight="24240" tabRatio="500"/>
+    <workbookView xWindow="2380" yWindow="4560" windowWidth="47660" windowHeight="24240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="micans_v6_ex1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="399">
   <si>
     <t>Country</t>
   </si>
@@ -1192,6 +1192,138 @@
   </si>
   <si>
     <t>TGTGCATG</t>
+  </si>
+  <si>
+    <t>1f7e04d6f9ed261ece0f283c8ba8a705</t>
+  </si>
+  <si>
+    <t>e1e39a3e77be6c5ab15ddb953c3cc427</t>
+  </si>
+  <si>
+    <t>53178a6bd6e2d65c44afc6d273b74db8</t>
+  </si>
+  <si>
+    <t>ab4993619735083ebab57a9487edfe0c</t>
+  </si>
+  <si>
+    <t>a3bbeab41c373b3a203a061707156369</t>
+  </si>
+  <si>
+    <t>28b4c857af7c8c214ff860f73f5791de</t>
+  </si>
+  <si>
+    <t>3ac65af9b18eeb3cf7a7848753ac19d5</t>
+  </si>
+  <si>
+    <t>d79368211e8201a2f1ab8008d98d3666</t>
+  </si>
+  <si>
+    <t>7954d7abca48edcfefe4cd6f37b51459</t>
+  </si>
+  <si>
+    <t>13577c288522a396e691ea656b92e332</t>
+  </si>
+  <si>
+    <t>67f9cc1900f4b2ddb4277054549347c9</t>
+  </si>
+  <si>
+    <t>d7faff67644df2793cbce1a40ac4f45a</t>
+  </si>
+  <si>
+    <t>060e5945eca7a70b57d2be05d412ffda</t>
+  </si>
+  <si>
+    <t>cbe0d374203159b316e44e238f7da0a3</t>
+  </si>
+  <si>
+    <t>e5bcfb94a04d77bb33c55b8976bbad56</t>
+  </si>
+  <si>
+    <t>10177343306989376f8c16f0b1c58f8e</t>
+  </si>
+  <si>
+    <t>062bef8745397c4a515e918b15394a36</t>
+  </si>
+  <si>
+    <t>793055fcae838dd4d9a3265f023521e6</t>
+  </si>
+  <si>
+    <t>97e77af6db9caa70ec25f029a3f4e566</t>
+  </si>
+  <si>
+    <t>350412eb49eeb94f358cd8de95577d79</t>
+  </si>
+  <si>
+    <t>326a2c7202c490c6f24fffb3967556d7</t>
+  </si>
+  <si>
+    <t>c60af7b21a6d9cc14a0d7d672a9a4c81</t>
+  </si>
+  <si>
+    <t>4acdbcd30eb427175e17bccd4777dac1</t>
+  </si>
+  <si>
+    <t>663a9155e1d1afcfeebcdcaf2e90631f</t>
+  </si>
+  <si>
+    <t>d33038125cf0a31ccb6efac65638966f</t>
+  </si>
+  <si>
+    <t>7c55330ed5b40df494d725cb9112d057</t>
+  </si>
+  <si>
+    <t>651a091170afcdc22584454aa1b42baf</t>
+  </si>
+  <si>
+    <t>9e7d47c3156dab34a403b71e1fe57b11</t>
+  </si>
+  <si>
+    <t>e8d6470d2bbc40a01b8a224174393533</t>
+  </si>
+  <si>
+    <t>9e0a87ec4d0a5dd85e6c51d60b029724</t>
+  </si>
+  <si>
+    <t>89403b82c5e34a8d0bab644ff8ef92f5</t>
+  </si>
+  <si>
+    <t>b3e0442fa9807bbdcf2cf27355a7204d</t>
+  </si>
+  <si>
+    <t>45de9fc61bd583a8dd5f55fd0580cce4</t>
+  </si>
+  <si>
+    <t>7d45025f3735ab8a196fe0788db5b6b2</t>
+  </si>
+  <si>
+    <t>fcdb8fb01ee555cc5bd9d076a414fad3</t>
+  </si>
+  <si>
+    <t>5798b31c040d5ede49b817ced1242d2e</t>
+  </si>
+  <si>
+    <t>cd3fa9ae4dbd34ed746cd64a955c4105</t>
+  </si>
+  <si>
+    <t>e53f50a122ade46a11387bc3ef406cd8</t>
+  </si>
+  <si>
+    <t>5ff7ac9ed96cdebcce6236c11dc7818e</t>
+  </si>
+  <si>
+    <t>23d362e4c836c7d1c9184e4a9349b341</t>
+  </si>
+  <si>
+    <t>140a714ccb7b8e8580620ffb847024d4</t>
+  </si>
+  <si>
+    <t>a4ac5c60c8261a21bcf069d90326569e</t>
+  </si>
+  <si>
+    <t>18d36bdf23ba3fb72d656033cd9db473</t>
+  </si>
+  <si>
+    <t>8b461e0d309a440fb1b27c83da907445</t>
   </si>
 </sst>
 </file>
@@ -2572,10 +2704,10 @@
   </sheetPr>
   <dimension ref="A1:CB51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="AJ36" sqref="AJ36"/>
+      <selection pane="bottomLeft" activeCell="O40" sqref="O40:O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2993,10 +3125,18 @@
       <c r="N3" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="19"/>
+      <c r="O3" s="37">
+        <v>40101</v>
+      </c>
+      <c r="P3" s="40">
+        <v>40101</v>
+      </c>
+      <c r="Q3" s="54" t="s">
+        <v>355</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>377</v>
+      </c>
       <c r="S3" t="s">
         <v>49</v>
       </c>
@@ -3165,10 +3305,18 @@
       <c r="N4" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="19"/>
+      <c r="O4" s="37">
+        <v>54728</v>
+      </c>
+      <c r="P4" s="40">
+        <v>54728</v>
+      </c>
+      <c r="Q4" s="54" t="s">
+        <v>356</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>378</v>
+      </c>
       <c r="S4" t="s">
         <v>49</v>
       </c>
@@ -3337,10 +3485,18 @@
       <c r="N5" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="24"/>
+      <c r="O5" s="37">
+        <v>41592</v>
+      </c>
+      <c r="P5" s="40">
+        <v>41592</v>
+      </c>
+      <c r="Q5" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>379</v>
+      </c>
       <c r="S5" t="s">
         <v>49</v>
       </c>
@@ -3509,10 +3665,18 @@
       <c r="N6" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="37"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="19"/>
+      <c r="O6" s="37">
+        <v>55425</v>
+      </c>
+      <c r="P6" s="40">
+        <v>55425</v>
+      </c>
+      <c r="Q6" s="55" t="s">
+        <v>358</v>
+      </c>
+      <c r="R6" s="19" t="s">
+        <v>380</v>
+      </c>
       <c r="S6" t="s">
         <v>49</v>
       </c>
@@ -3681,10 +3845,18 @@
       <c r="N7" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="37"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="19"/>
+      <c r="O7" s="37">
+        <v>28768</v>
+      </c>
+      <c r="P7" s="40">
+        <v>28768</v>
+      </c>
+      <c r="Q7" s="54" t="s">
+        <v>359</v>
+      </c>
+      <c r="R7" s="19" t="s">
+        <v>381</v>
+      </c>
       <c r="S7" t="s">
         <v>49</v>
       </c>
@@ -3853,10 +4025,18 @@
       <c r="N8" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="37"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="24"/>
+      <c r="O8" s="37">
+        <v>40693</v>
+      </c>
+      <c r="P8" s="40">
+        <v>40693</v>
+      </c>
+      <c r="Q8" s="54" t="s">
+        <v>360</v>
+      </c>
+      <c r="R8" s="24" t="s">
+        <v>382</v>
+      </c>
       <c r="S8" t="s">
         <v>49</v>
       </c>
@@ -4025,8 +4205,12 @@
       <c r="N9" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O9" s="37"/>
-      <c r="P9" s="40"/>
+      <c r="O9" s="37">
+        <v>0</v>
+      </c>
+      <c r="P9" s="40">
+        <v>0</v>
+      </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="19"/>
       <c r="S9" t="s">
@@ -4197,10 +4381,18 @@
       <c r="N10" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O10" s="37"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="19"/>
+      <c r="O10" s="37">
+        <v>59542</v>
+      </c>
+      <c r="P10" s="40">
+        <v>59542</v>
+      </c>
+      <c r="Q10" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>383</v>
+      </c>
       <c r="S10" t="s">
         <v>49</v>
       </c>
@@ -4369,10 +4561,18 @@
       <c r="N11" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="37"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="19"/>
+      <c r="O11" s="37">
+        <v>51746</v>
+      </c>
+      <c r="P11" s="40">
+        <v>51746</v>
+      </c>
+      <c r="Q11" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>384</v>
+      </c>
       <c r="S11" t="s">
         <v>49</v>
       </c>
@@ -4541,10 +4741,18 @@
       <c r="N12" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="37"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="24"/>
+      <c r="O12" s="37">
+        <v>51956</v>
+      </c>
+      <c r="P12" s="40">
+        <v>51956</v>
+      </c>
+      <c r="Q12" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="R12" s="24" t="s">
+        <v>385</v>
+      </c>
       <c r="S12" t="s">
         <v>49</v>
       </c>
@@ -4713,10 +4921,18 @@
       <c r="N13" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="37"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="19"/>
+      <c r="O13" s="37">
+        <v>51138</v>
+      </c>
+      <c r="P13" s="40">
+        <v>51138</v>
+      </c>
+      <c r="Q13" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="R13" s="19" t="s">
+        <v>386</v>
+      </c>
       <c r="S13" t="s">
         <v>49</v>
       </c>
@@ -4885,10 +5101,18 @@
       <c r="N14" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O14" s="37"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="19"/>
+      <c r="O14" s="37">
+        <v>59931</v>
+      </c>
+      <c r="P14" s="40">
+        <v>59931</v>
+      </c>
+      <c r="Q14" s="55" t="s">
+        <v>365</v>
+      </c>
+      <c r="R14" s="19" t="s">
+        <v>387</v>
+      </c>
       <c r="S14" t="s">
         <v>49</v>
       </c>
@@ -5057,10 +5281,18 @@
       <c r="N15" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O15" s="37"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="19"/>
+      <c r="O15" s="37">
+        <v>47675</v>
+      </c>
+      <c r="P15" s="40">
+        <v>47675</v>
+      </c>
+      <c r="Q15" s="54" t="s">
+        <v>366</v>
+      </c>
+      <c r="R15" s="19" t="s">
+        <v>388</v>
+      </c>
       <c r="S15" t="s">
         <v>49</v>
       </c>
@@ -5227,8 +5459,12 @@
         <v>271</v>
       </c>
       <c r="N16" s="30"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="40"/>
+      <c r="O16" s="37">
+        <v>0</v>
+      </c>
+      <c r="P16" s="40">
+        <v>0</v>
+      </c>
       <c r="Q16" s="54"/>
       <c r="R16" s="19"/>
       <c r="S16" t="s">
@@ -5392,10 +5628,18 @@
         <v>271</v>
       </c>
       <c r="N17" s="30"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="19"/>
+      <c r="O17" s="37">
+        <v>33556</v>
+      </c>
+      <c r="P17" s="40">
+        <v>33556</v>
+      </c>
+      <c r="Q17" s="55" t="s">
+        <v>367</v>
+      </c>
+      <c r="R17" s="19" t="s">
+        <v>389</v>
+      </c>
       <c r="S17" t="s">
         <v>49</v>
       </c>
@@ -5557,10 +5801,18 @@
         <v>271</v>
       </c>
       <c r="N18" s="30"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="19"/>
+      <c r="O18" s="37">
+        <v>38282</v>
+      </c>
+      <c r="P18" s="40">
+        <v>38282</v>
+      </c>
+      <c r="Q18" s="54" t="s">
+        <v>368</v>
+      </c>
+      <c r="R18" s="19" t="s">
+        <v>390</v>
+      </c>
       <c r="S18" t="s">
         <v>49</v>
       </c>
@@ -5722,8 +5974,12 @@
         <v>271</v>
       </c>
       <c r="N19" s="30"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="40"/>
+      <c r="O19" s="37">
+        <v>0</v>
+      </c>
+      <c r="P19" s="40">
+        <v>0</v>
+      </c>
       <c r="Q19" s="54"/>
       <c r="R19" s="19"/>
       <c r="S19" t="s">
@@ -5887,10 +6143,18 @@
         <v>271</v>
       </c>
       <c r="N20" s="30"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="19"/>
+      <c r="O20" s="37">
+        <v>57154</v>
+      </c>
+      <c r="P20" s="40">
+        <v>57154</v>
+      </c>
+      <c r="Q20" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="R20" s="19" t="s">
+        <v>391</v>
+      </c>
       <c r="S20" t="s">
         <v>49</v>
       </c>
@@ -6052,8 +6316,12 @@
         <v>271</v>
       </c>
       <c r="N21" s="30"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="40"/>
+      <c r="O21" s="37">
+        <v>0</v>
+      </c>
+      <c r="P21" s="40">
+        <v>0</v>
+      </c>
       <c r="Q21" s="54"/>
       <c r="R21" s="19"/>
       <c r="S21" t="s">
@@ -6217,10 +6485,18 @@
         <v>271</v>
       </c>
       <c r="N22" s="30"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="19"/>
+      <c r="O22" s="37">
+        <v>24875</v>
+      </c>
+      <c r="P22" s="40">
+        <v>24875</v>
+      </c>
+      <c r="Q22" s="54" t="s">
+        <v>370</v>
+      </c>
+      <c r="R22" s="19" t="s">
+        <v>392</v>
+      </c>
       <c r="S22" t="s">
         <v>49</v>
       </c>
@@ -6382,8 +6658,12 @@
         <v>271</v>
       </c>
       <c r="N23" s="30"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="40"/>
+      <c r="O23" s="37">
+        <v>0</v>
+      </c>
+      <c r="P23" s="40">
+        <v>0</v>
+      </c>
       <c r="Q23" s="54"/>
       <c r="R23" s="19"/>
       <c r="S23" t="s">
@@ -6547,10 +6827,18 @@
         <v>271</v>
       </c>
       <c r="N24" s="30"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="19"/>
+      <c r="O24" s="37">
+        <v>52815</v>
+      </c>
+      <c r="P24" s="40">
+        <v>52815</v>
+      </c>
+      <c r="Q24" s="54" t="s">
+        <v>371</v>
+      </c>
+      <c r="R24" s="19" t="s">
+        <v>393</v>
+      </c>
       <c r="S24" t="s">
         <v>49</v>
       </c>
@@ -6712,10 +7000,18 @@
         <v>271</v>
       </c>
       <c r="N25" s="30"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="19"/>
+      <c r="O25" s="37">
+        <v>52637</v>
+      </c>
+      <c r="P25" s="40">
+        <v>52637</v>
+      </c>
+      <c r="Q25" s="54" t="s">
+        <v>372</v>
+      </c>
+      <c r="R25" s="19" t="s">
+        <v>394</v>
+      </c>
       <c r="S25" t="s">
         <v>49</v>
       </c>
@@ -6877,10 +7173,18 @@
         <v>271</v>
       </c>
       <c r="N26" s="30"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="19"/>
+      <c r="O26" s="37">
+        <v>28701</v>
+      </c>
+      <c r="P26" s="40">
+        <v>28701</v>
+      </c>
+      <c r="Q26" s="54" t="s">
+        <v>373</v>
+      </c>
+      <c r="R26" s="19" t="s">
+        <v>395</v>
+      </c>
       <c r="S26" t="s">
         <v>49</v>
       </c>
@@ -7042,10 +7346,18 @@
         <v>271</v>
       </c>
       <c r="N27" s="30"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="19"/>
+      <c r="O27" s="37">
+        <v>50119</v>
+      </c>
+      <c r="P27" s="40">
+        <v>50119</v>
+      </c>
+      <c r="Q27" s="54" t="s">
+        <v>374</v>
+      </c>
+      <c r="R27" s="19" t="s">
+        <v>396</v>
+      </c>
       <c r="S27" t="s">
         <v>49</v>
       </c>
@@ -7207,10 +7519,18 @@
         <v>271</v>
       </c>
       <c r="N28" s="30"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="19"/>
+      <c r="O28" s="37">
+        <v>22752</v>
+      </c>
+      <c r="P28" s="40">
+        <v>22752</v>
+      </c>
+      <c r="Q28" s="54" t="s">
+        <v>375</v>
+      </c>
+      <c r="R28" s="19" t="s">
+        <v>397</v>
+      </c>
       <c r="S28" t="s">
         <v>49</v>
       </c>
@@ -7372,10 +7692,18 @@
         <v>271</v>
       </c>
       <c r="N29" s="30"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="19"/>
+      <c r="O29" s="37">
+        <v>52659</v>
+      </c>
+      <c r="P29" s="40">
+        <v>52659</v>
+      </c>
+      <c r="Q29" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="R29" s="19" t="s">
+        <v>398</v>
+      </c>
       <c r="S29" t="s">
         <v>49</v>
       </c>
@@ -7594,9 +7922,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -7614,24 +7952,14 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/metadata/excel/projects/unige/foram/metadata.xlsx
+++ b/metadata/excel/projects/unige/foram/metadata.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="408">
   <si>
     <t>Country</t>
   </si>
@@ -1324,6 +1324,33 @@
   </si>
   <si>
     <t>8b461e0d309a440fb1b27c83da907445</t>
+  </si>
+  <si>
+    <t>Custom grouping</t>
+  </si>
+  <si>
+    <t>Custom attribute</t>
+  </si>
+  <si>
+    <t>Replicate identification</t>
+  </si>
+  <si>
+    <t>Ashqelon</t>
+  </si>
+  <si>
+    <t>Proximal</t>
+  </si>
+  <si>
+    <t>Midway</t>
+  </si>
+  <si>
+    <t>Distant</t>
+  </si>
+  <si>
+    <t>Soreq</t>
+  </si>
+  <si>
+    <t>Hadera</t>
   </si>
 </sst>
 </file>
@@ -2702,12 +2729,12 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CB51"/>
+  <dimension ref="A1:CF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="O40" sqref="O40:O41"/>
+      <selection pane="bottomLeft" activeCell="AA31" sqref="AA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2732,64 +2759,68 @@
     <col min="20" max="20" width="33" style="16" customWidth="1"/>
     <col min="21" max="21" width="32.5" style="16" customWidth="1"/>
     <col min="22" max="22" width="9.83203125" customWidth="1"/>
-    <col min="23" max="23" width="25.5" style="33" customWidth="1"/>
-    <col min="24" max="24" width="20.1640625" style="16" customWidth="1"/>
-    <col min="25" max="25" width="22" style="19" customWidth="1"/>
-    <col min="26" max="26" width="17.83203125" style="33" customWidth="1"/>
-    <col min="27" max="27" width="21.5" style="16" customWidth="1"/>
-    <col min="28" max="28" width="27.6640625" style="20" customWidth="1"/>
-    <col min="29" max="29" width="9.83203125" customWidth="1"/>
-    <col min="30" max="30" width="11" customWidth="1"/>
-    <col min="31" max="31" width="13.5" style="2" customWidth="1"/>
-    <col min="32" max="32" width="9.1640625" customWidth="1"/>
-    <col min="33" max="33" width="14.33203125" style="2" customWidth="1"/>
-    <col min="34" max="34" width="15.83203125" style="2" customWidth="1"/>
-    <col min="35" max="35" width="8.5" customWidth="1"/>
-    <col min="36" max="36" width="10.33203125" style="15" customWidth="1"/>
-    <col min="37" max="37" width="10.33203125" customWidth="1"/>
-    <col min="38" max="38" width="11.5" customWidth="1"/>
-    <col min="39" max="39" width="16.5" customWidth="1"/>
-    <col min="40" max="40" width="12.1640625" style="42" customWidth="1"/>
-    <col min="41" max="41" width="32.83203125" style="1" customWidth="1"/>
-    <col min="42" max="42" width="12.83203125" style="42" customWidth="1"/>
-    <col min="43" max="43" width="35.6640625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="10.1640625" customWidth="1"/>
-    <col min="45" max="45" width="12.5" customWidth="1"/>
-    <col min="46" max="46" width="15" customWidth="1"/>
-    <col min="47" max="47" width="10.83203125" customWidth="1"/>
-    <col min="48" max="48" width="14" customWidth="1"/>
-    <col min="49" max="49" width="13.1640625" customWidth="1"/>
-    <col min="50" max="50" width="15.6640625" customWidth="1"/>
-    <col min="51" max="51" width="11.6640625" customWidth="1"/>
-    <col min="52" max="52" width="12.1640625" customWidth="1"/>
-    <col min="53" max="53" width="13" customWidth="1"/>
-    <col min="54" max="54" width="10.1640625" customWidth="1"/>
-    <col min="55" max="57" width="19.83203125" customWidth="1"/>
-    <col min="58" max="58" width="20.83203125" customWidth="1"/>
-    <col min="59" max="59" width="8.6640625" customWidth="1"/>
-    <col min="60" max="61" width="15.5" customWidth="1"/>
-    <col min="62" max="62" width="13.6640625" style="11" customWidth="1"/>
-    <col min="63" max="63" width="13.1640625" style="11" customWidth="1"/>
-    <col min="64" max="64" width="13.1640625" style="68" customWidth="1"/>
-    <col min="65" max="65" width="28" style="16" customWidth="1"/>
-    <col min="66" max="66" width="31.33203125" style="16" customWidth="1"/>
-    <col min="67" max="67" width="9" customWidth="1"/>
-    <col min="68" max="68" width="16.5" customWidth="1"/>
-    <col min="69" max="69" width="16" customWidth="1"/>
-    <col min="70" max="70" width="9.5" customWidth="1"/>
-    <col min="71" max="71" width="11" style="22" customWidth="1"/>
-    <col min="72" max="72" width="11" style="72" customWidth="1"/>
-    <col min="73" max="73" width="11.6640625" style="22" customWidth="1"/>
-    <col min="74" max="74" width="14.33203125" style="22" customWidth="1"/>
-    <col min="75" max="75" width="12.6640625" style="22" customWidth="1"/>
-    <col min="76" max="76" width="13.6640625" style="22" customWidth="1"/>
-    <col min="77" max="77" width="15.33203125" style="22" customWidth="1"/>
-    <col min="78" max="78" width="15.5" style="22" customWidth="1"/>
-    <col min="79" max="79" width="14.6640625" style="22" customWidth="1"/>
-    <col min="80" max="80" width="9.6640625" customWidth="1"/>
+    <col min="23" max="23" width="13.83203125" style="16" customWidth="1"/>
+    <col min="24" max="24" width="13.1640625" style="16" customWidth="1"/>
+    <col min="25" max="25" width="13.5" style="33" customWidth="1"/>
+    <col min="26" max="26" width="9.83203125" customWidth="1"/>
+    <col min="27" max="27" width="25.5" style="33" customWidth="1"/>
+    <col min="28" max="28" width="20.1640625" style="16" customWidth="1"/>
+    <col min="29" max="29" width="22" style="19" customWidth="1"/>
+    <col min="30" max="30" width="17.83203125" style="33" customWidth="1"/>
+    <col min="31" max="31" width="21.5" style="16" customWidth="1"/>
+    <col min="32" max="32" width="27.6640625" style="20" customWidth="1"/>
+    <col min="33" max="33" width="9.83203125" customWidth="1"/>
+    <col min="34" max="34" width="11" customWidth="1"/>
+    <col min="35" max="35" width="13.5" style="2" customWidth="1"/>
+    <col min="36" max="36" width="9.1640625" customWidth="1"/>
+    <col min="37" max="37" width="14.33203125" style="2" customWidth="1"/>
+    <col min="38" max="38" width="15.83203125" style="2" customWidth="1"/>
+    <col min="39" max="39" width="8.5" customWidth="1"/>
+    <col min="40" max="40" width="10.33203125" style="15" customWidth="1"/>
+    <col min="41" max="41" width="10.33203125" customWidth="1"/>
+    <col min="42" max="42" width="11.5" customWidth="1"/>
+    <col min="43" max="43" width="16.5" customWidth="1"/>
+    <col min="44" max="44" width="12.1640625" style="42" customWidth="1"/>
+    <col min="45" max="45" width="32.83203125" style="1" customWidth="1"/>
+    <col min="46" max="46" width="12.83203125" style="42" customWidth="1"/>
+    <col min="47" max="47" width="35.6640625" style="1" customWidth="1"/>
+    <col min="48" max="48" width="10.1640625" customWidth="1"/>
+    <col min="49" max="49" width="12.5" customWidth="1"/>
+    <col min="50" max="50" width="15" customWidth="1"/>
+    <col min="51" max="51" width="10.83203125" customWidth="1"/>
+    <col min="52" max="52" width="14" customWidth="1"/>
+    <col min="53" max="53" width="13.1640625" customWidth="1"/>
+    <col min="54" max="54" width="15.6640625" customWidth="1"/>
+    <col min="55" max="55" width="11.6640625" customWidth="1"/>
+    <col min="56" max="56" width="12.1640625" customWidth="1"/>
+    <col min="57" max="57" width="13" customWidth="1"/>
+    <col min="58" max="58" width="10.1640625" customWidth="1"/>
+    <col min="59" max="61" width="19.83203125" customWidth="1"/>
+    <col min="62" max="62" width="20.83203125" customWidth="1"/>
+    <col min="63" max="63" width="8.6640625" customWidth="1"/>
+    <col min="64" max="65" width="15.5" customWidth="1"/>
+    <col min="66" max="66" width="13.6640625" style="11" customWidth="1"/>
+    <col min="67" max="67" width="13.1640625" style="11" customWidth="1"/>
+    <col min="68" max="68" width="13.1640625" style="68" customWidth="1"/>
+    <col min="69" max="69" width="28" style="16" customWidth="1"/>
+    <col min="70" max="70" width="31.33203125" style="16" customWidth="1"/>
+    <col min="71" max="71" width="9" customWidth="1"/>
+    <col min="72" max="72" width="16.5" customWidth="1"/>
+    <col min="73" max="73" width="16" customWidth="1"/>
+    <col min="74" max="74" width="9.5" customWidth="1"/>
+    <col min="75" max="75" width="11" style="22" customWidth="1"/>
+    <col min="76" max="76" width="11" style="72" customWidth="1"/>
+    <col min="77" max="77" width="11.6640625" style="22" customWidth="1"/>
+    <col min="78" max="78" width="14.33203125" style="22" customWidth="1"/>
+    <col min="79" max="79" width="12.6640625" style="22" customWidth="1"/>
+    <col min="80" max="80" width="13.6640625" style="22" customWidth="1"/>
+    <col min="81" max="81" width="15.33203125" style="22" customWidth="1"/>
+    <col min="82" max="82" width="15.5" style="22" customWidth="1"/>
+    <col min="83" max="83" width="14.6640625" style="22" customWidth="1"/>
+    <col min="84" max="84" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
@@ -2810,66 +2841,69 @@
       <c r="R1" s="6"/>
       <c r="T1" s="6"/>
       <c r="U1" s="17"/>
-      <c r="W1" s="32"/>
+      <c r="W1" s="17"/>
       <c r="X1" s="17"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="5"/>
+      <c r="Y1" s="34"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="17"/>
       <c r="AF1" s="3"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="3"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="7"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="3"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="7"/>
       <c r="AW1" s="3"/>
       <c r="AX1" s="3"/>
       <c r="AY1" s="3"/>
       <c r="AZ1" s="3"/>
-      <c r="BA1" s="10"/>
-      <c r="BC1" s="73" t="s">
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="10"/>
+      <c r="BG1" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="BD1" s="73"/>
-      <c r="BE1" s="73"/>
-      <c r="BF1" s="73"/>
-      <c r="BH1" s="73" t="s">
-        <v>52</v>
-      </c>
+      <c r="BH1" s="73"/>
       <c r="BI1" s="73"/>
       <c r="BJ1" s="73"/>
-      <c r="BK1" s="73"/>
-      <c r="BL1" s="73"/>
+      <c r="BL1" s="73" t="s">
+        <v>52</v>
+      </c>
       <c r="BM1" s="73"/>
       <c r="BN1" s="73"/>
-      <c r="BP1" s="73" t="s">
+      <c r="BO1" s="73"/>
+      <c r="BP1" s="73"/>
+      <c r="BQ1" s="73"/>
+      <c r="BR1" s="73"/>
+      <c r="BT1" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="73"/>
-      <c r="BS1" s="8" t="s">
+      <c r="BU1" s="73"/>
+      <c r="BW1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" s="69"/>
-      <c r="BU1" s="21"/>
-      <c r="BV1" s="21"/>
-      <c r="BW1" s="21"/>
-      <c r="BX1" s="21"/>
+      <c r="BX1" s="69"/>
       <c r="BY1" s="21"/>
       <c r="BZ1" s="21"/>
       <c r="CA1" s="21"/>
+      <c r="CB1" s="21"/>
+      <c r="CC1" s="21"/>
+      <c r="CD1" s="21"/>
+      <c r="CE1" s="21"/>
     </row>
-    <row r="2" spans="1:80" s="53" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:84" s="53" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>49</v>
       </c>
@@ -2929,167 +2963,177 @@
       </c>
       <c r="V2" s="45"/>
       <c r="W2" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="X2" s="43" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y2" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="43" t="s">
+      <c r="AB2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="43" t="s">
+      <c r="AC2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="Z2" s="43" t="s">
+      <c r="AD2" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="AA2" s="43" t="s">
+      <c r="AE2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="43" t="s">
+      <c r="AF2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="43" t="s">
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="43" t="s">
+      <c r="AI2" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="AF2" s="43" t="s">
+      <c r="AJ2" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="AG2" s="43" t="s">
+      <c r="AK2" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="AH2" s="43" t="s">
+      <c r="AL2" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="AI2" s="43" t="s">
+      <c r="AM2" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="AJ2" s="47" t="s">
+      <c r="AN2" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="AK2" s="43" t="s">
+      <c r="AO2" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="43" t="s">
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="AN2" s="43" t="s">
+      <c r="AR2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AO2" s="43" t="s">
+      <c r="AS2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AP2" s="43" t="s">
+      <c r="AT2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AQ2" s="43" t="s">
+      <c r="AU2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AR2" s="48"/>
-      <c r="AS2" s="43" t="s">
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="AT2" s="43" t="s">
+      <c r="AX2" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="AU2" s="43" t="s">
+      <c r="AY2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="43" t="s">
+      <c r="AZ2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="AW2" s="43" t="s">
+      <c r="BA2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="AX2" s="43" t="s">
+      <c r="BB2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="AY2" s="43" t="s">
+      <c r="BC2" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="AZ2" s="43" t="s">
+      <c r="BD2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="BA2" s="43" t="s">
+      <c r="BE2" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="BB2" s="48"/>
-      <c r="BC2" s="49" t="s">
+      <c r="BF2" s="48"/>
+      <c r="BG2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="BD2" s="49" t="s">
+      <c r="BH2" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="BE2" s="49" t="s">
+      <c r="BI2" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="BF2" s="49" t="s">
+      <c r="BJ2" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="BG2" s="48"/>
-      <c r="BH2" s="50" t="s">
+      <c r="BK2" s="48"/>
+      <c r="BL2" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="BI2" s="50" t="s">
+      <c r="BM2" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="BJ2" s="50" t="s">
+      <c r="BN2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="BK2" s="50" t="s">
+      <c r="BO2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="BL2" s="50" t="s">
+      <c r="BP2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="BM2" s="50" t="s">
+      <c r="BQ2" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="BN2" s="50" t="s">
+      <c r="BR2" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="BO2" s="48"/>
-      <c r="BP2" s="51" t="s">
+      <c r="BS2" s="48"/>
+      <c r="BT2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="BQ2" s="51" t="s">
+      <c r="BU2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="BR2" s="48"/>
-      <c r="BS2" s="52" t="s">
+      <c r="BV2" s="48"/>
+      <c r="BW2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="BT2" s="52" t="s">
+      <c r="BX2" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="BU2" s="52" t="s">
+      <c r="BY2" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="BV2" s="52" t="s">
+      <c r="BZ2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="BW2" s="52" t="s">
+      <c r="CA2" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="BX2" s="52" t="s">
+      <c r="CB2" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="BY2" s="52" t="s">
+      <c r="CC2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="BZ2" s="52" t="s">
+      <c r="CD2" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="CA2" s="52" t="s">
+      <c r="CE2" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="CB2" s="48"/>
+      <c r="CF2" s="48"/>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
-        <f t="shared" ref="A3:A29" si="0">COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BN3,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" ref="A3:A29" si="0">COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BR3,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B3" s="23">
@@ -3147,127 +3191,137 @@
         <v>299</v>
       </c>
       <c r="V3" s="1"/>
-      <c r="W3" s="33" t="s">
+      <c r="W3" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y3" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="AB3" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y3" s="56" t="s">
+      <c r="AC3" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z3" s="33" t="s">
+      <c r="AD3" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA3" s="16" t="s">
+      <c r="AE3" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB3" s="56" t="s">
+      <c r="AF3" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" s="59" t="s">
+      <c r="AH3" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="AE3" s="59" t="s">
+      <c r="AI3" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="AF3" s="59" t="s">
+      <c r="AJ3" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="AG3" s="59" t="s">
+      <c r="AK3" s="59" t="s">
         <v>329</v>
       </c>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="61" t="s">
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="63">
+      <c r="AN3" s="62"/>
+      <c r="AO3" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AQ3" t="s">
         <v>300</v>
       </c>
-      <c r="AN3" s="42" t="s">
+      <c r="AR3" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP3" s="42">
+      <c r="AT3" s="42">
         <v>15</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AV3" t="s">
         <v>49</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AW3" t="s">
         <v>8</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AX3" t="s">
         <v>9</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AY3" t="s">
         <v>10</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AZ3" t="s">
         <v>67</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="BA3" t="s">
         <v>11</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="BB3" t="s">
         <v>76</v>
       </c>
-      <c r="AZ3">
+      <c r="BD3">
         <v>151</v>
       </c>
-      <c r="BA3">
+      <c r="BE3">
         <v>151</v>
       </c>
-      <c r="BC3" s="57"/>
-      <c r="BD3" s="57"/>
-      <c r="BE3" s="57"/>
-      <c r="BF3" s="57"/>
-      <c r="BH3" s="65">
+      <c r="BG3" s="57"/>
+      <c r="BH3" s="57"/>
+      <c r="BI3" s="57"/>
+      <c r="BJ3" s="57"/>
+      <c r="BL3" s="65">
         <v>41226</v>
       </c>
-      <c r="BI3" s="66" t="s">
+      <c r="BM3" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="BJ3" s="67">
+      <c r="BN3" s="67">
         <v>31.63212</v>
       </c>
-      <c r="BK3" s="67">
+      <c r="BO3" s="67">
         <v>34.5167</v>
       </c>
-      <c r="BL3" s="42" t="s">
+      <c r="BP3" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="BM3" t="s">
+      <c r="BQ3" t="s">
         <v>262</v>
       </c>
-      <c r="BN3" s="25"/>
-      <c r="BS3">
+      <c r="BR3" s="25"/>
+      <c r="BW3">
         <v>1.5</v>
       </c>
-      <c r="BT3" s="42" t="s">
+      <c r="BX3" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="BU3"/>
-      <c r="BV3"/>
-      <c r="BW3"/>
-      <c r="BX3"/>
       <c r="BY3"/>
       <c r="BZ3"/>
       <c r="CA3"/>
+      <c r="CB3"/>
+      <c r="CC3"/>
+      <c r="CD3"/>
+      <c r="CE3"/>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3327,127 +3381,137 @@
         <v>299</v>
       </c>
       <c r="V4" s="1"/>
-      <c r="W4" s="33" t="s">
+      <c r="W4" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="X4" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y4" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X4" s="16" t="s">
+      <c r="AB4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y4" s="56" t="s">
+      <c r="AC4" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z4" s="33" t="s">
+      <c r="AD4" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA4" s="16" t="s">
+      <c r="AE4" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB4" s="56" t="s">
+      <c r="AF4" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AG4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD4" s="59" t="s">
+      <c r="AH4" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="AE4" s="59" t="s">
+      <c r="AI4" s="59" t="s">
         <v>304</v>
       </c>
-      <c r="AF4" s="59" t="s">
+      <c r="AJ4" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="AG4" s="59" t="s">
+      <c r="AK4" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="61" t="s">
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="AJ4" s="62"/>
-      <c r="AK4" s="63">
+      <c r="AN4" s="62"/>
+      <c r="AO4" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AQ4" t="s">
         <v>300</v>
       </c>
-      <c r="AN4" s="42" t="s">
+      <c r="AR4" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="AO4" s="1" t="s">
+      <c r="AS4" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP4" s="42">
+      <c r="AT4" s="42">
         <v>15</v>
       </c>
-      <c r="AQ4" s="1" t="s">
+      <c r="AU4" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AV4" t="s">
         <v>49</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AW4" t="s">
         <v>8</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AX4" t="s">
         <v>9</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AY4" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AZ4" t="s">
         <v>67</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="BA4" t="s">
         <v>11</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="BB4" t="s">
         <v>76</v>
       </c>
-      <c r="AZ4">
+      <c r="BD4">
         <v>151</v>
       </c>
-      <c r="BA4">
+      <c r="BE4">
         <v>151</v>
       </c>
-      <c r="BC4" s="57"/>
-      <c r="BD4" s="57"/>
-      <c r="BE4" s="57"/>
-      <c r="BF4" s="57"/>
-      <c r="BH4" s="65">
+      <c r="BG4" s="57"/>
+      <c r="BH4" s="57"/>
+      <c r="BI4" s="57"/>
+      <c r="BJ4" s="57"/>
+      <c r="BL4" s="65">
         <v>41226</v>
       </c>
-      <c r="BI4" s="66" t="s">
+      <c r="BM4" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="BJ4" s="67">
+      <c r="BN4" s="67">
         <v>31.63212</v>
       </c>
-      <c r="BK4" s="67">
+      <c r="BO4" s="67">
         <v>34.5167</v>
       </c>
-      <c r="BL4" s="42" t="s">
+      <c r="BP4" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="BM4" t="s">
+      <c r="BQ4" t="s">
         <v>262</v>
       </c>
-      <c r="BN4" s="25"/>
-      <c r="BS4">
+      <c r="BR4" s="25"/>
+      <c r="BW4">
         <v>1.5</v>
       </c>
-      <c r="BT4" s="42" t="s">
+      <c r="BX4" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="BU4"/>
-      <c r="BV4"/>
-      <c r="BW4"/>
-      <c r="BX4"/>
       <c r="BY4"/>
       <c r="BZ4"/>
       <c r="CA4"/>
+      <c r="CB4"/>
+      <c r="CC4"/>
+      <c r="CD4"/>
+      <c r="CE4"/>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3507,127 +3571,137 @@
         <v>299</v>
       </c>
       <c r="V5" s="1"/>
-      <c r="W5" s="33" t="s">
+      <c r="W5" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="X5" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y5" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X5" s="16" t="s">
+      <c r="AB5" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y5" s="56" t="s">
+      <c r="AC5" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z5" s="33" t="s">
+      <c r="AD5" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA5" s="16" t="s">
+      <c r="AE5" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB5" s="56" t="s">
+      <c r="AF5" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AG5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" s="59" t="s">
+      <c r="AH5" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="AE5" s="59" t="s">
+      <c r="AI5" s="59" t="s">
         <v>305</v>
       </c>
-      <c r="AF5" s="59" t="s">
+      <c r="AJ5" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="AG5" s="59" t="s">
+      <c r="AK5" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="61" t="s">
+      <c r="AL5" s="59"/>
+      <c r="AM5" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="AJ5" s="64"/>
-      <c r="AK5" s="63">
+      <c r="AN5" s="64"/>
+      <c r="AO5" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AQ5" t="s">
         <v>300</v>
       </c>
-      <c r="AN5" s="42" t="s">
+      <c r="AR5" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="AO5" s="1" t="s">
+      <c r="AS5" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP5" s="42">
+      <c r="AT5" s="42">
         <v>15</v>
       </c>
-      <c r="AQ5" s="1" t="s">
+      <c r="AU5" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AV5" t="s">
         <v>49</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AW5" t="s">
         <v>8</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AX5" t="s">
         <v>9</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AY5" t="s">
         <v>10</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AZ5" t="s">
         <v>67</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="BA5" t="s">
         <v>11</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="BB5" t="s">
         <v>76</v>
       </c>
-      <c r="AZ5">
+      <c r="BD5">
         <v>151</v>
       </c>
-      <c r="BA5">
+      <c r="BE5">
         <v>151</v>
       </c>
-      <c r="BC5" s="57"/>
-      <c r="BD5" s="57"/>
-      <c r="BE5" s="57"/>
-      <c r="BF5" s="57"/>
-      <c r="BH5" s="65">
+      <c r="BG5" s="57"/>
+      <c r="BH5" s="57"/>
+      <c r="BI5" s="57"/>
+      <c r="BJ5" s="57"/>
+      <c r="BL5" s="65">
         <v>41226</v>
       </c>
-      <c r="BI5" s="66" t="s">
+      <c r="BM5" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="BJ5" s="67">
+      <c r="BN5" s="67">
         <v>31.63212</v>
       </c>
-      <c r="BK5" s="67">
+      <c r="BO5" s="67">
         <v>34.5167</v>
       </c>
-      <c r="BL5" s="42" t="s">
+      <c r="BP5" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="BM5" t="s">
+      <c r="BQ5" t="s">
         <v>262</v>
       </c>
-      <c r="BN5" s="25"/>
-      <c r="BS5">
+      <c r="BR5" s="25"/>
+      <c r="BW5">
         <v>1.5</v>
       </c>
-      <c r="BT5" s="42" t="s">
+      <c r="BX5" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="BU5"/>
-      <c r="BV5"/>
-      <c r="BW5"/>
-      <c r="BX5"/>
       <c r="BY5"/>
       <c r="BZ5"/>
       <c r="CA5"/>
+      <c r="CB5"/>
+      <c r="CC5"/>
+      <c r="CD5"/>
+      <c r="CE5"/>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3687,127 +3761,137 @@
         <v>299</v>
       </c>
       <c r="V6" s="1"/>
-      <c r="W6" s="33" t="s">
+      <c r="W6" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="X6" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y6" s="33">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X6" s="16" t="s">
+      <c r="AB6" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y6" s="56" t="s">
+      <c r="AC6" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z6" s="33" t="s">
+      <c r="AD6" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA6" s="16" t="s">
+      <c r="AE6" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB6" s="56" t="s">
+      <c r="AF6" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AG6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD6" s="59" t="s">
+      <c r="AH6" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="AE6" s="59" t="s">
+      <c r="AI6" s="59" t="s">
         <v>306</v>
       </c>
-      <c r="AF6" s="59" t="s">
+      <c r="AJ6" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="AG6" s="59" t="s">
+      <c r="AK6" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="61" t="s">
+      <c r="AL6" s="59"/>
+      <c r="AM6" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="AJ6" s="62"/>
-      <c r="AK6" s="63">
+      <c r="AN6" s="62"/>
+      <c r="AO6" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AQ6" t="s">
         <v>300</v>
       </c>
-      <c r="AN6" s="42" t="s">
+      <c r="AR6" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="AO6" s="1" t="s">
+      <c r="AS6" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP6" s="42">
+      <c r="AT6" s="42">
         <v>15</v>
       </c>
-      <c r="AQ6" s="1" t="s">
+      <c r="AU6" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AV6" t="s">
         <v>49</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AW6" t="s">
         <v>8</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AX6" t="s">
         <v>9</v>
       </c>
-      <c r="AU6" t="s">
+      <c r="AY6" t="s">
         <v>10</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AZ6" t="s">
         <v>67</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="BA6" t="s">
         <v>11</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="BB6" t="s">
         <v>76</v>
       </c>
-      <c r="AZ6">
+      <c r="BD6">
         <v>151</v>
       </c>
-      <c r="BA6">
+      <c r="BE6">
         <v>151</v>
       </c>
-      <c r="BC6" s="57"/>
-      <c r="BD6" s="57"/>
-      <c r="BE6" s="57"/>
-      <c r="BF6" s="57"/>
-      <c r="BH6" s="65">
+      <c r="BG6" s="57"/>
+      <c r="BH6" s="57"/>
+      <c r="BI6" s="57"/>
+      <c r="BJ6" s="57"/>
+      <c r="BL6" s="65">
         <v>41226</v>
       </c>
-      <c r="BI6" s="66" t="s">
+      <c r="BM6" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="BJ6" s="67">
+      <c r="BN6" s="67">
         <v>31.6341</v>
       </c>
-      <c r="BK6" s="67">
+      <c r="BO6" s="67">
         <v>34.51144</v>
       </c>
-      <c r="BL6" s="42" t="s">
+      <c r="BP6" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="BM6" t="s">
+      <c r="BQ6" t="s">
         <v>261</v>
       </c>
-      <c r="BN6" s="25"/>
-      <c r="BS6">
+      <c r="BR6" s="25"/>
+      <c r="BW6">
         <v>10</v>
       </c>
-      <c r="BT6" s="70" t="s">
+      <c r="BX6" s="70" t="s">
         <v>259</v>
       </c>
-      <c r="BU6"/>
-      <c r="BV6"/>
-      <c r="BW6"/>
-      <c r="BX6"/>
       <c r="BY6"/>
       <c r="BZ6"/>
       <c r="CA6"/>
+      <c r="CB6"/>
+      <c r="CC6"/>
+      <c r="CD6"/>
+      <c r="CE6"/>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3867,127 +3951,137 @@
         <v>299</v>
       </c>
       <c r="V7" s="1"/>
-      <c r="W7" s="33" t="s">
+      <c r="W7" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="X7" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y7" s="33">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X7" s="16" t="s">
+      <c r="AB7" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y7" s="56" t="s">
+      <c r="AC7" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z7" s="33" t="s">
+      <c r="AD7" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA7" s="16" t="s">
+      <c r="AE7" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB7" s="56" t="s">
+      <c r="AF7" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AG7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD7" s="59" t="s">
+      <c r="AH7" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="AE7" s="59" t="s">
+      <c r="AI7" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="AF7" s="59" t="s">
+      <c r="AJ7" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="AG7" s="59" t="s">
+      <c r="AK7" s="59" t="s">
         <v>333</v>
       </c>
-      <c r="AH7" s="59"/>
-      <c r="AI7" s="61" t="s">
+      <c r="AL7" s="59"/>
+      <c r="AM7" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="AJ7" s="62"/>
-      <c r="AK7" s="63">
+      <c r="AN7" s="62"/>
+      <c r="AO7" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AQ7" t="s">
         <v>300</v>
       </c>
-      <c r="AN7" s="42" t="s">
+      <c r="AR7" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="AO7" s="1" t="s">
+      <c r="AS7" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP7" s="42">
+      <c r="AT7" s="42">
         <v>15</v>
       </c>
-      <c r="AQ7" s="1" t="s">
+      <c r="AU7" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AV7" t="s">
         <v>49</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AW7" t="s">
         <v>8</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AX7" t="s">
         <v>9</v>
       </c>
-      <c r="AU7" t="s">
+      <c r="AY7" t="s">
         <v>10</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AZ7" t="s">
         <v>67</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="BA7" t="s">
         <v>11</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="BB7" t="s">
         <v>76</v>
       </c>
-      <c r="AZ7">
+      <c r="BD7">
         <v>151</v>
       </c>
-      <c r="BA7">
+      <c r="BE7">
         <v>151</v>
       </c>
-      <c r="BC7" s="57"/>
-      <c r="BD7" s="57"/>
-      <c r="BE7" s="57"/>
-      <c r="BF7" s="57"/>
-      <c r="BH7" s="65">
+      <c r="BG7" s="57"/>
+      <c r="BH7" s="57"/>
+      <c r="BI7" s="57"/>
+      <c r="BJ7" s="57"/>
+      <c r="BL7" s="65">
         <v>41226</v>
       </c>
-      <c r="BI7" s="66" t="s">
+      <c r="BM7" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="BJ7" s="67">
+      <c r="BN7" s="67">
         <v>31.6341</v>
       </c>
-      <c r="BK7" s="67">
+      <c r="BO7" s="67">
         <v>34.51144</v>
       </c>
-      <c r="BL7" s="42" t="s">
+      <c r="BP7" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="BM7" t="s">
+      <c r="BQ7" t="s">
         <v>261</v>
       </c>
-      <c r="BN7" s="25"/>
-      <c r="BS7">
+      <c r="BR7" s="25"/>
+      <c r="BW7">
         <v>10</v>
       </c>
-      <c r="BT7" s="71" t="s">
+      <c r="BX7" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BU7"/>
-      <c r="BV7"/>
-      <c r="BW7"/>
-      <c r="BX7"/>
       <c r="BY7"/>
       <c r="BZ7"/>
       <c r="CA7"/>
+      <c r="CB7"/>
+      <c r="CC7"/>
+      <c r="CD7"/>
+      <c r="CE7"/>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4047,127 +4141,137 @@
         <v>299</v>
       </c>
       <c r="V8" s="1"/>
-      <c r="W8" s="33" t="s">
+      <c r="W8" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="X8" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y8" s="33">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X8" s="16" t="s">
+      <c r="AB8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y8" s="56" t="s">
+      <c r="AC8" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z8" s="33" t="s">
+      <c r="AD8" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA8" s="16" t="s">
+      <c r="AE8" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB8" s="56" t="s">
+      <c r="AF8" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AG8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD8" s="59" t="s">
+      <c r="AH8" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="AE8" s="59" t="s">
+      <c r="AI8" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="AF8" s="59" t="s">
+      <c r="AJ8" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="AG8" s="59" t="s">
+      <c r="AK8" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="AH8" s="59"/>
-      <c r="AI8" s="61" t="s">
+      <c r="AL8" s="59"/>
+      <c r="AM8" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="AJ8" s="62"/>
-      <c r="AK8" s="63">
+      <c r="AN8" s="62"/>
+      <c r="AO8" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AQ8" t="s">
         <v>300</v>
       </c>
-      <c r="AN8" s="42" t="s">
+      <c r="AR8" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="AO8" s="1" t="s">
+      <c r="AS8" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP8" s="42">
+      <c r="AT8" s="42">
         <v>15</v>
       </c>
-      <c r="AQ8" s="1" t="s">
+      <c r="AU8" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AV8" t="s">
         <v>49</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AW8" t="s">
         <v>8</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AX8" t="s">
         <v>9</v>
       </c>
-      <c r="AU8" t="s">
+      <c r="AY8" t="s">
         <v>10</v>
       </c>
-      <c r="AV8" t="s">
+      <c r="AZ8" t="s">
         <v>67</v>
       </c>
-      <c r="AW8" t="s">
+      <c r="BA8" t="s">
         <v>11</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="BB8" t="s">
         <v>76</v>
       </c>
-      <c r="AZ8">
+      <c r="BD8">
         <v>151</v>
       </c>
-      <c r="BA8">
+      <c r="BE8">
         <v>151</v>
       </c>
-      <c r="BC8" s="57"/>
-      <c r="BD8" s="57"/>
-      <c r="BE8" s="57"/>
-      <c r="BF8" s="57"/>
-      <c r="BH8" s="65">
+      <c r="BG8" s="57"/>
+      <c r="BH8" s="57"/>
+      <c r="BI8" s="57"/>
+      <c r="BJ8" s="57"/>
+      <c r="BL8" s="65">
         <v>41226</v>
       </c>
-      <c r="BI8" s="66" t="s">
+      <c r="BM8" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="BJ8" s="67">
+      <c r="BN8" s="67">
         <v>31.6341</v>
       </c>
-      <c r="BK8" s="67">
+      <c r="BO8" s="67">
         <v>34.51144</v>
       </c>
-      <c r="BL8" s="42" t="s">
+      <c r="BP8" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="BM8" t="s">
+      <c r="BQ8" t="s">
         <v>261</v>
       </c>
-      <c r="BN8" s="25"/>
-      <c r="BS8">
+      <c r="BR8" s="25"/>
+      <c r="BW8">
         <v>10</v>
       </c>
-      <c r="BT8" s="71" t="s">
+      <c r="BX8" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BU8"/>
-      <c r="BV8"/>
-      <c r="BW8"/>
-      <c r="BX8"/>
       <c r="BY8"/>
       <c r="BZ8"/>
       <c r="CA8"/>
+      <c r="CB8"/>
+      <c r="CC8"/>
+      <c r="CD8"/>
+      <c r="CE8"/>
     </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4223,127 +4327,137 @@
         <v>299</v>
       </c>
       <c r="V9" s="1"/>
-      <c r="W9" s="33" t="s">
+      <c r="W9" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="X9" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y9" s="33">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X9" s="16" t="s">
+      <c r="AB9" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y9" s="56" t="s">
+      <c r="AC9" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z9" s="33" t="s">
+      <c r="AD9" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA9" s="16" t="s">
+      <c r="AE9" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB9" s="56" t="s">
+      <c r="AF9" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AG9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD9" s="59" t="s">
+      <c r="AH9" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="AE9" s="59" t="s">
+      <c r="AI9" s="59" t="s">
         <v>309</v>
       </c>
-      <c r="AF9" s="59" t="s">
+      <c r="AJ9" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="AG9" s="59" t="s">
+      <c r="AK9" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="AH9" s="59"/>
-      <c r="AI9" s="61" t="s">
+      <c r="AL9" s="59"/>
+      <c r="AM9" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="AJ9" s="62"/>
-      <c r="AK9" s="63">
+      <c r="AN9" s="62"/>
+      <c r="AO9" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AQ9" t="s">
         <v>300</v>
       </c>
-      <c r="AN9" s="42" t="s">
+      <c r="AR9" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="AO9" s="1" t="s">
+      <c r="AS9" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP9" s="42">
+      <c r="AT9" s="42">
         <v>15</v>
       </c>
-      <c r="AQ9" s="1" t="s">
+      <c r="AU9" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AR9" t="s">
+      <c r="AV9" t="s">
         <v>49</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AW9" t="s">
         <v>8</v>
       </c>
-      <c r="AT9" t="s">
+      <c r="AX9" t="s">
         <v>9</v>
       </c>
-      <c r="AU9" t="s">
+      <c r="AY9" t="s">
         <v>10</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AZ9" t="s">
         <v>67</v>
       </c>
-      <c r="AW9" t="s">
+      <c r="BA9" t="s">
         <v>11</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="BB9" t="s">
         <v>76</v>
       </c>
-      <c r="AZ9">
+      <c r="BD9">
         <v>151</v>
       </c>
-      <c r="BA9">
+      <c r="BE9">
         <v>151</v>
       </c>
-      <c r="BC9" s="57"/>
-      <c r="BD9" s="57"/>
-      <c r="BE9" s="57"/>
-      <c r="BF9" s="57"/>
-      <c r="BH9" s="65">
+      <c r="BG9" s="57"/>
+      <c r="BH9" s="57"/>
+      <c r="BI9" s="57"/>
+      <c r="BJ9" s="57"/>
+      <c r="BL9" s="65">
         <v>41226</v>
       </c>
-      <c r="BI9" s="66" t="s">
+      <c r="BM9" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="BJ9" s="67">
+      <c r="BN9" s="67">
         <v>31.671759999999999</v>
       </c>
-      <c r="BK9" s="67">
+      <c r="BO9" s="67">
         <v>34.543559999999999</v>
       </c>
-      <c r="BL9" s="42" t="s">
+      <c r="BP9" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="BM9" t="s">
+      <c r="BQ9" t="s">
         <v>263</v>
       </c>
-      <c r="BN9" s="25"/>
-      <c r="BS9">
+      <c r="BR9" s="25"/>
+      <c r="BW9">
         <v>5</v>
       </c>
-      <c r="BT9" s="71" t="s">
+      <c r="BX9" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BU9"/>
-      <c r="BV9"/>
-      <c r="BW9"/>
-      <c r="BX9"/>
       <c r="BY9"/>
       <c r="BZ9"/>
       <c r="CA9"/>
+      <c r="CB9"/>
+      <c r="CC9"/>
+      <c r="CD9"/>
+      <c r="CE9"/>
     </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4403,127 +4517,137 @@
         <v>299</v>
       </c>
       <c r="V10" s="1"/>
-      <c r="W10" s="33" t="s">
+      <c r="W10" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="X10" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y10" s="33">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X10" s="16" t="s">
+      <c r="AB10" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y10" s="56" t="s">
+      <c r="AC10" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z10" s="33" t="s">
+      <c r="AD10" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA10" s="16" t="s">
+      <c r="AE10" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB10" s="56" t="s">
+      <c r="AF10" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC10" s="1" t="s">
+      <c r="AG10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD10" s="59" t="s">
+      <c r="AH10" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="AE10" s="59" t="s">
+      <c r="AI10" s="59" t="s">
         <v>310</v>
       </c>
-      <c r="AF10" s="59" t="s">
+      <c r="AJ10" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="AG10" s="59" t="s">
+      <c r="AK10" s="59" t="s">
         <v>336</v>
       </c>
-      <c r="AH10" s="59"/>
-      <c r="AI10" s="61" t="s">
+      <c r="AL10" s="59"/>
+      <c r="AM10" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="AJ10" s="62"/>
-      <c r="AK10" s="63">
+      <c r="AN10" s="62"/>
+      <c r="AO10" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AQ10" t="s">
         <v>300</v>
       </c>
-      <c r="AN10" s="42" t="s">
+      <c r="AR10" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="AO10" s="1" t="s">
+      <c r="AS10" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP10" s="42">
+      <c r="AT10" s="42">
         <v>15</v>
       </c>
-      <c r="AQ10" s="1" t="s">
+      <c r="AU10" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AR10" t="s">
+      <c r="AV10" t="s">
         <v>49</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AW10" t="s">
         <v>8</v>
       </c>
-      <c r="AT10" t="s">
+      <c r="AX10" t="s">
         <v>9</v>
       </c>
-      <c r="AU10" t="s">
+      <c r="AY10" t="s">
         <v>10</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AZ10" t="s">
         <v>67</v>
       </c>
-      <c r="AW10" t="s">
+      <c r="BA10" t="s">
         <v>11</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="BB10" t="s">
         <v>76</v>
       </c>
-      <c r="AZ10">
+      <c r="BD10">
         <v>151</v>
       </c>
-      <c r="BA10">
+      <c r="BE10">
         <v>151</v>
       </c>
-      <c r="BC10" s="57"/>
-      <c r="BD10" s="57"/>
-      <c r="BE10" s="57"/>
-      <c r="BF10" s="57"/>
-      <c r="BH10" s="65">
+      <c r="BG10" s="57"/>
+      <c r="BH10" s="57"/>
+      <c r="BI10" s="57"/>
+      <c r="BJ10" s="57"/>
+      <c r="BL10" s="65">
         <v>41226</v>
       </c>
-      <c r="BI10" s="66" t="s">
+      <c r="BM10" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="BJ10" s="67">
+      <c r="BN10" s="67">
         <v>31.671759999999999</v>
       </c>
-      <c r="BK10" s="67">
+      <c r="BO10" s="67">
         <v>34.543559999999999</v>
       </c>
-      <c r="BL10" s="42" t="s">
+      <c r="BP10" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="BM10" t="s">
+      <c r="BQ10" t="s">
         <v>263</v>
       </c>
-      <c r="BN10" s="25"/>
-      <c r="BS10">
+      <c r="BR10" s="25"/>
+      <c r="BW10">
         <v>5</v>
       </c>
-      <c r="BT10" s="71" t="s">
+      <c r="BX10" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BU10"/>
-      <c r="BV10"/>
-      <c r="BW10"/>
-      <c r="BX10"/>
       <c r="BY10"/>
       <c r="BZ10"/>
       <c r="CA10"/>
+      <c r="CB10"/>
+      <c r="CC10"/>
+      <c r="CD10"/>
+      <c r="CE10"/>
     </row>
-    <row r="11" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4583,127 +4707,137 @@
         <v>299</v>
       </c>
       <c r="V11" s="1"/>
-      <c r="W11" s="33" t="s">
+      <c r="W11" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="X11" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y11" s="33">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X11" s="16" t="s">
+      <c r="AB11" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y11" s="56" t="s">
+      <c r="AC11" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z11" s="33" t="s">
+      <c r="AD11" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA11" s="16" t="s">
+      <c r="AE11" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB11" s="56" t="s">
+      <c r="AF11" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AG11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD11" s="59" t="s">
+      <c r="AH11" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AE11" s="59" t="s">
+      <c r="AI11" s="59" t="s">
         <v>311</v>
       </c>
-      <c r="AF11" s="59" t="s">
+      <c r="AJ11" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="AG11" s="59" t="s">
+      <c r="AK11" s="59" t="s">
         <v>337</v>
       </c>
-      <c r="AH11" s="59"/>
-      <c r="AI11" s="61" t="s">
+      <c r="AL11" s="59"/>
+      <c r="AM11" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="AJ11" s="62"/>
-      <c r="AK11" s="63">
+      <c r="AN11" s="62"/>
+      <c r="AO11" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AQ11" t="s">
         <v>300</v>
       </c>
-      <c r="AN11" s="42" t="s">
+      <c r="AR11" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="AO11" s="1" t="s">
+      <c r="AS11" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP11" s="42">
+      <c r="AT11" s="42">
         <v>15</v>
       </c>
-      <c r="AQ11" s="1" t="s">
+      <c r="AU11" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AR11" t="s">
+      <c r="AV11" t="s">
         <v>49</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AW11" t="s">
         <v>8</v>
       </c>
-      <c r="AT11" t="s">
+      <c r="AX11" t="s">
         <v>9</v>
       </c>
-      <c r="AU11" t="s">
+      <c r="AY11" t="s">
         <v>10</v>
       </c>
-      <c r="AV11" t="s">
+      <c r="AZ11" t="s">
         <v>67</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="BA11" t="s">
         <v>11</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="BB11" t="s">
         <v>76</v>
       </c>
-      <c r="AZ11">
+      <c r="BD11">
         <v>151</v>
       </c>
-      <c r="BA11">
+      <c r="BE11">
         <v>151</v>
       </c>
-      <c r="BC11" s="57"/>
-      <c r="BD11" s="57"/>
-      <c r="BE11" s="57"/>
-      <c r="BF11" s="57"/>
-      <c r="BH11" s="65">
+      <c r="BG11" s="57"/>
+      <c r="BH11" s="57"/>
+      <c r="BI11" s="57"/>
+      <c r="BJ11" s="57"/>
+      <c r="BL11" s="65">
         <v>41226</v>
       </c>
-      <c r="BI11" s="66" t="s">
+      <c r="BM11" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="BJ11" s="67">
+      <c r="BN11" s="67">
         <v>31.671759999999999</v>
       </c>
-      <c r="BK11" s="67">
+      <c r="BO11" s="67">
         <v>34.543559999999999</v>
       </c>
-      <c r="BL11" s="42" t="s">
+      <c r="BP11" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="BM11" t="s">
+      <c r="BQ11" t="s">
         <v>263</v>
       </c>
-      <c r="BN11" s="25"/>
-      <c r="BS11">
+      <c r="BR11" s="25"/>
+      <c r="BW11">
         <v>5</v>
       </c>
-      <c r="BT11" s="71" t="s">
+      <c r="BX11" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BU11"/>
-      <c r="BV11"/>
-      <c r="BW11"/>
-      <c r="BX11"/>
       <c r="BY11"/>
       <c r="BZ11"/>
       <c r="CA11"/>
+      <c r="CB11"/>
+      <c r="CC11"/>
+      <c r="CD11"/>
+      <c r="CE11"/>
     </row>
-    <row r="12" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4763,127 +4897,137 @@
         <v>299</v>
       </c>
       <c r="V12" s="1"/>
-      <c r="W12" s="33" t="s">
+      <c r="W12" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="X12" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y12" s="33">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X12" s="16" t="s">
+      <c r="AB12" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y12" s="56" t="s">
+      <c r="AC12" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z12" s="33" t="s">
+      <c r="AD12" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA12" s="16" t="s">
+      <c r="AE12" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB12" s="56" t="s">
+      <c r="AF12" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC12" s="1" t="s">
+      <c r="AG12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD12" s="59" t="s">
+      <c r="AH12" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="AE12" s="59" t="s">
+      <c r="AI12" s="59" t="s">
         <v>312</v>
       </c>
-      <c r="AF12" s="59" t="s">
+      <c r="AJ12" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="AG12" s="59" t="s">
+      <c r="AK12" s="59" t="s">
         <v>338</v>
       </c>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="61" t="s">
+      <c r="AL12" s="59"/>
+      <c r="AM12" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="AJ12" s="62"/>
-      <c r="AK12" s="63">
+      <c r="AN12" s="62"/>
+      <c r="AO12" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AQ12" t="s">
         <v>300</v>
       </c>
-      <c r="AN12" s="42" t="s">
+      <c r="AR12" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="AO12" s="1" t="s">
+      <c r="AS12" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP12" s="42">
+      <c r="AT12" s="42">
         <v>15</v>
       </c>
-      <c r="AQ12" s="1" t="s">
+      <c r="AU12" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AR12" t="s">
+      <c r="AV12" t="s">
         <v>49</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AW12" t="s">
         <v>8</v>
       </c>
-      <c r="AT12" t="s">
+      <c r="AX12" t="s">
         <v>9</v>
       </c>
-      <c r="AU12" t="s">
+      <c r="AY12" t="s">
         <v>10</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AZ12" t="s">
         <v>67</v>
       </c>
-      <c r="AW12" t="s">
+      <c r="BA12" t="s">
         <v>11</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="BB12" t="s">
         <v>76</v>
       </c>
-      <c r="AZ12">
+      <c r="BD12">
         <v>151</v>
       </c>
-      <c r="BA12">
+      <c r="BE12">
         <v>151</v>
       </c>
-      <c r="BC12" s="57"/>
-      <c r="BD12" s="57"/>
-      <c r="BE12" s="57"/>
-      <c r="BF12" s="57"/>
-      <c r="BH12" s="65">
+      <c r="BG12" s="57"/>
+      <c r="BH12" s="57"/>
+      <c r="BI12" s="57"/>
+      <c r="BJ12" s="57"/>
+      <c r="BL12" s="65">
         <v>41227</v>
       </c>
-      <c r="BI12" s="66" t="s">
+      <c r="BM12" s="66" t="s">
         <v>251</v>
       </c>
-      <c r="BJ12" s="67">
+      <c r="BN12" s="67">
         <v>31.941859999999998</v>
       </c>
-      <c r="BK12" s="67">
+      <c r="BO12" s="67">
         <v>34.68862</v>
       </c>
-      <c r="BL12" s="42" t="s">
+      <c r="BP12" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="BM12" s="58" t="s">
+      <c r="BQ12" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="BN12" s="25"/>
-      <c r="BS12">
+      <c r="BR12" s="25"/>
+      <c r="BW12">
         <v>18</v>
       </c>
-      <c r="BT12" s="71" t="s">
+      <c r="BX12" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BU12"/>
-      <c r="BV12"/>
-      <c r="BW12"/>
-      <c r="BX12"/>
       <c r="BY12"/>
       <c r="BZ12"/>
       <c r="CA12"/>
+      <c r="CB12"/>
+      <c r="CC12"/>
+      <c r="CD12"/>
+      <c r="CE12"/>
     </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4943,127 +5087,137 @@
         <v>299</v>
       </c>
       <c r="V13" s="1"/>
-      <c r="W13" s="33" t="s">
+      <c r="W13" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="X13" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y13" s="33">
+        <v>4</v>
+      </c>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X13" s="16" t="s">
+      <c r="AB13" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y13" s="56" t="s">
+      <c r="AC13" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z13" s="33" t="s">
+      <c r="AD13" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA13" s="16" t="s">
+      <c r="AE13" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB13" s="56" t="s">
+      <c r="AF13" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AG13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD13" s="59" t="s">
+      <c r="AH13" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="AE13" s="59" t="s">
+      <c r="AI13" s="59" t="s">
         <v>313</v>
       </c>
-      <c r="AF13" s="59" t="s">
+      <c r="AJ13" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="AG13" s="59" t="s">
+      <c r="AK13" s="59" t="s">
         <v>339</v>
       </c>
-      <c r="AH13" s="59"/>
-      <c r="AI13" s="61" t="s">
+      <c r="AL13" s="59"/>
+      <c r="AM13" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="AJ13" s="62"/>
-      <c r="AK13" s="63">
+      <c r="AN13" s="62"/>
+      <c r="AO13" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AQ13" t="s">
         <v>300</v>
       </c>
-      <c r="AN13" s="42" t="s">
+      <c r="AR13" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="AO13" s="1" t="s">
+      <c r="AS13" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP13" s="42">
+      <c r="AT13" s="42">
         <v>15</v>
       </c>
-      <c r="AQ13" s="1" t="s">
+      <c r="AU13" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AR13" t="s">
+      <c r="AV13" t="s">
         <v>49</v>
       </c>
-      <c r="AS13" t="s">
+      <c r="AW13" t="s">
         <v>8</v>
       </c>
-      <c r="AT13" t="s">
+      <c r="AX13" t="s">
         <v>9</v>
       </c>
-      <c r="AU13" t="s">
+      <c r="AY13" t="s">
         <v>10</v>
       </c>
-      <c r="AV13" t="s">
+      <c r="AZ13" t="s">
         <v>67</v>
       </c>
-      <c r="AW13" t="s">
+      <c r="BA13" t="s">
         <v>11</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="BB13" t="s">
         <v>76</v>
       </c>
-      <c r="AZ13">
+      <c r="BD13">
         <v>151</v>
       </c>
-      <c r="BA13">
+      <c r="BE13">
         <v>151</v>
       </c>
-      <c r="BC13" s="57"/>
-      <c r="BD13" s="57"/>
-      <c r="BE13" s="57"/>
-      <c r="BF13" s="57"/>
-      <c r="BH13" s="65">
+      <c r="BG13" s="57"/>
+      <c r="BH13" s="57"/>
+      <c r="BI13" s="57"/>
+      <c r="BJ13" s="57"/>
+      <c r="BL13" s="65">
         <v>41227</v>
       </c>
-      <c r="BI13" s="66" t="s">
+      <c r="BM13" s="66" t="s">
         <v>251</v>
       </c>
-      <c r="BJ13" s="67">
+      <c r="BN13" s="67">
         <v>31.941859999999998</v>
       </c>
-      <c r="BK13" s="67">
+      <c r="BO13" s="67">
         <v>34.68862</v>
       </c>
-      <c r="BL13" s="42" t="s">
+      <c r="BP13" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="BM13" s="58" t="s">
+      <c r="BQ13" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="BN13" s="25"/>
-      <c r="BS13">
+      <c r="BR13" s="25"/>
+      <c r="BW13">
         <v>18</v>
       </c>
-      <c r="BT13" s="71" t="s">
+      <c r="BX13" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BU13"/>
-      <c r="BV13"/>
-      <c r="BW13"/>
-      <c r="BX13"/>
       <c r="BY13"/>
       <c r="BZ13"/>
       <c r="CA13"/>
+      <c r="CB13"/>
+      <c r="CC13"/>
+      <c r="CD13"/>
+      <c r="CE13"/>
     </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5123,127 +5277,137 @@
         <v>299</v>
       </c>
       <c r="V14" s="1"/>
-      <c r="W14" s="33" t="s">
+      <c r="W14" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="X14" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y14" s="33">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X14" s="16" t="s">
+      <c r="AB14" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y14" s="56" t="s">
+      <c r="AC14" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z14" s="33" t="s">
+      <c r="AD14" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA14" s="16" t="s">
+      <c r="AE14" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB14" s="56" t="s">
+      <c r="AF14" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC14" s="1" t="s">
+      <c r="AG14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD14" s="59" t="s">
+      <c r="AH14" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="AE14" s="59" t="s">
+      <c r="AI14" s="59" t="s">
         <v>314</v>
       </c>
-      <c r="AF14" s="59" t="s">
+      <c r="AJ14" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="AG14" s="59" t="s">
+      <c r="AK14" s="59" t="s">
         <v>340</v>
       </c>
-      <c r="AH14" s="59"/>
-      <c r="AI14" s="61" t="s">
+      <c r="AL14" s="59"/>
+      <c r="AM14" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="AJ14" s="62"/>
-      <c r="AK14" s="63">
+      <c r="AN14" s="62"/>
+      <c r="AO14" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AQ14" t="s">
         <v>300</v>
       </c>
-      <c r="AN14" s="42" t="s">
+      <c r="AR14" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="AO14" s="1" t="s">
+      <c r="AS14" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP14" s="42">
+      <c r="AT14" s="42">
         <v>15</v>
       </c>
-      <c r="AQ14" s="1" t="s">
+      <c r="AU14" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AR14" t="s">
+      <c r="AV14" t="s">
         <v>49</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AW14" t="s">
         <v>8</v>
       </c>
-      <c r="AT14" t="s">
+      <c r="AX14" t="s">
         <v>9</v>
       </c>
-      <c r="AU14" t="s">
+      <c r="AY14" t="s">
         <v>10</v>
       </c>
-      <c r="AV14" t="s">
+      <c r="AZ14" t="s">
         <v>67</v>
       </c>
-      <c r="AW14" t="s">
+      <c r="BA14" t="s">
         <v>11</v>
       </c>
-      <c r="AX14" t="s">
+      <c r="BB14" t="s">
         <v>76</v>
       </c>
-      <c r="AZ14">
+      <c r="BD14">
         <v>151</v>
       </c>
-      <c r="BA14">
+      <c r="BE14">
         <v>151</v>
       </c>
-      <c r="BC14" s="57"/>
-      <c r="BD14" s="57"/>
-      <c r="BE14" s="57"/>
-      <c r="BF14" s="57"/>
-      <c r="BH14" s="65">
+      <c r="BG14" s="57"/>
+      <c r="BH14" s="57"/>
+      <c r="BI14" s="57"/>
+      <c r="BJ14" s="57"/>
+      <c r="BL14" s="65">
         <v>41227</v>
       </c>
-      <c r="BI14" s="66" t="s">
+      <c r="BM14" s="66" t="s">
         <v>251</v>
       </c>
-      <c r="BJ14" s="67">
+      <c r="BN14" s="67">
         <v>31.941859999999998</v>
       </c>
-      <c r="BK14" s="67">
+      <c r="BO14" s="67">
         <v>34.68862</v>
       </c>
-      <c r="BL14" s="42" t="s">
+      <c r="BP14" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="BM14" s="58" t="s">
+      <c r="BQ14" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="BN14" s="25"/>
-      <c r="BS14">
+      <c r="BR14" s="25"/>
+      <c r="BW14">
         <v>18</v>
       </c>
-      <c r="BT14" s="71" t="s">
+      <c r="BX14" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BU14"/>
-      <c r="BV14"/>
-      <c r="BW14"/>
-      <c r="BX14"/>
       <c r="BY14"/>
       <c r="BZ14"/>
       <c r="CA14"/>
+      <c r="CB14"/>
+      <c r="CC14"/>
+      <c r="CD14"/>
+      <c r="CE14"/>
     </row>
-    <row r="15" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5303,127 +5467,137 @@
         <v>299</v>
       </c>
       <c r="V15" s="1"/>
-      <c r="W15" s="33" t="s">
+      <c r="W15" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="X15" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y15" s="33">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X15" s="16" t="s">
+      <c r="AB15" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y15" s="56" t="s">
+      <c r="AC15" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z15" s="33" t="s">
+      <c r="AD15" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA15" s="16" t="s">
+      <c r="AE15" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB15" s="56" t="s">
+      <c r="AF15" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AG15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD15" s="59" t="s">
+      <c r="AH15" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="AE15" s="59" t="s">
+      <c r="AI15" s="59" t="s">
         <v>315</v>
       </c>
-      <c r="AF15" s="59" t="s">
+      <c r="AJ15" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="AG15" s="59" t="s">
+      <c r="AK15" s="59" t="s">
         <v>341</v>
       </c>
-      <c r="AH15" s="59"/>
-      <c r="AI15" s="61" t="s">
+      <c r="AL15" s="59"/>
+      <c r="AM15" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="AJ15" s="62"/>
-      <c r="AK15" s="63">
+      <c r="AN15" s="62"/>
+      <c r="AO15" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AQ15" t="s">
         <v>300</v>
       </c>
-      <c r="AN15" s="42" t="s">
+      <c r="AR15" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="AO15" s="1" t="s">
+      <c r="AS15" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP15" s="42">
+      <c r="AT15" s="42">
         <v>15</v>
       </c>
-      <c r="AQ15" s="1" t="s">
+      <c r="AU15" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AR15" t="s">
+      <c r="AV15" t="s">
         <v>49</v>
       </c>
-      <c r="AS15" t="s">
+      <c r="AW15" t="s">
         <v>8</v>
       </c>
-      <c r="AT15" t="s">
+      <c r="AX15" t="s">
         <v>9</v>
       </c>
-      <c r="AU15" t="s">
+      <c r="AY15" t="s">
         <v>10</v>
       </c>
-      <c r="AV15" t="s">
+      <c r="AZ15" t="s">
         <v>67</v>
       </c>
-      <c r="AW15" t="s">
+      <c r="BA15" t="s">
         <v>11</v>
       </c>
-      <c r="AX15" t="s">
+      <c r="BB15" t="s">
         <v>76</v>
       </c>
-      <c r="AZ15">
+      <c r="BD15">
         <v>151</v>
       </c>
-      <c r="BA15">
+      <c r="BE15">
         <v>151</v>
       </c>
-      <c r="BC15" s="57"/>
-      <c r="BD15" s="57"/>
-      <c r="BE15" s="57"/>
-      <c r="BF15" s="57"/>
-      <c r="BH15" s="65">
+      <c r="BG15" s="57"/>
+      <c r="BH15" s="57"/>
+      <c r="BI15" s="57"/>
+      <c r="BJ15" s="57"/>
+      <c r="BL15" s="65">
         <v>41227</v>
       </c>
-      <c r="BI15" s="66" t="s">
+      <c r="BM15" s="66" t="s">
         <v>252</v>
       </c>
-      <c r="BJ15" s="67">
+      <c r="BN15" s="67">
         <v>31.94068</v>
       </c>
-      <c r="BK15" s="67">
+      <c r="BO15" s="67">
         <v>34.687379999999997</v>
       </c>
-      <c r="BL15" s="42" t="s">
+      <c r="BP15" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="BM15" s="58" t="s">
+      <c r="BQ15" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="BN15" s="25"/>
-      <c r="BS15">
+      <c r="BR15" s="25"/>
+      <c r="BW15">
         <v>19</v>
       </c>
-      <c r="BT15" s="71" t="s">
+      <c r="BX15" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BU15"/>
-      <c r="BV15"/>
-      <c r="BW15"/>
-      <c r="BX15"/>
       <c r="BY15"/>
       <c r="BZ15"/>
       <c r="CA15"/>
+      <c r="CB15"/>
+      <c r="CC15"/>
+      <c r="CD15"/>
+      <c r="CE15"/>
     </row>
-    <row r="16" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5477,122 +5651,132 @@
         <v>299</v>
       </c>
       <c r="V16" s="1"/>
-      <c r="W16" s="33" t="s">
+      <c r="W16" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="X16" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y16" s="33">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X16" s="16" t="s">
+      <c r="AB16" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y16" s="56" t="s">
+      <c r="AC16" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z16" s="33" t="s">
+      <c r="AD16" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA16" s="16" t="s">
+      <c r="AE16" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB16" s="56" t="s">
+      <c r="AF16" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="59" t="s">
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="AE16" s="59" t="s">
+      <c r="AI16" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="AF16" s="59" t="s">
+      <c r="AJ16" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="AG16" s="59" t="s">
+      <c r="AK16" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="AH16" s="59"/>
-      <c r="AI16" s="61" t="s">
+      <c r="AL16" s="59"/>
+      <c r="AM16" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="AJ16" s="62"/>
-      <c r="AK16" s="63">
+      <c r="AN16" s="62"/>
+      <c r="AO16" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AQ16" t="s">
         <v>300</v>
       </c>
-      <c r="AN16" s="42" t="s">
+      <c r="AR16" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="AO16" s="1" t="s">
+      <c r="AS16" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP16" s="42">
+      <c r="AT16" s="42">
         <v>15</v>
       </c>
-      <c r="AQ16" s="1" t="s">
+      <c r="AU16" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AS16" t="s">
+      <c r="AW16" t="s">
         <v>8</v>
       </c>
-      <c r="AT16" t="s">
+      <c r="AX16" t="s">
         <v>9</v>
       </c>
-      <c r="AU16" t="s">
+      <c r="AY16" t="s">
         <v>10</v>
       </c>
-      <c r="AV16" t="s">
+      <c r="AZ16" t="s">
         <v>67</v>
       </c>
-      <c r="AW16" t="s">
+      <c r="BA16" t="s">
         <v>11</v>
       </c>
-      <c r="AX16" t="s">
+      <c r="BB16" t="s">
         <v>76</v>
       </c>
-      <c r="AZ16">
+      <c r="BD16">
         <v>151</v>
       </c>
-      <c r="BA16">
+      <c r="BE16">
         <v>151</v>
       </c>
-      <c r="BC16" s="57"/>
-      <c r="BD16" s="57"/>
-      <c r="BE16" s="57"/>
-      <c r="BF16" s="57"/>
-      <c r="BH16" s="65">
+      <c r="BG16" s="57"/>
+      <c r="BH16" s="57"/>
+      <c r="BI16" s="57"/>
+      <c r="BJ16" s="57"/>
+      <c r="BL16" s="65">
         <v>41227</v>
       </c>
-      <c r="BI16" s="66" t="s">
+      <c r="BM16" s="66" t="s">
         <v>252</v>
       </c>
-      <c r="BJ16" s="67">
+      <c r="BN16" s="67">
         <v>31.94068</v>
       </c>
-      <c r="BK16" s="67">
+      <c r="BO16" s="67">
         <v>34.687379999999997</v>
       </c>
-      <c r="BL16" s="42" t="s">
+      <c r="BP16" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="BM16" s="58" t="s">
+      <c r="BQ16" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="BN16" s="25"/>
-      <c r="BS16">
+      <c r="BR16" s="25"/>
+      <c r="BW16">
         <v>19</v>
       </c>
-      <c r="BT16" s="71" t="s">
+      <c r="BX16" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BU16"/>
-      <c r="BV16"/>
-      <c r="BW16"/>
-      <c r="BX16"/>
       <c r="BY16"/>
       <c r="BZ16"/>
       <c r="CA16"/>
+      <c r="CB16"/>
+      <c r="CC16"/>
+      <c r="CD16"/>
+      <c r="CE16"/>
     </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5650,122 +5834,132 @@
         <v>299</v>
       </c>
       <c r="V17" s="1"/>
-      <c r="W17" s="33" t="s">
+      <c r="W17" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="X17" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y17" s="33">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X17" s="16" t="s">
+      <c r="AB17" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y17" s="56" t="s">
+      <c r="AC17" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z17" s="33" t="s">
+      <c r="AD17" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA17" s="16" t="s">
+      <c r="AE17" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB17" s="56" t="s">
+      <c r="AF17" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="59" t="s">
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="AE17" s="59" t="s">
+      <c r="AI17" s="59" t="s">
         <v>317</v>
       </c>
-      <c r="AF17" s="59" t="s">
+      <c r="AJ17" s="59" t="s">
         <v>223</v>
       </c>
-      <c r="AG17" s="59" t="s">
+      <c r="AK17" s="59" t="s">
         <v>343</v>
       </c>
-      <c r="AH17" s="59"/>
-      <c r="AI17" s="61" t="s">
+      <c r="AL17" s="59"/>
+      <c r="AM17" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="AJ17" s="62"/>
-      <c r="AK17" s="63">
+      <c r="AN17" s="62"/>
+      <c r="AO17" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AQ17" t="s">
         <v>300</v>
       </c>
-      <c r="AN17" s="42" t="s">
+      <c r="AR17" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="AO17" s="1" t="s">
+      <c r="AS17" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP17" s="42">
+      <c r="AT17" s="42">
         <v>15</v>
       </c>
-      <c r="AQ17" s="1" t="s">
+      <c r="AU17" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="AW17" t="s">
         <v>8</v>
       </c>
-      <c r="AT17" t="s">
+      <c r="AX17" t="s">
         <v>9</v>
       </c>
-      <c r="AU17" t="s">
+      <c r="AY17" t="s">
         <v>10</v>
       </c>
-      <c r="AV17" t="s">
+      <c r="AZ17" t="s">
         <v>67</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="BA17" t="s">
         <v>11</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="BB17" t="s">
         <v>76</v>
       </c>
-      <c r="AZ17">
+      <c r="BD17">
         <v>151</v>
       </c>
-      <c r="BA17">
+      <c r="BE17">
         <v>151</v>
       </c>
-      <c r="BC17" s="57"/>
-      <c r="BD17" s="57"/>
-      <c r="BE17" s="57"/>
-      <c r="BF17" s="57"/>
-      <c r="BH17" s="65">
+      <c r="BG17" s="57"/>
+      <c r="BH17" s="57"/>
+      <c r="BI17" s="57"/>
+      <c r="BJ17" s="57"/>
+      <c r="BL17" s="65">
         <v>41227</v>
       </c>
-      <c r="BI17" s="66" t="s">
+      <c r="BM17" s="66" t="s">
         <v>252</v>
       </c>
-      <c r="BJ17" s="67">
+      <c r="BN17" s="67">
         <v>31.94068</v>
       </c>
-      <c r="BK17" s="67">
+      <c r="BO17" s="67">
         <v>34.687379999999997</v>
       </c>
-      <c r="BL17" s="42" t="s">
+      <c r="BP17" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="BM17" s="58" t="s">
+      <c r="BQ17" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="BN17" s="25"/>
-      <c r="BS17">
+      <c r="BR17" s="25"/>
+      <c r="BW17">
         <v>19</v>
       </c>
-      <c r="BT17" s="71" t="s">
+      <c r="BX17" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BU17"/>
-      <c r="BV17"/>
-      <c r="BW17"/>
-      <c r="BX17"/>
       <c r="BY17"/>
       <c r="BZ17"/>
       <c r="CA17"/>
+      <c r="CB17"/>
+      <c r="CC17"/>
+      <c r="CD17"/>
+      <c r="CE17"/>
     </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5823,122 +6017,132 @@
         <v>299</v>
       </c>
       <c r="V18" s="1"/>
-      <c r="W18" s="33" t="s">
+      <c r="W18" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="X18" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y18" s="33">
+        <v>6</v>
+      </c>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X18" s="16" t="s">
+      <c r="AB18" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y18" s="56" t="s">
+      <c r="AC18" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z18" s="33" t="s">
+      <c r="AD18" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA18" s="16" t="s">
+      <c r="AE18" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB18" s="56" t="s">
+      <c r="AF18" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="59" t="s">
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="AE18" s="59" t="s">
+      <c r="AI18" s="59" t="s">
         <v>318</v>
       </c>
-      <c r="AF18" s="59" t="s">
+      <c r="AJ18" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="AG18" s="59" t="s">
+      <c r="AK18" s="59" t="s">
         <v>344</v>
       </c>
-      <c r="AH18" s="59"/>
-      <c r="AI18" s="61" t="s">
+      <c r="AL18" s="59"/>
+      <c r="AM18" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="AJ18" s="62"/>
-      <c r="AK18" s="63">
+      <c r="AN18" s="62"/>
+      <c r="AO18" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="AQ18" t="s">
         <v>300</v>
       </c>
-      <c r="AN18" s="42" t="s">
+      <c r="AR18" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="AO18" s="1" t="s">
+      <c r="AS18" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP18" s="42">
+      <c r="AT18" s="42">
         <v>15</v>
       </c>
-      <c r="AQ18" s="1" t="s">
+      <c r="AU18" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AS18" t="s">
+      <c r="AW18" t="s">
         <v>8</v>
       </c>
-      <c r="AT18" t="s">
+      <c r="AX18" t="s">
         <v>9</v>
       </c>
-      <c r="AU18" t="s">
+      <c r="AY18" t="s">
         <v>10</v>
       </c>
-      <c r="AV18" t="s">
+      <c r="AZ18" t="s">
         <v>67</v>
       </c>
-      <c r="AW18" t="s">
+      <c r="BA18" t="s">
         <v>11</v>
       </c>
-      <c r="AX18" t="s">
+      <c r="BB18" t="s">
         <v>76</v>
       </c>
-      <c r="AZ18">
+      <c r="BD18">
         <v>151</v>
       </c>
-      <c r="BA18">
+      <c r="BE18">
         <v>151</v>
       </c>
-      <c r="BC18" s="57"/>
-      <c r="BD18" s="57"/>
-      <c r="BE18" s="57"/>
-      <c r="BF18" s="57"/>
-      <c r="BH18" s="65">
+      <c r="BG18" s="57"/>
+      <c r="BH18" s="57"/>
+      <c r="BI18" s="57"/>
+      <c r="BJ18" s="57"/>
+      <c r="BL18" s="65">
         <v>41227</v>
       </c>
-      <c r="BI18" s="66" t="s">
+      <c r="BM18" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="BJ18" s="67">
+      <c r="BN18" s="67">
         <v>31.931660000000001</v>
       </c>
-      <c r="BK18" s="67">
+      <c r="BO18" s="67">
         <v>34.68336</v>
       </c>
-      <c r="BL18" s="42" t="s">
+      <c r="BP18" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="BM18" s="58" t="s">
+      <c r="BQ18" s="58" t="s">
         <v>265</v>
       </c>
-      <c r="BN18" s="25"/>
-      <c r="BS18">
+      <c r="BR18" s="25"/>
+      <c r="BW18">
         <v>18</v>
       </c>
-      <c r="BT18" s="71" t="s">
+      <c r="BX18" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BU18"/>
-      <c r="BV18"/>
-      <c r="BW18"/>
-      <c r="BX18"/>
       <c r="BY18"/>
       <c r="BZ18"/>
       <c r="CA18"/>
+      <c r="CB18"/>
+      <c r="CC18"/>
+      <c r="CD18"/>
+      <c r="CE18"/>
     </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5992,122 +6196,132 @@
         <v>299</v>
       </c>
       <c r="V19" s="1"/>
-      <c r="W19" s="33" t="s">
+      <c r="W19" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="X19" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y19" s="33">
+        <v>6</v>
+      </c>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X19" s="16" t="s">
+      <c r="AB19" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y19" s="56" t="s">
+      <c r="AC19" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z19" s="33" t="s">
+      <c r="AD19" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA19" s="16" t="s">
+      <c r="AE19" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB19" s="56" t="s">
+      <c r="AF19" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="59" t="s">
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="AE19" s="59" t="s">
+      <c r="AI19" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="AF19" s="59" t="s">
+      <c r="AJ19" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="AG19" s="59" t="s">
+      <c r="AK19" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="AH19" s="59"/>
-      <c r="AI19" s="61" t="s">
+      <c r="AL19" s="59"/>
+      <c r="AM19" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="AJ19" s="62"/>
-      <c r="AK19" s="63">
+      <c r="AN19" s="62"/>
+      <c r="AO19" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM19" t="s">
+      <c r="AQ19" t="s">
         <v>300</v>
       </c>
-      <c r="AN19" s="42" t="s">
+      <c r="AR19" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="AO19" s="1" t="s">
+      <c r="AS19" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP19" s="42">
+      <c r="AT19" s="42">
         <v>15</v>
       </c>
-      <c r="AQ19" s="1" t="s">
+      <c r="AU19" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AS19" t="s">
+      <c r="AW19" t="s">
         <v>8</v>
       </c>
-      <c r="AT19" t="s">
+      <c r="AX19" t="s">
         <v>9</v>
       </c>
-      <c r="AU19" t="s">
+      <c r="AY19" t="s">
         <v>10</v>
       </c>
-      <c r="AV19" t="s">
+      <c r="AZ19" t="s">
         <v>67</v>
       </c>
-      <c r="AW19" t="s">
+      <c r="BA19" t="s">
         <v>11</v>
       </c>
-      <c r="AX19" t="s">
+      <c r="BB19" t="s">
         <v>76</v>
       </c>
-      <c r="AZ19">
+      <c r="BD19">
         <v>151</v>
       </c>
-      <c r="BA19">
+      <c r="BE19">
         <v>151</v>
       </c>
-      <c r="BC19" s="57"/>
-      <c r="BD19" s="57"/>
-      <c r="BE19" s="57"/>
-      <c r="BF19" s="57"/>
-      <c r="BH19" s="65">
+      <c r="BG19" s="57"/>
+      <c r="BH19" s="57"/>
+      <c r="BI19" s="57"/>
+      <c r="BJ19" s="57"/>
+      <c r="BL19" s="65">
         <v>41227</v>
       </c>
-      <c r="BI19" s="66" t="s">
+      <c r="BM19" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="BJ19" s="67">
+      <c r="BN19" s="67">
         <v>31.931660000000001</v>
       </c>
-      <c r="BK19" s="67">
+      <c r="BO19" s="67">
         <v>34.68336</v>
       </c>
-      <c r="BL19" s="42" t="s">
+      <c r="BP19" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="BM19" t="s">
+      <c r="BQ19" t="s">
         <v>265</v>
       </c>
-      <c r="BN19" s="25"/>
-      <c r="BS19">
+      <c r="BR19" s="25"/>
+      <c r="BW19">
         <v>18</v>
       </c>
-      <c r="BT19" s="71" t="s">
+      <c r="BX19" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BU19"/>
-      <c r="BV19"/>
-      <c r="BW19"/>
-      <c r="BX19"/>
       <c r="BY19"/>
       <c r="BZ19"/>
       <c r="CA19"/>
+      <c r="CB19"/>
+      <c r="CC19"/>
+      <c r="CD19"/>
+      <c r="CE19"/>
     </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6165,122 +6379,132 @@
         <v>299</v>
       </c>
       <c r="V20" s="1"/>
-      <c r="W20" s="33" t="s">
+      <c r="W20" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="X20" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y20" s="33">
+        <v>6</v>
+      </c>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X20" s="16" t="s">
+      <c r="AB20" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y20" s="56" t="s">
+      <c r="AC20" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z20" s="33" t="s">
+      <c r="AD20" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA20" s="16" t="s">
+      <c r="AE20" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB20" s="56" t="s">
+      <c r="AF20" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="59" t="s">
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="AE20" s="59" t="s">
+      <c r="AI20" s="59" t="s">
         <v>320</v>
       </c>
-      <c r="AF20" s="59" t="s">
+      <c r="AJ20" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="AG20" s="59" t="s">
+      <c r="AK20" s="59" t="s">
         <v>346</v>
       </c>
-      <c r="AH20" s="59"/>
-      <c r="AI20" s="61" t="s">
+      <c r="AL20" s="59"/>
+      <c r="AM20" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="AJ20" s="62"/>
-      <c r="AK20" s="63">
+      <c r="AN20" s="62"/>
+      <c r="AO20" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM20" t="s">
+      <c r="AQ20" t="s">
         <v>300</v>
       </c>
-      <c r="AN20" s="42" t="s">
+      <c r="AR20" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="AO20" s="1" t="s">
+      <c r="AS20" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP20" s="42">
+      <c r="AT20" s="42">
         <v>15</v>
       </c>
-      <c r="AQ20" s="1" t="s">
+      <c r="AU20" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AS20" t="s">
+      <c r="AW20" t="s">
         <v>8</v>
       </c>
-      <c r="AT20" t="s">
+      <c r="AX20" t="s">
         <v>9</v>
       </c>
-      <c r="AU20" t="s">
+      <c r="AY20" t="s">
         <v>10</v>
       </c>
-      <c r="AV20" t="s">
+      <c r="AZ20" t="s">
         <v>67</v>
       </c>
-      <c r="AW20" t="s">
+      <c r="BA20" t="s">
         <v>11</v>
       </c>
-      <c r="AX20" t="s">
+      <c r="BB20" t="s">
         <v>76</v>
       </c>
-      <c r="AZ20">
+      <c r="BD20">
         <v>151</v>
       </c>
-      <c r="BA20">
+      <c r="BE20">
         <v>151</v>
       </c>
-      <c r="BC20" s="57"/>
-      <c r="BD20" s="57"/>
-      <c r="BE20" s="57"/>
-      <c r="BF20" s="57"/>
-      <c r="BH20" s="65">
+      <c r="BG20" s="57"/>
+      <c r="BH20" s="57"/>
+      <c r="BI20" s="57"/>
+      <c r="BJ20" s="57"/>
+      <c r="BL20" s="65">
         <v>41227</v>
       </c>
-      <c r="BI20" s="66" t="s">
+      <c r="BM20" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="BJ20" s="67">
+      <c r="BN20" s="67">
         <v>31.931660000000001</v>
       </c>
-      <c r="BK20" s="67">
+      <c r="BO20" s="67">
         <v>34.68336</v>
       </c>
-      <c r="BL20" s="42" t="s">
+      <c r="BP20" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="BM20" t="s">
+      <c r="BQ20" t="s">
         <v>265</v>
       </c>
-      <c r="BN20" s="25"/>
-      <c r="BS20">
+      <c r="BR20" s="25"/>
+      <c r="BW20">
         <v>18</v>
       </c>
-      <c r="BT20" s="71" t="s">
+      <c r="BX20" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BU20"/>
-      <c r="BV20"/>
-      <c r="BW20"/>
-      <c r="BX20"/>
       <c r="BY20"/>
       <c r="BZ20"/>
       <c r="CA20"/>
+      <c r="CB20"/>
+      <c r="CC20"/>
+      <c r="CD20"/>
+      <c r="CE20"/>
     </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6334,122 +6558,132 @@
         <v>299</v>
       </c>
       <c r="V21" s="1"/>
-      <c r="W21" s="33" t="s">
+      <c r="W21" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="X21" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y21" s="33">
+        <v>7</v>
+      </c>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X21" s="16" t="s">
+      <c r="AB21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y21" s="56" t="s">
+      <c r="AC21" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z21" s="33" t="s">
+      <c r="AD21" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA21" s="16" t="s">
+      <c r="AE21" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB21" s="56" t="s">
+      <c r="AF21" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="59" t="s">
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="AE21" s="59" t="s">
+      <c r="AI21" s="59" t="s">
         <v>321</v>
       </c>
-      <c r="AF21" s="59" t="s">
+      <c r="AJ21" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="AG21" s="59" t="s">
+      <c r="AK21" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="AH21" s="59"/>
-      <c r="AI21" s="61" t="s">
+      <c r="AL21" s="59"/>
+      <c r="AM21" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="AJ21" s="62"/>
-      <c r="AK21" s="63">
+      <c r="AN21" s="62"/>
+      <c r="AO21" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM21" t="s">
+      <c r="AQ21" t="s">
         <v>300</v>
       </c>
-      <c r="AN21" s="42" t="s">
+      <c r="AR21" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="AO21" s="1" t="s">
+      <c r="AS21" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP21" s="42">
+      <c r="AT21" s="42">
         <v>15</v>
       </c>
-      <c r="AQ21" s="1" t="s">
+      <c r="AU21" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AS21" t="s">
+      <c r="AW21" t="s">
         <v>8</v>
       </c>
-      <c r="AT21" t="s">
+      <c r="AX21" t="s">
         <v>9</v>
       </c>
-      <c r="AU21" t="s">
+      <c r="AY21" t="s">
         <v>10</v>
       </c>
-      <c r="AV21" t="s">
+      <c r="AZ21" t="s">
         <v>67</v>
       </c>
-      <c r="AW21" t="s">
+      <c r="BA21" t="s">
         <v>11</v>
       </c>
-      <c r="AX21" t="s">
+      <c r="BB21" t="s">
         <v>76</v>
       </c>
-      <c r="AZ21">
+      <c r="BD21">
         <v>151</v>
       </c>
-      <c r="BA21">
+      <c r="BE21">
         <v>151</v>
       </c>
-      <c r="BC21" s="57"/>
-      <c r="BD21" s="57"/>
-      <c r="BE21" s="57"/>
-      <c r="BF21" s="57"/>
-      <c r="BH21" s="65">
+      <c r="BG21" s="57"/>
+      <c r="BH21" s="57"/>
+      <c r="BI21" s="57"/>
+      <c r="BJ21" s="57"/>
+      <c r="BL21" s="65">
         <v>41233</v>
       </c>
-      <c r="BI21" s="66" t="s">
+      <c r="BM21" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="BJ21" s="67">
+      <c r="BN21" s="67">
         <v>32.465020000000003</v>
       </c>
-      <c r="BK21" s="67">
+      <c r="BO21" s="67">
         <v>34.882582999999997</v>
       </c>
-      <c r="BL21" s="42" t="s">
+      <c r="BP21" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="BM21" s="58" t="s">
+      <c r="BQ21" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="BN21" s="25"/>
-      <c r="BS21">
+      <c r="BR21" s="25"/>
+      <c r="BW21">
         <v>3.8</v>
       </c>
-      <c r="BT21" s="42" t="s">
+      <c r="BX21" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="BU21"/>
-      <c r="BV21"/>
-      <c r="BW21"/>
-      <c r="BX21"/>
       <c r="BY21"/>
       <c r="BZ21"/>
       <c r="CA21"/>
+      <c r="CB21"/>
+      <c r="CC21"/>
+      <c r="CD21"/>
+      <c r="CE21"/>
     </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6507,122 +6741,132 @@
         <v>299</v>
       </c>
       <c r="V22" s="1"/>
-      <c r="W22" s="33" t="s">
+      <c r="W22" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="X22" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y22" s="33">
+        <v>7</v>
+      </c>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X22" s="16" t="s">
+      <c r="AB22" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y22" s="56" t="s">
+      <c r="AC22" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z22" s="33" t="s">
+      <c r="AD22" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA22" s="16" t="s">
+      <c r="AE22" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB22" s="56" t="s">
+      <c r="AF22" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="59" t="s">
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="AE22" s="59" t="s">
+      <c r="AI22" s="59" t="s">
         <v>322</v>
       </c>
-      <c r="AF22" s="59" t="s">
+      <c r="AJ22" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="AG22" s="59" t="s">
+      <c r="AK22" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="AH22" s="59"/>
-      <c r="AI22" s="61" t="s">
+      <c r="AL22" s="59"/>
+      <c r="AM22" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="AJ22" s="62"/>
-      <c r="AK22" s="63">
+      <c r="AN22" s="62"/>
+      <c r="AO22" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM22" t="s">
+      <c r="AQ22" t="s">
         <v>300</v>
       </c>
-      <c r="AN22" s="42" t="s">
+      <c r="AR22" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="AO22" s="1" t="s">
+      <c r="AS22" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP22" s="42">
+      <c r="AT22" s="42">
         <v>15</v>
       </c>
-      <c r="AQ22" s="1" t="s">
+      <c r="AU22" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AS22" t="s">
+      <c r="AW22" t="s">
         <v>8</v>
       </c>
-      <c r="AT22" t="s">
+      <c r="AX22" t="s">
         <v>9</v>
       </c>
-      <c r="AU22" t="s">
+      <c r="AY22" t="s">
         <v>10</v>
       </c>
-      <c r="AV22" t="s">
+      <c r="AZ22" t="s">
         <v>67</v>
       </c>
-      <c r="AW22" t="s">
+      <c r="BA22" t="s">
         <v>11</v>
       </c>
-      <c r="AX22" t="s">
+      <c r="BB22" t="s">
         <v>76</v>
       </c>
-      <c r="AZ22">
+      <c r="BD22">
         <v>151</v>
       </c>
-      <c r="BA22">
+      <c r="BE22">
         <v>151</v>
       </c>
-      <c r="BC22" s="57"/>
-      <c r="BD22" s="57"/>
-      <c r="BE22" s="57"/>
-      <c r="BF22" s="57"/>
-      <c r="BH22" s="65">
+      <c r="BG22" s="57"/>
+      <c r="BH22" s="57"/>
+      <c r="BI22" s="57"/>
+      <c r="BJ22" s="57"/>
+      <c r="BL22" s="65">
         <v>41233</v>
       </c>
-      <c r="BI22" s="66" t="s">
+      <c r="BM22" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="BJ22" s="67">
+      <c r="BN22" s="67">
         <v>32.465020000000003</v>
       </c>
-      <c r="BK22" s="67">
+      <c r="BO22" s="67">
         <v>34.882582999999997</v>
       </c>
-      <c r="BL22" s="42" t="s">
+      <c r="BP22" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="BM22" s="58" t="s">
+      <c r="BQ22" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="BN22" s="25"/>
-      <c r="BS22">
+      <c r="BR22" s="25"/>
+      <c r="BW22">
         <v>3.8</v>
       </c>
-      <c r="BT22" s="42" t="s">
+      <c r="BX22" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="BU22"/>
-      <c r="BV22"/>
-      <c r="BW22"/>
-      <c r="BX22"/>
       <c r="BY22"/>
       <c r="BZ22"/>
       <c r="CA22"/>
+      <c r="CB22"/>
+      <c r="CC22"/>
+      <c r="CD22"/>
+      <c r="CE22"/>
     </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6676,122 +6920,132 @@
         <v>299</v>
       </c>
       <c r="V23" s="1"/>
-      <c r="W23" s="33" t="s">
+      <c r="W23" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="X23" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y23" s="33">
+        <v>7</v>
+      </c>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X23" s="16" t="s">
+      <c r="AB23" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y23" s="56" t="s">
+      <c r="AC23" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z23" s="33" t="s">
+      <c r="AD23" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA23" s="16" t="s">
+      <c r="AE23" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB23" s="56" t="s">
+      <c r="AF23" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="59" t="s">
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="59" t="s">
         <v>234</v>
       </c>
-      <c r="AE23" s="59" t="s">
+      <c r="AI23" s="59" t="s">
         <v>323</v>
       </c>
-      <c r="AF23" s="59" t="s">
+      <c r="AJ23" s="59" t="s">
         <v>235</v>
       </c>
-      <c r="AG23" s="59" t="s">
+      <c r="AK23" s="59" t="s">
         <v>349</v>
       </c>
-      <c r="AH23" s="59"/>
-      <c r="AI23" s="61" t="s">
+      <c r="AL23" s="59"/>
+      <c r="AM23" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="AJ23" s="62"/>
-      <c r="AK23" s="63">
+      <c r="AN23" s="62"/>
+      <c r="AO23" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM23" t="s">
+      <c r="AQ23" t="s">
         <v>300</v>
       </c>
-      <c r="AN23" s="42" t="s">
+      <c r="AR23" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="AO23" s="1" t="s">
+      <c r="AS23" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP23" s="42">
+      <c r="AT23" s="42">
         <v>15</v>
       </c>
-      <c r="AQ23" s="1" t="s">
+      <c r="AU23" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AS23" t="s">
+      <c r="AW23" t="s">
         <v>8</v>
       </c>
-      <c r="AT23" t="s">
+      <c r="AX23" t="s">
         <v>9</v>
       </c>
-      <c r="AU23" t="s">
+      <c r="AY23" t="s">
         <v>10</v>
       </c>
-      <c r="AV23" t="s">
+      <c r="AZ23" t="s">
         <v>67</v>
       </c>
-      <c r="AW23" t="s">
+      <c r="BA23" t="s">
         <v>11</v>
       </c>
-      <c r="AX23" t="s">
+      <c r="BB23" t="s">
         <v>76</v>
       </c>
-      <c r="AZ23">
+      <c r="BD23">
         <v>151</v>
       </c>
-      <c r="BA23">
+      <c r="BE23">
         <v>151</v>
       </c>
-      <c r="BC23" s="57"/>
-      <c r="BD23" s="57"/>
-      <c r="BE23" s="57"/>
-      <c r="BF23" s="57"/>
-      <c r="BH23" s="65">
+      <c r="BG23" s="57"/>
+      <c r="BH23" s="57"/>
+      <c r="BI23" s="57"/>
+      <c r="BJ23" s="57"/>
+      <c r="BL23" s="65">
         <v>41233</v>
       </c>
-      <c r="BI23" s="66" t="s">
+      <c r="BM23" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="BJ23" s="67">
+      <c r="BN23" s="67">
         <v>32.465020000000003</v>
       </c>
-      <c r="BK23" s="67">
+      <c r="BO23" s="67">
         <v>34.882582999999997</v>
       </c>
-      <c r="BL23" s="42" t="s">
+      <c r="BP23" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="BM23" s="58" t="s">
+      <c r="BQ23" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="BN23" s="25"/>
-      <c r="BS23">
+      <c r="BR23" s="25"/>
+      <c r="BW23">
         <v>3.8</v>
       </c>
-      <c r="BT23" s="42" t="s">
+      <c r="BX23" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="BU23"/>
-      <c r="BV23"/>
-      <c r="BW23"/>
-      <c r="BX23"/>
       <c r="BY23"/>
       <c r="BZ23"/>
       <c r="CA23"/>
+      <c r="CB23"/>
+      <c r="CC23"/>
+      <c r="CD23"/>
+      <c r="CE23"/>
     </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6849,122 +7103,132 @@
         <v>299</v>
       </c>
       <c r="V24" s="1"/>
-      <c r="W24" s="33" t="s">
+      <c r="W24" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="X24" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y24" s="33">
+        <v>8</v>
+      </c>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X24" s="16" t="s">
+      <c r="AB24" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y24" s="56" t="s">
+      <c r="AC24" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z24" s="33" t="s">
+      <c r="AD24" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA24" s="16" t="s">
+      <c r="AE24" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB24" s="56" t="s">
+      <c r="AF24" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="59" t="s">
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="59" t="s">
         <v>236</v>
       </c>
-      <c r="AE24" s="59" t="s">
+      <c r="AI24" s="59" t="s">
         <v>324</v>
       </c>
-      <c r="AF24" s="59" t="s">
+      <c r="AJ24" s="59" t="s">
         <v>237</v>
       </c>
-      <c r="AG24" s="59" t="s">
+      <c r="AK24" s="59" t="s">
         <v>350</v>
       </c>
-      <c r="AH24" s="59"/>
-      <c r="AI24" s="61" t="s">
+      <c r="AL24" s="59"/>
+      <c r="AM24" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="AJ24" s="62"/>
-      <c r="AK24" s="63">
+      <c r="AN24" s="62"/>
+      <c r="AO24" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM24" t="s">
+      <c r="AQ24" t="s">
         <v>300</v>
       </c>
-      <c r="AN24" s="42" t="s">
+      <c r="AR24" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="AO24" s="1" t="s">
+      <c r="AS24" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP24" s="42">
+      <c r="AT24" s="42">
         <v>15</v>
       </c>
-      <c r="AQ24" s="1" t="s">
+      <c r="AU24" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AS24" t="s">
+      <c r="AW24" t="s">
         <v>8</v>
       </c>
-      <c r="AT24" t="s">
+      <c r="AX24" t="s">
         <v>9</v>
       </c>
-      <c r="AU24" t="s">
+      <c r="AY24" t="s">
         <v>10</v>
       </c>
-      <c r="AV24" t="s">
+      <c r="AZ24" t="s">
         <v>67</v>
       </c>
-      <c r="AW24" t="s">
+      <c r="BA24" t="s">
         <v>11</v>
       </c>
-      <c r="AX24" t="s">
+      <c r="BB24" t="s">
         <v>76</v>
       </c>
-      <c r="AZ24">
+      <c r="BD24">
         <v>151</v>
       </c>
-      <c r="BA24">
+      <c r="BE24">
         <v>151</v>
       </c>
-      <c r="BC24" s="57"/>
-      <c r="BD24" s="57"/>
-      <c r="BE24" s="57"/>
-      <c r="BF24" s="57"/>
-      <c r="BH24" s="65">
+      <c r="BG24" s="57"/>
+      <c r="BH24" s="57"/>
+      <c r="BI24" s="57"/>
+      <c r="BJ24" s="57"/>
+      <c r="BL24" s="65">
         <v>41233</v>
       </c>
-      <c r="BI24" s="66" t="s">
+      <c r="BM24" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="BJ24" s="67">
+      <c r="BN24" s="67">
         <v>32.463700000000003</v>
       </c>
-      <c r="BK24" s="67">
+      <c r="BO24" s="67">
         <v>34.879339999999999</v>
       </c>
-      <c r="BL24" s="42" t="s">
+      <c r="BP24" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="BM24" s="58" t="s">
+      <c r="BQ24" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="BN24" s="25"/>
-      <c r="BS24">
+      <c r="BR24" s="25"/>
+      <c r="BW24">
         <v>5.5</v>
       </c>
-      <c r="BT24" s="71" t="s">
+      <c r="BX24" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BU24"/>
-      <c r="BV24"/>
-      <c r="BW24"/>
-      <c r="BX24"/>
       <c r="BY24"/>
       <c r="BZ24"/>
       <c r="CA24"/>
+      <c r="CB24"/>
+      <c r="CC24"/>
+      <c r="CD24"/>
+      <c r="CE24"/>
     </row>
-    <row r="25" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7022,122 +7286,132 @@
         <v>299</v>
       </c>
       <c r="V25" s="1"/>
-      <c r="W25" s="33" t="s">
+      <c r="W25" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="X25" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y25" s="33">
+        <v>8</v>
+      </c>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X25" s="16" t="s">
+      <c r="AB25" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y25" s="56" t="s">
+      <c r="AC25" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z25" s="33" t="s">
+      <c r="AD25" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA25" s="16" t="s">
+      <c r="AE25" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB25" s="56" t="s">
+      <c r="AF25" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="59" t="s">
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="59" t="s">
         <v>238</v>
       </c>
-      <c r="AE25" s="59" t="s">
+      <c r="AI25" s="59" t="s">
         <v>325</v>
       </c>
-      <c r="AF25" s="59" t="s">
+      <c r="AJ25" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="AG25" s="59" t="s">
+      <c r="AK25" s="59" t="s">
         <v>351</v>
       </c>
-      <c r="AH25" s="59"/>
-      <c r="AI25" s="61" t="s">
+      <c r="AL25" s="59"/>
+      <c r="AM25" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="AJ25" s="62"/>
-      <c r="AK25" s="63">
+      <c r="AN25" s="62"/>
+      <c r="AO25" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM25" t="s">
+      <c r="AQ25" t="s">
         <v>300</v>
       </c>
-      <c r="AN25" s="42" t="s">
+      <c r="AR25" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="AO25" s="1" t="s">
+      <c r="AS25" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP25" s="42">
+      <c r="AT25" s="42">
         <v>15</v>
       </c>
-      <c r="AQ25" s="1" t="s">
+      <c r="AU25" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AS25" t="s">
+      <c r="AW25" t="s">
         <v>8</v>
       </c>
-      <c r="AT25" t="s">
+      <c r="AX25" t="s">
         <v>9</v>
       </c>
-      <c r="AU25" t="s">
+      <c r="AY25" t="s">
         <v>10</v>
       </c>
-      <c r="AV25" t="s">
+      <c r="AZ25" t="s">
         <v>67</v>
       </c>
-      <c r="AW25" t="s">
+      <c r="BA25" t="s">
         <v>11</v>
       </c>
-      <c r="AX25" t="s">
+      <c r="BB25" t="s">
         <v>76</v>
       </c>
-      <c r="AZ25">
+      <c r="BD25">
         <v>151</v>
       </c>
-      <c r="BA25">
+      <c r="BE25">
         <v>151</v>
       </c>
-      <c r="BC25" s="57"/>
-      <c r="BD25" s="57"/>
-      <c r="BE25" s="57"/>
-      <c r="BF25" s="57"/>
-      <c r="BH25" s="65">
+      <c r="BG25" s="57"/>
+      <c r="BH25" s="57"/>
+      <c r="BI25" s="57"/>
+      <c r="BJ25" s="57"/>
+      <c r="BL25" s="65">
         <v>41233</v>
       </c>
-      <c r="BI25" s="66" t="s">
+      <c r="BM25" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="BJ25" s="67">
+      <c r="BN25" s="67">
         <v>32.463700000000003</v>
       </c>
-      <c r="BK25" s="67">
+      <c r="BO25" s="67">
         <v>34.879339999999999</v>
       </c>
-      <c r="BL25" s="42" t="s">
+      <c r="BP25" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="BM25" s="58" t="s">
+      <c r="BQ25" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="BN25" s="25"/>
-      <c r="BS25">
+      <c r="BR25" s="25"/>
+      <c r="BW25">
         <v>5.5</v>
       </c>
-      <c r="BT25" s="71" t="s">
+      <c r="BX25" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BU25"/>
-      <c r="BV25"/>
-      <c r="BW25"/>
-      <c r="BX25"/>
       <c r="BY25"/>
       <c r="BZ25"/>
       <c r="CA25"/>
+      <c r="CB25"/>
+      <c r="CC25"/>
+      <c r="CD25"/>
+      <c r="CE25"/>
     </row>
-    <row r="26" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7195,122 +7469,132 @@
         <v>299</v>
       </c>
       <c r="V26" s="1"/>
-      <c r="W26" s="33" t="s">
+      <c r="W26" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="X26" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y26" s="33">
+        <v>8</v>
+      </c>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X26" s="16" t="s">
+      <c r="AB26" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y26" s="56" t="s">
+      <c r="AC26" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z26" s="33" t="s">
+      <c r="AD26" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA26" s="16" t="s">
+      <c r="AE26" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB26" s="56" t="s">
+      <c r="AF26" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="59" t="s">
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="AE26" s="59" t="s">
+      <c r="AI26" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="AF26" s="59" t="s">
+      <c r="AJ26" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="AG26" s="59" t="s">
+      <c r="AK26" s="59" t="s">
         <v>352</v>
       </c>
-      <c r="AH26" s="59"/>
-      <c r="AI26" s="61" t="s">
+      <c r="AL26" s="59"/>
+      <c r="AM26" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="AJ26" s="62"/>
-      <c r="AK26" s="63">
+      <c r="AN26" s="62"/>
+      <c r="AO26" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM26" t="s">
+      <c r="AQ26" t="s">
         <v>300</v>
       </c>
-      <c r="AN26" s="42" t="s">
+      <c r="AR26" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="AO26" s="1" t="s">
+      <c r="AS26" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP26" s="42">
+      <c r="AT26" s="42">
         <v>15</v>
       </c>
-      <c r="AQ26" s="1" t="s">
+      <c r="AU26" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AS26" t="s">
+      <c r="AW26" t="s">
         <v>8</v>
       </c>
-      <c r="AT26" t="s">
+      <c r="AX26" t="s">
         <v>9</v>
       </c>
-      <c r="AU26" t="s">
+      <c r="AY26" t="s">
         <v>10</v>
       </c>
-      <c r="AV26" t="s">
+      <c r="AZ26" t="s">
         <v>67</v>
       </c>
-      <c r="AW26" t="s">
+      <c r="BA26" t="s">
         <v>11</v>
       </c>
-      <c r="AX26" t="s">
+      <c r="BB26" t="s">
         <v>76</v>
       </c>
-      <c r="AZ26">
+      <c r="BD26">
         <v>151</v>
       </c>
-      <c r="BA26">
+      <c r="BE26">
         <v>151</v>
       </c>
-      <c r="BC26" s="57"/>
-      <c r="BD26" s="57"/>
-      <c r="BE26" s="57"/>
-      <c r="BF26" s="57"/>
-      <c r="BH26" s="65">
+      <c r="BG26" s="57"/>
+      <c r="BH26" s="57"/>
+      <c r="BI26" s="57"/>
+      <c r="BJ26" s="57"/>
+      <c r="BL26" s="65">
         <v>41233</v>
       </c>
-      <c r="BI26" s="66" t="s">
+      <c r="BM26" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="BJ26" s="67">
+      <c r="BN26" s="67">
         <v>32.463700000000003</v>
       </c>
-      <c r="BK26" s="67">
+      <c r="BO26" s="67">
         <v>34.879339999999999</v>
       </c>
-      <c r="BL26" s="42" t="s">
+      <c r="BP26" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="BM26" s="58" t="s">
+      <c r="BQ26" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="BN26" s="25"/>
-      <c r="BS26">
+      <c r="BR26" s="25"/>
+      <c r="BW26">
         <v>5.5</v>
       </c>
-      <c r="BT26" s="71" t="s">
+      <c r="BX26" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BU26"/>
-      <c r="BV26"/>
-      <c r="BW26"/>
-      <c r="BX26"/>
       <c r="BY26"/>
       <c r="BZ26"/>
       <c r="CA26"/>
+      <c r="CB26"/>
+      <c r="CC26"/>
+      <c r="CD26"/>
+      <c r="CE26"/>
     </row>
-    <row r="27" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7368,122 +7652,132 @@
         <v>299</v>
       </c>
       <c r="V27" s="1"/>
-      <c r="W27" s="33" t="s">
+      <c r="W27" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="X27" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y27" s="33">
+        <v>9</v>
+      </c>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X27" s="16" t="s">
+      <c r="AB27" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y27" s="56" t="s">
+      <c r="AC27" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z27" s="33" t="s">
+      <c r="AD27" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA27" s="16" t="s">
+      <c r="AE27" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB27" s="56" t="s">
+      <c r="AF27" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="59" t="s">
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="AE27" s="59" t="s">
+      <c r="AI27" s="59" t="s">
         <v>327</v>
       </c>
-      <c r="AF27" s="59" t="s">
+      <c r="AJ27" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="AG27" s="59" t="s">
+      <c r="AK27" s="59" t="s">
         <v>353</v>
       </c>
-      <c r="AH27" s="59"/>
-      <c r="AI27" s="61" t="s">
+      <c r="AL27" s="59"/>
+      <c r="AM27" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="AJ27" s="62"/>
-      <c r="AK27" s="63">
+      <c r="AN27" s="62"/>
+      <c r="AO27" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM27" t="s">
+      <c r="AQ27" t="s">
         <v>300</v>
       </c>
-      <c r="AN27" s="42" t="s">
+      <c r="AR27" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="AO27" s="1" t="s">
+      <c r="AS27" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP27" s="42">
+      <c r="AT27" s="42">
         <v>15</v>
       </c>
-      <c r="AQ27" s="1" t="s">
+      <c r="AU27" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AS27" t="s">
+      <c r="AW27" t="s">
         <v>8</v>
       </c>
-      <c r="AT27" t="s">
+      <c r="AX27" t="s">
         <v>9</v>
       </c>
-      <c r="AU27" t="s">
+      <c r="AY27" t="s">
         <v>10</v>
       </c>
-      <c r="AV27" t="s">
+      <c r="AZ27" t="s">
         <v>67</v>
       </c>
-      <c r="AW27" t="s">
+      <c r="BA27" t="s">
         <v>11</v>
       </c>
-      <c r="AX27" t="s">
+      <c r="BB27" t="s">
         <v>76</v>
       </c>
-      <c r="AZ27">
+      <c r="BD27">
         <v>151</v>
       </c>
-      <c r="BA27">
+      <c r="BE27">
         <v>151</v>
       </c>
-      <c r="BC27" s="57"/>
-      <c r="BD27" s="57"/>
-      <c r="BE27" s="57"/>
-      <c r="BF27" s="57"/>
-      <c r="BH27" s="65">
+      <c r="BG27" s="57"/>
+      <c r="BH27" s="57"/>
+      <c r="BI27" s="57"/>
+      <c r="BJ27" s="57"/>
+      <c r="BL27" s="65">
         <v>41233</v>
       </c>
-      <c r="BI27" s="66" t="s">
+      <c r="BM27" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="BJ27" s="67">
+      <c r="BN27" s="67">
         <v>32.42868</v>
       </c>
-      <c r="BK27" s="67">
+      <c r="BO27" s="67">
         <v>34.870280000000001</v>
       </c>
-      <c r="BL27" s="42" t="s">
+      <c r="BP27" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="BM27" t="s">
+      <c r="BQ27" t="s">
         <v>267</v>
       </c>
-      <c r="BN27" s="25"/>
-      <c r="BS27">
+      <c r="BR27" s="25"/>
+      <c r="BW27">
         <v>6.5</v>
       </c>
-      <c r="BT27" s="71" t="s">
+      <c r="BX27" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BU27"/>
-      <c r="BV27"/>
-      <c r="BW27"/>
-      <c r="BX27"/>
       <c r="BY27"/>
       <c r="BZ27"/>
       <c r="CA27"/>
+      <c r="CB27"/>
+      <c r="CC27"/>
+      <c r="CD27"/>
+      <c r="CE27"/>
     </row>
-    <row r="28" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7541,122 +7835,132 @@
         <v>299</v>
       </c>
       <c r="V28" s="1"/>
-      <c r="W28" s="33" t="s">
+      <c r="W28" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="X28" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y28" s="33">
+        <v>9</v>
+      </c>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X28" s="16" t="s">
+      <c r="AB28" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y28" s="56" t="s">
+      <c r="AC28" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z28" s="33" t="s">
+      <c r="AD28" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA28" s="16" t="s">
+      <c r="AE28" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB28" s="56" t="s">
+      <c r="AF28" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="59" t="s">
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="AE28" s="59" t="s">
+      <c r="AI28" s="59" t="s">
         <v>328</v>
       </c>
-      <c r="AF28" s="59" t="s">
+      <c r="AJ28" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="AG28" s="59" t="s">
+      <c r="AK28" s="59" t="s">
         <v>354</v>
       </c>
-      <c r="AH28" s="59"/>
-      <c r="AI28" s="61" t="s">
+      <c r="AL28" s="59"/>
+      <c r="AM28" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="AJ28" s="62"/>
-      <c r="AK28" s="63">
+      <c r="AN28" s="62"/>
+      <c r="AO28" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM28" t="s">
+      <c r="AQ28" t="s">
         <v>300</v>
       </c>
-      <c r="AN28" s="42" t="s">
+      <c r="AR28" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="AO28" s="1" t="s">
+      <c r="AS28" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP28" s="42">
+      <c r="AT28" s="42">
         <v>15</v>
       </c>
-      <c r="AQ28" s="1" t="s">
+      <c r="AU28" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AS28" t="s">
+      <c r="AW28" t="s">
         <v>8</v>
       </c>
-      <c r="AT28" t="s">
+      <c r="AX28" t="s">
         <v>9</v>
       </c>
-      <c r="AU28" t="s">
+      <c r="AY28" t="s">
         <v>10</v>
       </c>
-      <c r="AV28" t="s">
+      <c r="AZ28" t="s">
         <v>67</v>
       </c>
-      <c r="AW28" t="s">
+      <c r="BA28" t="s">
         <v>11</v>
       </c>
-      <c r="AX28" t="s">
+      <c r="BB28" t="s">
         <v>76</v>
       </c>
-      <c r="AZ28">
+      <c r="BD28">
         <v>151</v>
       </c>
-      <c r="BA28">
+      <c r="BE28">
         <v>151</v>
       </c>
-      <c r="BC28" s="57"/>
-      <c r="BD28" s="57"/>
-      <c r="BE28" s="57"/>
-      <c r="BF28" s="57"/>
-      <c r="BH28" s="65">
+      <c r="BG28" s="57"/>
+      <c r="BH28" s="57"/>
+      <c r="BI28" s="57"/>
+      <c r="BJ28" s="57"/>
+      <c r="BL28" s="65">
         <v>41233</v>
       </c>
-      <c r="BI28" s="66" t="s">
+      <c r="BM28" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="BJ28" s="67">
+      <c r="BN28" s="67">
         <v>32.42868</v>
       </c>
-      <c r="BK28" s="67">
+      <c r="BO28" s="67">
         <v>34.870280000000001</v>
       </c>
-      <c r="BL28" s="42" t="s">
+      <c r="BP28" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="BM28" t="s">
+      <c r="BQ28" t="s">
         <v>267</v>
       </c>
-      <c r="BN28" s="25"/>
-      <c r="BS28">
+      <c r="BR28" s="25"/>
+      <c r="BW28">
         <v>6.5</v>
       </c>
-      <c r="BT28" s="71" t="s">
+      <c r="BX28" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BU28"/>
-      <c r="BV28"/>
-      <c r="BW28"/>
-      <c r="BX28"/>
       <c r="BY28"/>
       <c r="BZ28"/>
       <c r="CA28"/>
+      <c r="CB28"/>
+      <c r="CC28"/>
+      <c r="CD28"/>
+      <c r="CE28"/>
     </row>
-    <row r="29" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7714,227 +8018,227 @@
         <v>299</v>
       </c>
       <c r="V29" s="1"/>
-      <c r="W29" s="33" t="s">
+      <c r="W29" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="X29" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y29" s="33">
+        <v>9</v>
+      </c>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X29" s="16" t="s">
+      <c r="AB29" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y29" s="56" t="s">
+      <c r="AC29" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z29" s="33" t="s">
+      <c r="AD29" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA29" s="16" t="s">
+      <c r="AE29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB29" s="56" t="s">
+      <c r="AF29" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="59" t="s">
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="AE29" s="59" t="s">
+      <c r="AI29" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="AF29" s="59" t="s">
+      <c r="AJ29" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="AG29" s="59" t="s">
+      <c r="AK29" s="59" t="s">
         <v>354</v>
       </c>
-      <c r="AH29" s="59"/>
-      <c r="AI29" s="61" t="s">
+      <c r="AL29" s="59"/>
+      <c r="AM29" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="AJ29" s="62"/>
-      <c r="AK29" s="63">
+      <c r="AN29" s="62"/>
+      <c r="AO29" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM29" t="s">
+      <c r="AQ29" t="s">
         <v>300</v>
       </c>
-      <c r="AN29" s="42" t="s">
+      <c r="AR29" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="AO29" s="1" t="s">
+      <c r="AS29" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP29" s="42">
+      <c r="AT29" s="42">
         <v>15</v>
       </c>
-      <c r="AQ29" s="1" t="s">
+      <c r="AU29" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AS29" t="s">
+      <c r="AW29" t="s">
         <v>8</v>
       </c>
-      <c r="AT29" t="s">
+      <c r="AX29" t="s">
         <v>9</v>
       </c>
-      <c r="AU29" t="s">
+      <c r="AY29" t="s">
         <v>10</v>
       </c>
-      <c r="AV29" t="s">
+      <c r="AZ29" t="s">
         <v>67</v>
       </c>
-      <c r="AW29" t="s">
+      <c r="BA29" t="s">
         <v>11</v>
       </c>
-      <c r="AX29" t="s">
+      <c r="BB29" t="s">
         <v>76</v>
       </c>
-      <c r="AZ29">
+      <c r="BD29">
         <v>151</v>
       </c>
-      <c r="BA29">
+      <c r="BE29">
         <v>151</v>
       </c>
-      <c r="BC29" s="57"/>
-      <c r="BD29" s="57"/>
-      <c r="BE29" s="57"/>
-      <c r="BF29" s="57"/>
-      <c r="BH29" s="65">
+      <c r="BG29" s="57"/>
+      <c r="BH29" s="57"/>
+      <c r="BI29" s="57"/>
+      <c r="BJ29" s="57"/>
+      <c r="BL29" s="65">
         <v>41233</v>
       </c>
-      <c r="BI29" s="66" t="s">
+      <c r="BM29" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="BJ29" s="67">
+      <c r="BN29" s="67">
         <v>32.42868</v>
       </c>
-      <c r="BK29" s="67">
+      <c r="BO29" s="67">
         <v>34.870280000000001</v>
       </c>
-      <c r="BL29" s="42" t="s">
+      <c r="BP29" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="BM29" t="s">
+      <c r="BQ29" t="s">
         <v>267</v>
       </c>
-      <c r="BN29" s="25"/>
-      <c r="BS29">
+      <c r="BR29" s="25"/>
+      <c r="BW29">
         <v>6.5</v>
       </c>
-      <c r="BT29" s="71" t="s">
+      <c r="BX29" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BU29"/>
-      <c r="BV29"/>
-      <c r="BW29"/>
-      <c r="BX29"/>
       <c r="BY29"/>
       <c r="BZ29"/>
       <c r="CA29"/>
+      <c r="CB29"/>
+      <c r="CC29"/>
+      <c r="CD29"/>
+      <c r="CE29"/>
     </row>
-    <row r="30" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="AK30" s="13"/>
+    <row r="30" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="AO30" s="13"/>
     </row>
-    <row r="31" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="AK31" s="13"/>
+    <row r="31" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="AO31" s="13"/>
     </row>
-    <row r="32" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="AK32" s="13"/>
-      <c r="BI32" s="66"/>
+    <row r="32" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="AO32" s="13"/>
+      <c r="BM32" s="66"/>
     </row>
-    <row r="33" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK33" s="13"/>
-      <c r="BI33" s="66"/>
-      <c r="BM33" s="67"/>
-      <c r="BN33" s="67"/>
+    <row r="33" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO33" s="13"/>
+      <c r="BM33" s="66"/>
+      <c r="BQ33" s="67"/>
+      <c r="BR33" s="67"/>
     </row>
-    <row r="34" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK34" s="13"/>
-      <c r="BI34" s="66"/>
-      <c r="BM34" s="67"/>
-      <c r="BN34" s="67"/>
+    <row r="34" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO34" s="13"/>
+      <c r="BM34" s="66"/>
+      <c r="BQ34" s="67"/>
+      <c r="BR34" s="67"/>
     </row>
-    <row r="35" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK35" s="13"/>
-      <c r="BI35" s="66"/>
-      <c r="BM35" s="67"/>
-      <c r="BN35" s="67"/>
+    <row r="35" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO35" s="13"/>
+      <c r="BM35" s="66"/>
+      <c r="BQ35" s="67"/>
+      <c r="BR35" s="67"/>
     </row>
-    <row r="36" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK36" s="13"/>
-      <c r="BI36" s="66"/>
-      <c r="BM36" s="67"/>
-      <c r="BN36" s="67"/>
+    <row r="36" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO36" s="13"/>
+      <c r="BM36" s="66"/>
+      <c r="BQ36" s="67"/>
+      <c r="BR36" s="67"/>
     </row>
-    <row r="37" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK37" s="13"/>
-      <c r="BI37" s="66"/>
-      <c r="BM37" s="67"/>
-      <c r="BN37" s="67"/>
+    <row r="37" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO37" s="13"/>
+      <c r="BM37" s="66"/>
+      <c r="BQ37" s="67"/>
+      <c r="BR37" s="67"/>
     </row>
-    <row r="38" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK38" s="13"/>
-      <c r="BI38" s="66"/>
-      <c r="BM38" s="67"/>
-      <c r="BN38" s="67"/>
+    <row r="38" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO38" s="13"/>
+      <c r="BM38" s="66"/>
+      <c r="BQ38" s="67"/>
+      <c r="BR38" s="67"/>
     </row>
-    <row r="39" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK39" s="13"/>
-      <c r="BM39" s="67"/>
-      <c r="BN39" s="67"/>
+    <row r="39" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO39" s="13"/>
+      <c r="BQ39" s="67"/>
+      <c r="BR39" s="67"/>
     </row>
-    <row r="40" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK40" s="13"/>
-      <c r="BM40" s="67"/>
-      <c r="BN40" s="67"/>
+    <row r="40" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO40" s="13"/>
+      <c r="BQ40" s="67"/>
+      <c r="BR40" s="67"/>
     </row>
-    <row r="41" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK41" s="13"/>
-      <c r="BM41" s="67"/>
-      <c r="BN41" s="67"/>
+    <row r="41" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO41" s="13"/>
+      <c r="BQ41" s="67"/>
+      <c r="BR41" s="67"/>
     </row>
-    <row r="42" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK42" s="13"/>
+    <row r="42" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO42" s="13"/>
     </row>
-    <row r="43" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK43" s="13"/>
+    <row r="43" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO43" s="13"/>
     </row>
-    <row r="44" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK44" s="13"/>
+    <row r="44" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO44" s="13"/>
     </row>
-    <row r="45" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK45" s="13"/>
+    <row r="45" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO45" s="13"/>
     </row>
-    <row r="46" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK46" s="13"/>
+    <row r="46" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO46" s="13"/>
     </row>
-    <row r="47" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK47" s="13"/>
+    <row r="47" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO47" s="13"/>
     </row>
-    <row r="48" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK48" s="13"/>
+    <row r="48" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO48" s="13"/>
     </row>
-    <row r="49" spans="37:37" x14ac:dyDescent="0.2">
-      <c r="AK49" s="13"/>
+    <row r="49" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO49" s="13"/>
     </row>
-    <row r="50" spans="37:37" x14ac:dyDescent="0.2">
-      <c r="AK50" s="13"/>
+    <row r="50" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO50" s="13"/>
     </row>
-    <row r="51" spans="37:37" x14ac:dyDescent="0.2">
-      <c r="AK51" s="13"/>
+    <row r="51" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO51" s="13"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -7952,9 +8256,9 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -7962,11 +8266,21 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="BH1:BN1"/>
-    <mergeCell ref="BP1:BQ1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="BL1:BR1"/>
+    <mergeCell ref="BT1:BU1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A3:A1048576">
@@ -7992,10 +8306,10 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="Y3" r:id="rId1"/>
-    <hyperlink ref="AB3" r:id="rId2"/>
-    <hyperlink ref="AB4:AB29" r:id="rId3" display="jan.pawlowski@unige.ch"/>
-    <hyperlink ref="Y4:Y29" r:id="rId4" display="lucas@sinclair.bio"/>
+    <hyperlink ref="AC3" r:id="rId1"/>
+    <hyperlink ref="AF3" r:id="rId2"/>
+    <hyperlink ref="AF4:AF29" r:id="rId3" display="jan.pawlowski@unige.ch"/>
+    <hyperlink ref="AC4:AC29" r:id="rId4" display="lucas@sinclair.bio"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/metadata/excel/projects/unige/foram/metadata.xlsx
+++ b/metadata/excel/projects/unige/foram/metadata.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="409">
   <si>
     <t>Country</t>
   </si>
@@ -1352,6 +1352,9 @@
   <si>
     <t>Hadera</t>
   </si>
+  <si>
+    <t>Distance to exhaust [m]</t>
+  </si>
 </sst>
 </file>
 
@@ -1360,7 +1363,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1536,8 +1539,15 @@
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1598,6 +1608,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDD0806"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1906,7 +1922,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2061,6 +2077,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2729,12 +2751,12 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CF51"/>
+  <dimension ref="A1:CG51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BK1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="AA31" sqref="AA31"/>
+      <selection pane="bottomLeft" activeCell="BZ7" sqref="BZ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2809,18 +2831,18 @@
     <col min="73" max="73" width="16" customWidth="1"/>
     <col min="74" max="74" width="9.5" customWidth="1"/>
     <col min="75" max="75" width="11" style="22" customWidth="1"/>
-    <col min="76" max="76" width="11" style="72" customWidth="1"/>
-    <col min="77" max="77" width="11.6640625" style="22" customWidth="1"/>
-    <col min="78" max="78" width="14.33203125" style="22" customWidth="1"/>
-    <col min="79" max="79" width="12.6640625" style="22" customWidth="1"/>
-    <col min="80" max="80" width="13.6640625" style="22" customWidth="1"/>
-    <col min="81" max="81" width="15.33203125" style="22" customWidth="1"/>
-    <col min="82" max="82" width="15.5" style="22" customWidth="1"/>
-    <col min="83" max="83" width="14.6640625" style="22" customWidth="1"/>
-    <col min="84" max="84" width="9.6640625" customWidth="1"/>
+    <col min="76" max="77" width="11" style="72" customWidth="1"/>
+    <col min="78" max="78" width="11.6640625" style="22" customWidth="1"/>
+    <col min="79" max="79" width="14.33203125" style="22" customWidth="1"/>
+    <col min="80" max="80" width="12.6640625" style="22" customWidth="1"/>
+    <col min="81" max="81" width="13.6640625" style="22" customWidth="1"/>
+    <col min="82" max="82" width="15.33203125" style="22" customWidth="1"/>
+    <col min="83" max="83" width="15.5" style="22" customWidth="1"/>
+    <col min="84" max="84" width="14.6640625" style="22" customWidth="1"/>
+    <col min="85" max="85" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
@@ -2895,15 +2917,16 @@
         <v>68</v>
       </c>
       <c r="BX1" s="69"/>
-      <c r="BY1" s="21"/>
+      <c r="BY1" s="69"/>
       <c r="BZ1" s="21"/>
       <c r="CA1" s="21"/>
       <c r="CB1" s="21"/>
       <c r="CC1" s="21"/>
       <c r="CD1" s="21"/>
       <c r="CE1" s="21"/>
+      <c r="CF1" s="21"/>
     </row>
-    <row r="2" spans="1:84" s="53" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:85" s="53" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>49</v>
       </c>
@@ -3108,30 +3131,33 @@
       <c r="BX2" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="BY2" s="52" t="s">
+      <c r="BY2" s="74" t="s">
+        <v>408</v>
+      </c>
+      <c r="BZ2" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="BZ2" s="52" t="s">
+      <c r="CA2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="CA2" s="52" t="s">
+      <c r="CB2" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="CB2" s="52" t="s">
+      <c r="CC2" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="CC2" s="52" t="s">
+      <c r="CD2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="CD2" s="52" t="s">
+      <c r="CE2" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="CE2" s="52" t="s">
+      <c r="CF2" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="CF2" s="48"/>
+      <c r="CG2" s="48"/>
     </row>
-    <row r="3" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <f t="shared" ref="A3:A29" si="0">COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BR3,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
@@ -3313,15 +3339,18 @@
       <c r="BX3" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="BY3"/>
+      <c r="BY3" s="75">
+        <v>5</v>
+      </c>
       <c r="BZ3"/>
       <c r="CA3"/>
       <c r="CB3"/>
       <c r="CC3"/>
       <c r="CD3"/>
       <c r="CE3"/>
+      <c r="CF3"/>
     </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3503,15 +3532,18 @@
       <c r="BX4" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="BY4"/>
+      <c r="BY4" s="75">
+        <v>5</v>
+      </c>
       <c r="BZ4"/>
       <c r="CA4"/>
       <c r="CB4"/>
       <c r="CC4"/>
       <c r="CD4"/>
       <c r="CE4"/>
+      <c r="CF4"/>
     </row>
-    <row r="5" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3693,15 +3725,18 @@
       <c r="BX5" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="BY5"/>
+      <c r="BY5" s="75">
+        <v>5</v>
+      </c>
       <c r="BZ5"/>
       <c r="CA5"/>
       <c r="CB5"/>
       <c r="CC5"/>
       <c r="CD5"/>
       <c r="CE5"/>
+      <c r="CF5"/>
     </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3883,15 +3918,18 @@
       <c r="BX6" s="70" t="s">
         <v>259</v>
       </c>
-      <c r="BY6"/>
+      <c r="BY6" s="71">
+        <v>8</v>
+      </c>
       <c r="BZ6"/>
       <c r="CA6"/>
       <c r="CB6"/>
       <c r="CC6"/>
       <c r="CD6"/>
       <c r="CE6"/>
+      <c r="CF6"/>
     </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4073,15 +4111,18 @@
       <c r="BX7" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BY7"/>
+      <c r="BY7" s="71">
+        <v>8</v>
+      </c>
       <c r="BZ7"/>
       <c r="CA7"/>
       <c r="CB7"/>
       <c r="CC7"/>
       <c r="CD7"/>
       <c r="CE7"/>
+      <c r="CF7"/>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4263,15 +4304,18 @@
       <c r="BX8" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BY8"/>
+      <c r="BY8" s="71">
+        <v>8</v>
+      </c>
       <c r="BZ8"/>
       <c r="CA8"/>
       <c r="CB8"/>
       <c r="CC8"/>
       <c r="CD8"/>
       <c r="CE8"/>
+      <c r="CF8"/>
     </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4449,15 +4493,18 @@
       <c r="BX9" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BY9"/>
+      <c r="BY9" s="71">
+        <v>20</v>
+      </c>
       <c r="BZ9"/>
       <c r="CA9"/>
       <c r="CB9"/>
       <c r="CC9"/>
       <c r="CD9"/>
       <c r="CE9"/>
+      <c r="CF9"/>
     </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4639,15 +4686,18 @@
       <c r="BX10" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BY10"/>
+      <c r="BY10" s="71">
+        <v>20</v>
+      </c>
       <c r="BZ10"/>
       <c r="CA10"/>
       <c r="CB10"/>
       <c r="CC10"/>
       <c r="CD10"/>
       <c r="CE10"/>
+      <c r="CF10"/>
     </row>
-    <row r="11" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4829,15 +4879,18 @@
       <c r="BX11" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BY11"/>
+      <c r="BY11" s="71">
+        <v>20</v>
+      </c>
       <c r="BZ11"/>
       <c r="CA11"/>
       <c r="CB11"/>
       <c r="CC11"/>
       <c r="CD11"/>
       <c r="CE11"/>
+      <c r="CF11"/>
     </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5019,15 +5072,18 @@
       <c r="BX12" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BY12"/>
+      <c r="BY12" s="75">
+        <v>5</v>
+      </c>
       <c r="BZ12"/>
       <c r="CA12"/>
       <c r="CB12"/>
       <c r="CC12"/>
       <c r="CD12"/>
       <c r="CE12"/>
+      <c r="CF12"/>
     </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5209,15 +5265,18 @@
       <c r="BX13" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BY13"/>
+      <c r="BY13" s="75">
+        <v>5</v>
+      </c>
       <c r="BZ13"/>
       <c r="CA13"/>
       <c r="CB13"/>
       <c r="CC13"/>
       <c r="CD13"/>
       <c r="CE13"/>
+      <c r="CF13"/>
     </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5399,15 +5458,18 @@
       <c r="BX14" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BY14"/>
+      <c r="BY14" s="75">
+        <v>5</v>
+      </c>
       <c r="BZ14"/>
       <c r="CA14"/>
       <c r="CB14"/>
       <c r="CC14"/>
       <c r="CD14"/>
       <c r="CE14"/>
+      <c r="CF14"/>
     </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5589,15 +5651,18 @@
       <c r="BX15" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BY15"/>
+      <c r="BY15" s="71">
+        <v>8</v>
+      </c>
       <c r="BZ15"/>
       <c r="CA15"/>
       <c r="CB15"/>
       <c r="CC15"/>
       <c r="CD15"/>
       <c r="CE15"/>
+      <c r="CF15"/>
     </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5768,15 +5833,18 @@
       <c r="BX16" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BY16"/>
+      <c r="BY16" s="71">
+        <v>8</v>
+      </c>
       <c r="BZ16"/>
       <c r="CA16"/>
       <c r="CB16"/>
       <c r="CC16"/>
       <c r="CD16"/>
       <c r="CE16"/>
+      <c r="CF16"/>
     </row>
-    <row r="17" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5951,15 +6019,18 @@
       <c r="BX17" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BY17"/>
+      <c r="BY17" s="71">
+        <v>8</v>
+      </c>
       <c r="BZ17"/>
       <c r="CA17"/>
       <c r="CB17"/>
       <c r="CC17"/>
       <c r="CD17"/>
       <c r="CE17"/>
+      <c r="CF17"/>
     </row>
-    <row r="18" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6134,15 +6205,18 @@
       <c r="BX18" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BY18"/>
+      <c r="BY18" s="71">
+        <v>20</v>
+      </c>
       <c r="BZ18"/>
       <c r="CA18"/>
       <c r="CB18"/>
       <c r="CC18"/>
       <c r="CD18"/>
       <c r="CE18"/>
+      <c r="CF18"/>
     </row>
-    <row r="19" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6313,15 +6387,18 @@
       <c r="BX19" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BY19"/>
+      <c r="BY19" s="71">
+        <v>20</v>
+      </c>
       <c r="BZ19"/>
       <c r="CA19"/>
       <c r="CB19"/>
       <c r="CC19"/>
       <c r="CD19"/>
       <c r="CE19"/>
+      <c r="CF19"/>
     </row>
-    <row r="20" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6496,15 +6573,18 @@
       <c r="BX20" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BY20"/>
+      <c r="BY20" s="71">
+        <v>20</v>
+      </c>
       <c r="BZ20"/>
       <c r="CA20"/>
       <c r="CB20"/>
       <c r="CC20"/>
       <c r="CD20"/>
       <c r="CE20"/>
+      <c r="CF20"/>
     </row>
-    <row r="21" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6675,15 +6755,18 @@
       <c r="BX21" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="BY21"/>
+      <c r="BY21" s="75">
+        <v>5</v>
+      </c>
       <c r="BZ21"/>
       <c r="CA21"/>
       <c r="CB21"/>
       <c r="CC21"/>
       <c r="CD21"/>
       <c r="CE21"/>
+      <c r="CF21"/>
     </row>
-    <row r="22" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6858,15 +6941,18 @@
       <c r="BX22" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="BY22"/>
+      <c r="BY22" s="75">
+        <v>5</v>
+      </c>
       <c r="BZ22"/>
       <c r="CA22"/>
       <c r="CB22"/>
       <c r="CC22"/>
       <c r="CD22"/>
       <c r="CE22"/>
+      <c r="CF22"/>
     </row>
-    <row r="23" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7037,15 +7123,18 @@
       <c r="BX23" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="BY23"/>
+      <c r="BY23" s="75">
+        <v>5</v>
+      </c>
       <c r="BZ23"/>
       <c r="CA23"/>
       <c r="CB23"/>
       <c r="CC23"/>
       <c r="CD23"/>
       <c r="CE23"/>
+      <c r="CF23"/>
     </row>
-    <row r="24" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7220,15 +7309,18 @@
       <c r="BX24" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BY24"/>
+      <c r="BY24" s="71">
+        <v>8</v>
+      </c>
       <c r="BZ24"/>
       <c r="CA24"/>
       <c r="CB24"/>
       <c r="CC24"/>
       <c r="CD24"/>
       <c r="CE24"/>
+      <c r="CF24"/>
     </row>
-    <row r="25" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7403,15 +7495,18 @@
       <c r="BX25" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BY25"/>
+      <c r="BY25" s="71">
+        <v>8</v>
+      </c>
       <c r="BZ25"/>
       <c r="CA25"/>
       <c r="CB25"/>
       <c r="CC25"/>
       <c r="CD25"/>
       <c r="CE25"/>
+      <c r="CF25"/>
     </row>
-    <row r="26" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7586,15 +7681,18 @@
       <c r="BX26" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BY26"/>
+      <c r="BY26" s="71">
+        <v>8</v>
+      </c>
       <c r="BZ26"/>
       <c r="CA26"/>
       <c r="CB26"/>
       <c r="CC26"/>
       <c r="CD26"/>
       <c r="CE26"/>
+      <c r="CF26"/>
     </row>
-    <row r="27" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7769,15 +7867,18 @@
       <c r="BX27" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BY27"/>
+      <c r="BY27" s="71">
+        <v>20</v>
+      </c>
       <c r="BZ27"/>
       <c r="CA27"/>
       <c r="CB27"/>
       <c r="CC27"/>
       <c r="CD27"/>
       <c r="CE27"/>
+      <c r="CF27"/>
     </row>
-    <row r="28" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7952,15 +8053,18 @@
       <c r="BX28" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BY28"/>
+      <c r="BY28" s="71">
+        <v>20</v>
+      </c>
       <c r="BZ28"/>
       <c r="CA28"/>
       <c r="CB28"/>
       <c r="CC28"/>
       <c r="CD28"/>
       <c r="CE28"/>
+      <c r="CF28"/>
     </row>
-    <row r="29" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8135,21 +8239,24 @@
       <c r="BX29" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BY29"/>
+      <c r="BY29" s="71">
+        <v>20</v>
+      </c>
       <c r="BZ29"/>
       <c r="CA29"/>
       <c r="CB29"/>
       <c r="CC29"/>
       <c r="CD29"/>
       <c r="CE29"/>
+      <c r="CF29"/>
     </row>
-    <row r="30" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
       <c r="AO30" s="13"/>
     </row>
-    <row r="31" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:84" x14ac:dyDescent="0.2">
       <c r="AO31" s="13"/>
     </row>
-    <row r="32" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:84" x14ac:dyDescent="0.2">
       <c r="AO32" s="13"/>
       <c r="BM32" s="66"/>
     </row>
@@ -8236,9 +8343,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -8256,24 +8373,14 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/metadata/excel/projects/unige/foram/metadata.xlsx
+++ b/metadata/excel/projects/unige/foram/metadata.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="4560" windowWidth="47660" windowHeight="24240" tabRatio="500"/>
+    <workbookView xWindow="1600" yWindow="1660" windowWidth="47660" windowHeight="24240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="micans_v6_ex1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -2076,13 +2076,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2756,7 +2756,7 @@
     <sheetView tabSelected="1" topLeftCell="BK1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="BZ7" sqref="BZ7"/>
+      <selection pane="bottomLeft" activeCell="CB15" sqref="CB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2894,25 +2894,25 @@
       <c r="BC1" s="3"/>
       <c r="BD1" s="3"/>
       <c r="BE1" s="10"/>
-      <c r="BG1" s="73" t="s">
+      <c r="BG1" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="BH1" s="73"/>
-      <c r="BI1" s="73"/>
-      <c r="BJ1" s="73"/>
-      <c r="BL1" s="73" t="s">
+      <c r="BH1" s="75"/>
+      <c r="BI1" s="75"/>
+      <c r="BJ1" s="75"/>
+      <c r="BL1" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="BM1" s="73"/>
-      <c r="BN1" s="73"/>
-      <c r="BO1" s="73"/>
-      <c r="BP1" s="73"/>
-      <c r="BQ1" s="73"/>
-      <c r="BR1" s="73"/>
-      <c r="BT1" s="73" t="s">
+      <c r="BM1" s="75"/>
+      <c r="BN1" s="75"/>
+      <c r="BO1" s="75"/>
+      <c r="BP1" s="75"/>
+      <c r="BQ1" s="75"/>
+      <c r="BR1" s="75"/>
+      <c r="BT1" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="BU1" s="73"/>
+      <c r="BU1" s="75"/>
       <c r="BW1" s="8" t="s">
         <v>68</v>
       </c>
@@ -3131,7 +3131,7 @@
       <c r="BX2" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="BY2" s="74" t="s">
+      <c r="BY2" s="73" t="s">
         <v>408</v>
       </c>
       <c r="BZ2" s="52" t="s">
@@ -3339,8 +3339,8 @@
       <c r="BX3" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="BY3" s="75">
-        <v>5</v>
+      <c r="BY3" s="74">
+        <v>0</v>
       </c>
       <c r="BZ3"/>
       <c r="CA3"/>
@@ -3532,8 +3532,8 @@
       <c r="BX4" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="BY4" s="75">
-        <v>5</v>
+      <c r="BY4" s="74">
+        <v>0</v>
       </c>
       <c r="BZ4"/>
       <c r="CA4"/>
@@ -3725,8 +3725,8 @@
       <c r="BX5" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="BY5" s="75">
-        <v>5</v>
+      <c r="BY5" s="74">
+        <v>0</v>
       </c>
       <c r="BZ5"/>
       <c r="CA5"/>
@@ -3919,7 +3919,7 @@
         <v>259</v>
       </c>
       <c r="BY6" s="71">
-        <v>8</v>
+        <v>545.16</v>
       </c>
       <c r="BZ6"/>
       <c r="CA6"/>
@@ -4112,7 +4112,7 @@
         <v>259</v>
       </c>
       <c r="BY7" s="71">
-        <v>8</v>
+        <v>545.16</v>
       </c>
       <c r="BZ7"/>
       <c r="CA7"/>
@@ -4305,7 +4305,7 @@
         <v>259</v>
       </c>
       <c r="BY8" s="71">
-        <v>8</v>
+        <v>545.16</v>
       </c>
       <c r="BZ8"/>
       <c r="CA8"/>
@@ -4494,7 +4494,7 @@
         <v>259</v>
       </c>
       <c r="BY9" s="71">
-        <v>20</v>
+        <v>5080.2700000000004</v>
       </c>
       <c r="BZ9"/>
       <c r="CA9"/>
@@ -4687,7 +4687,7 @@
         <v>259</v>
       </c>
       <c r="BY10" s="71">
-        <v>20</v>
+        <v>5080.2700000000004</v>
       </c>
       <c r="BZ10"/>
       <c r="CA10"/>
@@ -4880,7 +4880,7 @@
         <v>259</v>
       </c>
       <c r="BY11" s="71">
-        <v>20</v>
+        <v>5080.2700000000004</v>
       </c>
       <c r="BZ11"/>
       <c r="CA11"/>
@@ -5072,8 +5072,8 @@
       <c r="BX12" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BY12" s="75">
-        <v>5</v>
+      <c r="BY12" s="74">
+        <v>0</v>
       </c>
       <c r="BZ12"/>
       <c r="CA12"/>
@@ -5265,8 +5265,8 @@
       <c r="BX13" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BY13" s="75">
-        <v>5</v>
+      <c r="BY13" s="74">
+        <v>0</v>
       </c>
       <c r="BZ13"/>
       <c r="CA13"/>
@@ -5458,8 +5458,8 @@
       <c r="BX14" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="BY14" s="75">
-        <v>5</v>
+      <c r="BY14" s="74">
+        <v>0</v>
       </c>
       <c r="BZ14"/>
       <c r="CA14"/>
@@ -5652,7 +5652,7 @@
         <v>259</v>
       </c>
       <c r="BY15" s="71">
-        <v>8</v>
+        <v>175.69</v>
       </c>
       <c r="BZ15"/>
       <c r="CA15"/>
@@ -5834,7 +5834,7 @@
         <v>259</v>
       </c>
       <c r="BY16" s="71">
-        <v>8</v>
+        <v>175.69</v>
       </c>
       <c r="BZ16"/>
       <c r="CA16"/>
@@ -6020,7 +6020,7 @@
         <v>259</v>
       </c>
       <c r="BY17" s="71">
-        <v>8</v>
+        <v>175.69</v>
       </c>
       <c r="BZ17"/>
       <c r="CA17"/>
@@ -6206,7 +6206,7 @@
         <v>259</v>
       </c>
       <c r="BY18" s="71">
-        <v>20</v>
+        <v>1235.56</v>
       </c>
       <c r="BZ18"/>
       <c r="CA18"/>
@@ -6388,7 +6388,7 @@
         <v>259</v>
       </c>
       <c r="BY19" s="71">
-        <v>20</v>
+        <v>1235.56</v>
       </c>
       <c r="BZ19"/>
       <c r="CA19"/>
@@ -6574,7 +6574,7 @@
         <v>259</v>
       </c>
       <c r="BY20" s="71">
-        <v>20</v>
+        <v>1235.56</v>
       </c>
       <c r="BZ20"/>
       <c r="CA20"/>
@@ -6755,8 +6755,8 @@
       <c r="BX21" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="BY21" s="75">
-        <v>5</v>
+      <c r="BY21" s="74">
+        <v>0</v>
       </c>
       <c r="BZ21"/>
       <c r="CA21"/>
@@ -6941,8 +6941,8 @@
       <c r="BX22" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="BY22" s="75">
-        <v>5</v>
+      <c r="BY22" s="74">
+        <v>0</v>
       </c>
       <c r="BZ22"/>
       <c r="CA22"/>
@@ -7123,8 +7123,8 @@
       <c r="BX23" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="BY23" s="75">
-        <v>5</v>
+      <c r="BY23" s="74">
+        <v>0</v>
       </c>
       <c r="BZ23"/>
       <c r="CA23"/>
@@ -7310,7 +7310,7 @@
         <v>259</v>
       </c>
       <c r="BY24" s="71">
-        <v>8</v>
+        <v>338.21</v>
       </c>
       <c r="BZ24"/>
       <c r="CA24"/>
@@ -7496,7 +7496,7 @@
         <v>259</v>
       </c>
       <c r="BY25" s="71">
-        <v>8</v>
+        <v>338.21</v>
       </c>
       <c r="BZ25"/>
       <c r="CA25"/>
@@ -7682,7 +7682,7 @@
         <v>259</v>
       </c>
       <c r="BY26" s="71">
-        <v>8</v>
+        <v>338.21</v>
       </c>
       <c r="BZ26"/>
       <c r="CA26"/>
@@ -7868,7 +7868,7 @@
         <v>259</v>
       </c>
       <c r="BY27" s="71">
-        <v>20</v>
+        <v>4192.68</v>
       </c>
       <c r="BZ27"/>
       <c r="CA27"/>
@@ -8054,7 +8054,7 @@
         <v>259</v>
       </c>
       <c r="BY28" s="71">
-        <v>20</v>
+        <v>4192.68</v>
       </c>
       <c r="BZ28"/>
       <c r="CA28"/>
@@ -8240,7 +8240,7 @@
         <v>259</v>
       </c>
       <c r="BY29" s="71">
-        <v>20</v>
+        <v>4192.68</v>
       </c>
       <c r="BZ29"/>
       <c r="CA29"/>
@@ -8343,19 +8343,9 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -8373,14 +8363,24 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/metadata/excel/projects/unige/foram/metadata.xlsx
+++ b/metadata/excel/projects/unige/foram/metadata.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="1660" windowWidth="47660" windowHeight="24240" tabRatio="500"/>
+    <workbookView xWindow="4560" yWindow="4960" windowWidth="47660" windowHeight="24240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="micans_v6_ex1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="406">
   <si>
     <t>Country</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Depth [m]</t>
   </si>
   <si>
-    <t>pH</t>
-  </si>
-  <si>
     <t>Sample #</t>
   </si>
   <si>
@@ -156,12 +153,6 @@
   </si>
   <si>
     <t>PhiX spiking</t>
-  </si>
-  <si>
-    <t>Cell counts [cells/mL]</t>
-  </si>
-  <si>
-    <t>Conductivity [μS/cm]</t>
   </si>
   <si>
     <t>Reverse index #</t>
@@ -267,84 +258,6 @@
     <t>Optional extra data</t>
   </si>
   <si>
-    <r>
-      <t>Oxygen (O</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) [mg/L]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Carbon dioxide (CO</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) [µM]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Methane (CH</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) [µM]</t>
-    </r>
-  </si>
-  <si>
     <t>Used</t>
   </si>
   <si>
@@ -1354,6 +1267,15 @@
   </si>
   <si>
     <t>Distance to exhaust [m]</t>
+  </si>
+  <si>
+    <t>Salinty [ppt]</t>
+  </si>
+  <si>
+    <t>Grain size mode [µm]</t>
+  </si>
+  <si>
+    <t>Luminescent Dissolved Oxygen [% Sat]</t>
   </si>
 </sst>
 </file>
@@ -1363,7 +1285,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1490,14 +1412,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <vertAlign val="subscript"/>
-      <sz val="12"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Menlo Regular"/>
@@ -1539,15 +1453,8 @@
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1608,12 +1515,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDD0806"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1916,13 +1817,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2046,16 +1947,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2067,19 +1968,13 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="291" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="291" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2751,12 +2646,12 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CG51"/>
+  <dimension ref="A1:CD51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BK1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="CB15" sqref="CB15"/>
+      <selection pane="bottomLeft" activeCell="CD11" sqref="CD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2831,20 +2726,18 @@
     <col min="73" max="73" width="16" customWidth="1"/>
     <col min="74" max="74" width="9.5" customWidth="1"/>
     <col min="75" max="75" width="11" style="22" customWidth="1"/>
-    <col min="76" max="77" width="11" style="72" customWidth="1"/>
+    <col min="76" max="76" width="11" style="72" customWidth="1"/>
+    <col min="77" max="77" width="13" style="72" customWidth="1"/>
     <col min="78" max="78" width="11.6640625" style="22" customWidth="1"/>
-    <col min="79" max="79" width="14.33203125" style="22" customWidth="1"/>
-    <col min="80" max="80" width="12.6640625" style="22" customWidth="1"/>
-    <col min="81" max="81" width="13.6640625" style="22" customWidth="1"/>
-    <col min="82" max="82" width="15.33203125" style="22" customWidth="1"/>
-    <col min="83" max="83" width="15.5" style="22" customWidth="1"/>
-    <col min="84" max="84" width="14.6640625" style="22" customWidth="1"/>
-    <col min="85" max="85" width="9.6640625" customWidth="1"/>
+    <col min="79" max="79" width="12.6640625" style="22" customWidth="1"/>
+    <col min="80" max="80" width="13.5" style="22" customWidth="1"/>
+    <col min="81" max="81" width="20.83203125" style="22" customWidth="1"/>
+    <col min="82" max="82" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="35"/>
@@ -2894,27 +2787,27 @@
       <c r="BC1" s="3"/>
       <c r="BD1" s="3"/>
       <c r="BE1" s="10"/>
-      <c r="BG1" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="BH1" s="75"/>
-      <c r="BI1" s="75"/>
-      <c r="BJ1" s="75"/>
-      <c r="BL1" s="75" t="s">
-        <v>52</v>
-      </c>
-      <c r="BM1" s="75"/>
-      <c r="BN1" s="75"/>
-      <c r="BO1" s="75"/>
-      <c r="BP1" s="75"/>
-      <c r="BQ1" s="75"/>
-      <c r="BR1" s="75"/>
-      <c r="BT1" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="BU1" s="75"/>
+      <c r="BG1" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="BH1" s="73"/>
+      <c r="BI1" s="73"/>
+      <c r="BJ1" s="73"/>
+      <c r="BL1" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="BM1" s="73"/>
+      <c r="BN1" s="73"/>
+      <c r="BO1" s="73"/>
+      <c r="BP1" s="73"/>
+      <c r="BQ1" s="73"/>
+      <c r="BR1" s="73"/>
+      <c r="BT1" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="BU1" s="73"/>
       <c r="BW1" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="BX1" s="69"/>
       <c r="BY1" s="69"/>
@@ -2922,54 +2815,51 @@
       <c r="CA1" s="21"/>
       <c r="CB1" s="21"/>
       <c r="CC1" s="21"/>
-      <c r="CD1" s="21"/>
-      <c r="CE1" s="21"/>
-      <c r="CF1" s="21"/>
     </row>
-    <row r="2" spans="1:85" s="53" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:82" s="53" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F2" s="44"/>
       <c r="G2" s="43" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H2" s="43" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I2" s="43" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J2" s="43" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K2" s="43" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L2" s="43" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M2" s="43" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="N2" s="45"/>
       <c r="O2" s="46" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P2" s="46" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q2" s="43" t="s">
         <v>14</v>
@@ -2979,24 +2869,24 @@
       </c>
       <c r="S2" s="45"/>
       <c r="T2" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U2" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V2" s="45"/>
       <c r="W2" s="43" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="X2" s="43" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="Y2" s="43" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="Z2" s="45"/>
       <c r="AA2" s="43" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AB2" s="43" t="s">
         <v>16</v>
@@ -3005,7 +2895,7 @@
         <v>17</v>
       </c>
       <c r="AD2" s="43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AE2" s="43" t="s">
         <v>18</v>
@@ -3015,28 +2905,28 @@
       </c>
       <c r="AG2" s="45"/>
       <c r="AH2" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI2" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ2" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK2" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL2" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM2" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="AI2" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ2" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK2" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL2" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM2" s="43" t="s">
-        <v>47</v>
-      </c>
       <c r="AN2" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO2" s="43" t="s">
         <v>39</v>
-      </c>
-      <c r="AO2" s="43" t="s">
-        <v>40</v>
       </c>
       <c r="AP2" s="45"/>
       <c r="AQ2" s="43" t="s">
@@ -3071,10 +2961,10 @@
         <v>24</v>
       </c>
       <c r="BB2" s="43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="BC2" s="43" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="BD2" s="43" t="s">
         <v>25</v>
@@ -3087,20 +2977,20 @@
         <v>27</v>
       </c>
       <c r="BH2" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI2" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="BI2" s="49" t="s">
+      <c r="BJ2" s="49" t="s">
         <v>34</v>
-      </c>
-      <c r="BJ2" s="49" t="s">
-        <v>35</v>
       </c>
       <c r="BK2" s="48"/>
       <c r="BL2" s="50" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="BM2" s="50" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="BN2" s="50" t="s">
         <v>12</v>
@@ -3112,10 +3002,10 @@
         <v>0</v>
       </c>
       <c r="BQ2" s="50" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="BR2" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BS2" s="48"/>
       <c r="BT2" s="51" t="s">
@@ -3129,35 +3019,26 @@
         <v>28</v>
       </c>
       <c r="BX2" s="52" t="s">
-        <v>257</v>
-      </c>
-      <c r="BY2" s="73" t="s">
-        <v>408</v>
+        <v>251</v>
+      </c>
+      <c r="BY2" s="52" t="s">
+        <v>402</v>
       </c>
       <c r="BZ2" s="52" t="s">
-        <v>29</v>
+        <v>403</v>
       </c>
       <c r="CA2" s="52" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="CB2" s="52" t="s">
-        <v>31</v>
+        <v>404</v>
       </c>
       <c r="CC2" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="CD2" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="CE2" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="CF2" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="CG2" s="48"/>
+        <v>405</v>
+      </c>
+      <c r="CD2" s="48"/>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <f t="shared" ref="A3:A29" si="0">COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BR3,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
@@ -3166,34 +3047,34 @@
         <v>1</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L3" s="30" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N3" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O3" s="37">
         <v>40101</v>
@@ -3202,89 +3083,89 @@
         <v>40101</v>
       </c>
       <c r="Q3" s="54" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="S3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="16" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="Y3" s="33">
         <v>1</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB3" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC3" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD3" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF3" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC3" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD3" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE3" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF3" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH3" s="59" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="AI3" s="59" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AJ3" s="59" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AK3" s="59" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="AL3" s="59"/>
       <c r="AM3" s="61" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="AN3" s="62"/>
       <c r="AO3" s="63">
         <v>0.01</v>
       </c>
       <c r="AQ3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AR3" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AT3" s="42">
         <v>15</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AV3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW3" t="s">
         <v>8</v>
@@ -3296,13 +3177,13 @@
         <v>10</v>
       </c>
       <c r="AZ3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
       </c>
       <c r="BB3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD3">
         <v>151</v>
@@ -3318,7 +3199,7 @@
         <v>41226</v>
       </c>
       <c r="BM3" s="66" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="BN3" s="67">
         <v>31.63212</v>
@@ -3327,30 +3208,35 @@
         <v>34.5167</v>
       </c>
       <c r="BP3" s="42" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="BQ3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="BR3" s="25"/>
       <c r="BW3">
         <v>1.5</v>
       </c>
       <c r="BX3" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="BY3" s="74">
+        <v>252</v>
+      </c>
+      <c r="BY3" s="42">
         <v>0</v>
       </c>
-      <c r="BZ3"/>
-      <c r="CA3"/>
-      <c r="CB3"/>
-      <c r="CC3"/>
-      <c r="CD3"/>
-      <c r="CE3"/>
-      <c r="CF3"/>
+      <c r="BZ3">
+        <v>42.3</v>
+      </c>
+      <c r="CA3">
+        <v>31.81</v>
+      </c>
+      <c r="CB3">
+        <v>584.20399999999995</v>
+      </c>
+      <c r="CC3">
+        <v>114.9</v>
+      </c>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3359,34 +3245,34 @@
         <v>2</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O4" s="37">
         <v>54728</v>
@@ -3395,89 +3281,89 @@
         <v>54728</v>
       </c>
       <c r="Q4" s="54" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="R4" s="19" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="S4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="U4" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="16" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="X4" s="16" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="Y4" s="33">
         <v>1</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB4" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC4" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD4" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE4" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF4" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC4" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD4" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE4" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF4" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH4" s="59" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AI4" s="59" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AJ4" s="59" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AK4" s="59" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="AL4" s="59"/>
       <c r="AM4" s="61" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AN4" s="62"/>
       <c r="AO4" s="63">
         <v>0.01</v>
       </c>
       <c r="AQ4" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AR4" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AT4" s="42">
         <v>15</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AV4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW4" t="s">
         <v>8</v>
@@ -3489,13 +3375,13 @@
         <v>10</v>
       </c>
       <c r="AZ4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA4" t="s">
         <v>11</v>
       </c>
       <c r="BB4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD4">
         <v>151</v>
@@ -3511,7 +3397,7 @@
         <v>41226</v>
       </c>
       <c r="BM4" s="66" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="BN4" s="67">
         <v>31.63212</v>
@@ -3520,30 +3406,35 @@
         <v>34.5167</v>
       </c>
       <c r="BP4" s="42" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="BQ4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="BR4" s="25"/>
       <c r="BW4">
         <v>1.5</v>
       </c>
       <c r="BX4" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="BY4" s="74">
+        <v>252</v>
+      </c>
+      <c r="BY4" s="42">
         <v>0</v>
       </c>
-      <c r="BZ4"/>
-      <c r="CA4"/>
-      <c r="CB4"/>
-      <c r="CC4"/>
-      <c r="CD4"/>
-      <c r="CE4"/>
-      <c r="CF4"/>
+      <c r="BZ4">
+        <v>42.3</v>
+      </c>
+      <c r="CA4">
+        <v>31.81</v>
+      </c>
+      <c r="CB4">
+        <v>584.20399999999995</v>
+      </c>
+      <c r="CC4">
+        <v>114.9</v>
+      </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3552,34 +3443,34 @@
         <v>3</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L5" s="30" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O5" s="37">
         <v>41592</v>
@@ -3588,89 +3479,89 @@
         <v>41592</v>
       </c>
       <c r="Q5" s="54" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="R5" s="24" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="S5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="U5" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="16" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="X5" s="16" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="Y5" s="33">
         <v>1</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB5" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC5" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD5" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE5" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF5" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC5" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD5" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE5" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF5" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG5" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH5" s="59" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AI5" s="59" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AJ5" s="59" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AK5" s="59" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AL5" s="59"/>
       <c r="AM5" s="61" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AN5" s="64"/>
       <c r="AO5" s="63">
         <v>0.01</v>
       </c>
       <c r="AQ5" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AR5" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AT5" s="42">
         <v>15</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AV5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW5" t="s">
         <v>8</v>
@@ -3682,13 +3573,13 @@
         <v>10</v>
       </c>
       <c r="AZ5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA5" t="s">
         <v>11</v>
       </c>
       <c r="BB5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD5">
         <v>151</v>
@@ -3704,7 +3595,7 @@
         <v>41226</v>
       </c>
       <c r="BM5" s="66" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="BN5" s="67">
         <v>31.63212</v>
@@ -3713,30 +3604,35 @@
         <v>34.5167</v>
       </c>
       <c r="BP5" s="42" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="BQ5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="BR5" s="25"/>
       <c r="BW5">
         <v>1.5</v>
       </c>
       <c r="BX5" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="BY5" s="74">
+        <v>252</v>
+      </c>
+      <c r="BY5" s="42">
         <v>0</v>
       </c>
-      <c r="BZ5"/>
-      <c r="CA5"/>
-      <c r="CB5"/>
-      <c r="CC5"/>
-      <c r="CD5"/>
-      <c r="CE5"/>
-      <c r="CF5"/>
+      <c r="BZ5">
+        <v>42.3</v>
+      </c>
+      <c r="CA5">
+        <v>31.81</v>
+      </c>
+      <c r="CB5">
+        <v>584.20399999999995</v>
+      </c>
+      <c r="CC5">
+        <v>114.9</v>
+      </c>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3745,34 +3641,34 @@
         <v>4</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N6" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O6" s="37">
         <v>55425</v>
@@ -3781,89 +3677,89 @@
         <v>55425</v>
       </c>
       <c r="Q6" s="55" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="R6" s="19" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="S6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="U6" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="16" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="X6" s="16" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="Y6" s="33">
         <v>2</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB6" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC6" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD6" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF6" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC6" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD6" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE6" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF6" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG6" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH6" s="59" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="AI6" s="59" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AJ6" s="59" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AK6" s="59" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AL6" s="59"/>
       <c r="AM6" s="61" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AN6" s="62"/>
       <c r="AO6" s="63">
         <v>0.01</v>
       </c>
       <c r="AQ6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AR6" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AT6" s="42">
         <v>15</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AV6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW6" t="s">
         <v>8</v>
@@ -3875,13 +3771,13 @@
         <v>10</v>
       </c>
       <c r="AZ6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA6" t="s">
         <v>11</v>
       </c>
       <c r="BB6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD6">
         <v>151</v>
@@ -3897,7 +3793,7 @@
         <v>41226</v>
       </c>
       <c r="BM6" s="66" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="BN6" s="67">
         <v>31.6341</v>
@@ -3906,30 +3802,35 @@
         <v>34.51144</v>
       </c>
       <c r="BP6" s="42" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="BQ6" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="BR6" s="25"/>
       <c r="BW6">
         <v>10</v>
       </c>
       <c r="BX6" s="70" t="s">
-        <v>259</v>
-      </c>
-      <c r="BY6" s="71">
+        <v>253</v>
+      </c>
+      <c r="BY6" s="70">
         <v>545.16</v>
       </c>
-      <c r="BZ6"/>
-      <c r="CA6"/>
-      <c r="CB6"/>
-      <c r="CC6"/>
-      <c r="CD6"/>
-      <c r="CE6"/>
-      <c r="CF6"/>
+      <c r="BZ6">
+        <v>39.6</v>
+      </c>
+      <c r="CA6">
+        <v>24.87</v>
+      </c>
+      <c r="CB6">
+        <v>209.97499999999999</v>
+      </c>
+      <c r="CC6">
+        <v>99.7</v>
+      </c>
     </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3938,34 +3839,34 @@
         <v>5</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O7" s="37">
         <v>28768</v>
@@ -3974,89 +3875,89 @@
         <v>28768</v>
       </c>
       <c r="Q7" s="54" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="R7" s="19" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="S7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T7" s="16" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="U7" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="16" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="X7" s="16" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="Y7" s="33">
         <v>2</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB7" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC7" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD7" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE7" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF7" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC7" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD7" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE7" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF7" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG7" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH7" s="59" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="AI7" s="59" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AJ7" s="59" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AK7" s="59" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AL7" s="59"/>
       <c r="AM7" s="61" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AN7" s="62"/>
       <c r="AO7" s="63">
         <v>0.01</v>
       </c>
       <c r="AQ7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AR7" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AT7" s="42">
         <v>15</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AV7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW7" t="s">
         <v>8</v>
@@ -4068,13 +3969,13 @@
         <v>10</v>
       </c>
       <c r="AZ7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA7" t="s">
         <v>11</v>
       </c>
       <c r="BB7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD7">
         <v>151</v>
@@ -4090,7 +3991,7 @@
         <v>41226</v>
       </c>
       <c r="BM7" s="66" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="BN7" s="67">
         <v>31.6341</v>
@@ -4099,30 +4000,35 @@
         <v>34.51144</v>
       </c>
       <c r="BP7" s="42" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="BQ7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="BR7" s="25"/>
       <c r="BW7">
         <v>10</v>
       </c>
       <c r="BX7" s="71" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="BY7" s="71">
         <v>545.16</v>
       </c>
-      <c r="BZ7"/>
-      <c r="CA7"/>
-      <c r="CB7"/>
-      <c r="CC7"/>
-      <c r="CD7"/>
-      <c r="CE7"/>
-      <c r="CF7"/>
+      <c r="BZ7">
+        <v>39.6</v>
+      </c>
+      <c r="CA7">
+        <v>24.87</v>
+      </c>
+      <c r="CB7">
+        <v>209.97499999999999</v>
+      </c>
+      <c r="CC7">
+        <v>99.7</v>
+      </c>
     </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4131,34 +4037,34 @@
         <v>6</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N8" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O8" s="37">
         <v>40693</v>
@@ -4167,89 +4073,89 @@
         <v>40693</v>
       </c>
       <c r="Q8" s="54" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="R8" s="24" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="S8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="16" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="X8" s="16" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="Y8" s="33">
         <v>2</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB8" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC8" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD8" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE8" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF8" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC8" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD8" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE8" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF8" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH8" s="59" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AI8" s="59" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AJ8" s="59" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AK8" s="59" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="AL8" s="59"/>
       <c r="AM8" s="61" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AN8" s="62"/>
       <c r="AO8" s="63">
         <v>0.01</v>
       </c>
       <c r="AQ8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AR8" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AT8" s="42">
         <v>15</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AV8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW8" t="s">
         <v>8</v>
@@ -4261,13 +4167,13 @@
         <v>10</v>
       </c>
       <c r="AZ8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA8" t="s">
         <v>11</v>
       </c>
       <c r="BB8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD8">
         <v>151</v>
@@ -4283,7 +4189,7 @@
         <v>41226</v>
       </c>
       <c r="BM8" s="66" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="BN8" s="67">
         <v>31.6341</v>
@@ -4292,30 +4198,35 @@
         <v>34.51144</v>
       </c>
       <c r="BP8" s="42" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="BQ8" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="BR8" s="25"/>
       <c r="BW8">
         <v>10</v>
       </c>
       <c r="BX8" s="71" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="BY8" s="71">
         <v>545.16</v>
       </c>
-      <c r="BZ8"/>
-      <c r="CA8"/>
-      <c r="CB8"/>
-      <c r="CC8"/>
-      <c r="CD8"/>
-      <c r="CE8"/>
-      <c r="CF8"/>
+      <c r="BZ8">
+        <v>39.6</v>
+      </c>
+      <c r="CA8">
+        <v>24.87</v>
+      </c>
+      <c r="CB8">
+        <v>209.97499999999999</v>
+      </c>
+      <c r="CC8">
+        <v>99.7</v>
+      </c>
     </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4324,34 +4235,34 @@
         <v>7</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L9" s="30" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N9" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O9" s="37">
         <v>0</v>
@@ -4362,83 +4273,83 @@
       <c r="Q9" s="54"/>
       <c r="R9" s="19"/>
       <c r="S9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="16" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="X9" s="16" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="Y9" s="33">
         <v>3</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB9" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC9" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD9" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE9" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF9" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC9" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD9" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE9" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF9" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG9" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH9" s="59" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AI9" s="59" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AJ9" s="59" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AK9" s="59" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AL9" s="59"/>
       <c r="AM9" s="61" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AN9" s="62"/>
       <c r="AO9" s="63">
         <v>0.01</v>
       </c>
       <c r="AQ9" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AR9" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AT9" s="42">
         <v>15</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AV9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW9" t="s">
         <v>8</v>
@@ -4450,13 +4361,13 @@
         <v>10</v>
       </c>
       <c r="AZ9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA9" t="s">
         <v>11</v>
       </c>
       <c r="BB9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD9">
         <v>151</v>
@@ -4472,7 +4383,7 @@
         <v>41226</v>
       </c>
       <c r="BM9" s="66" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="BN9" s="67">
         <v>31.671759999999999</v>
@@ -4481,30 +4392,35 @@
         <v>34.543559999999999</v>
       </c>
       <c r="BP9" s="42" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="BQ9" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="BR9" s="25"/>
       <c r="BW9">
         <v>5</v>
       </c>
       <c r="BX9" s="71" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="BY9" s="71">
         <v>5080.2700000000004</v>
       </c>
-      <c r="BZ9"/>
-      <c r="CA9"/>
-      <c r="CB9"/>
-      <c r="CC9"/>
-      <c r="CD9"/>
-      <c r="CE9"/>
-      <c r="CF9"/>
+      <c r="BZ9">
+        <v>39.6</v>
+      </c>
+      <c r="CA9">
+        <v>24.92</v>
+      </c>
+      <c r="CB9">
+        <v>210.3</v>
+      </c>
+      <c r="CC9">
+        <v>100.9</v>
+      </c>
     </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4513,34 +4429,34 @@
         <v>8</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N10" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O10" s="37">
         <v>59542</v>
@@ -4549,89 +4465,89 @@
         <v>59542</v>
       </c>
       <c r="Q10" s="54" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="S10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="U10" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="16" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="X10" s="16" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="Y10" s="33">
         <v>3</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC10" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD10" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE10" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF10" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC10" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD10" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE10" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF10" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH10" s="59" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="AI10" s="59" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AJ10" s="59" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="AK10" s="59" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AL10" s="59"/>
       <c r="AM10" s="61" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AN10" s="62"/>
       <c r="AO10" s="63">
         <v>0.01</v>
       </c>
       <c r="AQ10" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AR10" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AS10" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AT10" s="42">
         <v>15</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AV10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW10" t="s">
         <v>8</v>
@@ -4643,13 +4559,13 @@
         <v>10</v>
       </c>
       <c r="AZ10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA10" t="s">
         <v>11</v>
       </c>
       <c r="BB10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD10">
         <v>151</v>
@@ -4665,7 +4581,7 @@
         <v>41226</v>
       </c>
       <c r="BM10" s="66" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="BN10" s="67">
         <v>31.671759999999999</v>
@@ -4674,30 +4590,35 @@
         <v>34.543559999999999</v>
       </c>
       <c r="BP10" s="42" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="BQ10" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="BR10" s="25"/>
       <c r="BW10">
         <v>5</v>
       </c>
       <c r="BX10" s="71" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="BY10" s="71">
         <v>5080.2700000000004</v>
       </c>
-      <c r="BZ10"/>
-      <c r="CA10"/>
-      <c r="CB10"/>
-      <c r="CC10"/>
-      <c r="CD10"/>
-      <c r="CE10"/>
-      <c r="CF10"/>
+      <c r="BZ10">
+        <v>39.6</v>
+      </c>
+      <c r="CA10">
+        <v>24.92</v>
+      </c>
+      <c r="CB10">
+        <v>210.3</v>
+      </c>
+      <c r="CC10">
+        <v>100.9</v>
+      </c>
     </row>
-    <row r="11" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4706,34 +4627,34 @@
         <v>9</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N11" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O11" s="37">
         <v>51746</v>
@@ -4742,89 +4663,89 @@
         <v>51746</v>
       </c>
       <c r="Q11" s="54" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="R11" s="19" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="S11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="U11" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="16" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="X11" s="16" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="Y11" s="33">
         <v>3</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC11" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD11" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF11" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC11" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD11" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE11" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF11" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH11" s="59" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AI11" s="59" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AJ11" s="59" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AK11" s="59" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AL11" s="59"/>
       <c r="AM11" s="61" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AN11" s="62"/>
       <c r="AO11" s="63">
         <v>0.01</v>
       </c>
       <c r="AQ11" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AR11" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AT11" s="42">
         <v>15</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AV11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW11" t="s">
         <v>8</v>
@@ -4836,13 +4757,13 @@
         <v>10</v>
       </c>
       <c r="AZ11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA11" t="s">
         <v>11</v>
       </c>
       <c r="BB11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD11">
         <v>151</v>
@@ -4858,7 +4779,7 @@
         <v>41226</v>
       </c>
       <c r="BM11" s="66" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="BN11" s="67">
         <v>31.671759999999999</v>
@@ -4867,30 +4788,35 @@
         <v>34.543559999999999</v>
       </c>
       <c r="BP11" s="42" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="BQ11" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="BR11" s="25"/>
       <c r="BW11">
         <v>5</v>
       </c>
       <c r="BX11" s="71" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="BY11" s="71">
         <v>5080.2700000000004</v>
       </c>
-      <c r="BZ11"/>
-      <c r="CA11"/>
-      <c r="CB11"/>
-      <c r="CC11"/>
-      <c r="CD11"/>
-      <c r="CE11"/>
-      <c r="CF11"/>
+      <c r="BZ11">
+        <v>39.6</v>
+      </c>
+      <c r="CA11">
+        <v>24.92</v>
+      </c>
+      <c r="CB11">
+        <v>210.3</v>
+      </c>
+      <c r="CC11">
+        <v>100.9</v>
+      </c>
     </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4899,34 +4825,34 @@
         <v>10</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K12" s="30" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O12" s="37">
         <v>51956</v>
@@ -4935,89 +4861,89 @@
         <v>51956</v>
       </c>
       <c r="Q12" s="54" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="R12" s="24" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="S12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T12" s="16" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="16" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="X12" s="16" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="Y12" s="33">
         <v>4</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC12" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD12" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE12" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF12" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC12" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD12" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE12" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF12" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG12" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH12" s="59" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AI12" s="59" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AJ12" s="59" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="AK12" s="59" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="AL12" s="59"/>
       <c r="AM12" s="61" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AN12" s="62"/>
       <c r="AO12" s="63">
         <v>0.01</v>
       </c>
       <c r="AQ12" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AR12" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AS12" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AT12" s="42">
         <v>15</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AV12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW12" t="s">
         <v>8</v>
@@ -5029,13 +4955,13 @@
         <v>10</v>
       </c>
       <c r="AZ12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA12" t="s">
         <v>11</v>
       </c>
       <c r="BB12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD12">
         <v>151</v>
@@ -5051,7 +4977,7 @@
         <v>41227</v>
       </c>
       <c r="BM12" s="66" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="BN12" s="67">
         <v>31.941859999999998</v>
@@ -5060,30 +4986,35 @@
         <v>34.68862</v>
       </c>
       <c r="BP12" s="42" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="BQ12" s="58" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="BR12" s="25"/>
       <c r="BW12">
         <v>18</v>
       </c>
       <c r="BX12" s="71" t="s">
-        <v>259</v>
-      </c>
-      <c r="BY12" s="74">
-        <v>0</v>
-      </c>
-      <c r="BZ12"/>
-      <c r="CA12"/>
-      <c r="CB12"/>
-      <c r="CC12"/>
-      <c r="CD12"/>
-      <c r="CE12"/>
-      <c r="CF12"/>
+        <v>253</v>
+      </c>
+      <c r="BY12" s="42">
+        <v>102.78</v>
+      </c>
+      <c r="BZ12">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="CA12">
+        <v>24.88</v>
+      </c>
+      <c r="CB12">
+        <v>160.36000000000001</v>
+      </c>
+      <c r="CC12">
+        <v>99.74</v>
+      </c>
     </row>
-    <row r="13" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5092,34 +5023,34 @@
         <v>11</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K13" s="30" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L13" s="30" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O13" s="37">
         <v>51138</v>
@@ -5128,89 +5059,89 @@
         <v>51138</v>
       </c>
       <c r="Q13" s="54" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="R13" s="19" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="S13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T13" s="16" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="U13" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="16" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="X13" s="16" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="Y13" s="33">
         <v>4</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB13" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC13" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD13" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE13" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF13" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC13" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD13" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE13" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF13" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH13" s="59" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AI13" s="59" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AJ13" s="59" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AK13" s="59" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AL13" s="59"/>
       <c r="AM13" s="61" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AN13" s="62"/>
       <c r="AO13" s="63">
         <v>0.01</v>
       </c>
       <c r="AQ13" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AR13" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AS13" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AT13" s="42">
         <v>15</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AV13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW13" t="s">
         <v>8</v>
@@ -5222,13 +5153,13 @@
         <v>10</v>
       </c>
       <c r="AZ13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA13" t="s">
         <v>11</v>
       </c>
       <c r="BB13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD13">
         <v>151</v>
@@ -5244,7 +5175,7 @@
         <v>41227</v>
       </c>
       <c r="BM13" s="66" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="BN13" s="67">
         <v>31.941859999999998</v>
@@ -5253,30 +5184,35 @@
         <v>34.68862</v>
       </c>
       <c r="BP13" s="42" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="BQ13" s="58" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="BR13" s="25"/>
       <c r="BW13">
         <v>18</v>
       </c>
       <c r="BX13" s="71" t="s">
-        <v>259</v>
-      </c>
-      <c r="BY13" s="74">
-        <v>0</v>
-      </c>
-      <c r="BZ13"/>
-      <c r="CA13"/>
-      <c r="CB13"/>
-      <c r="CC13"/>
-      <c r="CD13"/>
-      <c r="CE13"/>
-      <c r="CF13"/>
+        <v>253</v>
+      </c>
+      <c r="BY13" s="42">
+        <v>102.78</v>
+      </c>
+      <c r="BZ13">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="CA13">
+        <v>24.88</v>
+      </c>
+      <c r="CB13">
+        <v>160.36000000000001</v>
+      </c>
+      <c r="CC13">
+        <v>99.74</v>
+      </c>
     </row>
-    <row r="14" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5285,34 +5221,34 @@
         <v>12</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O14" s="37">
         <v>59931</v>
@@ -5321,89 +5257,89 @@
         <v>59931</v>
       </c>
       <c r="Q14" s="55" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="R14" s="19" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="S14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T14" s="16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="U14" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="16" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="X14" s="16" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="Y14" s="33">
         <v>4</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB14" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC14" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD14" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE14" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF14" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC14" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD14" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE14" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF14" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG14" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH14" s="59" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AI14" s="59" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AJ14" s="59" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AK14" s="59" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="AL14" s="59"/>
       <c r="AM14" s="61" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AN14" s="62"/>
       <c r="AO14" s="63">
         <v>0.01</v>
       </c>
       <c r="AQ14" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AR14" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AS14" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AT14" s="42">
         <v>15</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AV14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW14" t="s">
         <v>8</v>
@@ -5415,13 +5351,13 @@
         <v>10</v>
       </c>
       <c r="AZ14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA14" t="s">
         <v>11</v>
       </c>
       <c r="BB14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD14">
         <v>151</v>
@@ -5437,7 +5373,7 @@
         <v>41227</v>
       </c>
       <c r="BM14" s="66" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="BN14" s="67">
         <v>31.941859999999998</v>
@@ -5446,30 +5382,35 @@
         <v>34.68862</v>
       </c>
       <c r="BP14" s="42" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="BQ14" s="58" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="BR14" s="25"/>
       <c r="BW14">
         <v>18</v>
       </c>
       <c r="BX14" s="71" t="s">
-        <v>259</v>
-      </c>
-      <c r="BY14" s="74">
-        <v>0</v>
-      </c>
-      <c r="BZ14"/>
-      <c r="CA14"/>
-      <c r="CB14"/>
-      <c r="CC14"/>
-      <c r="CD14"/>
-      <c r="CE14"/>
-      <c r="CF14"/>
+        <v>253</v>
+      </c>
+      <c r="BY14" s="42">
+        <v>102.78</v>
+      </c>
+      <c r="BZ14">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="CA14">
+        <v>24.88</v>
+      </c>
+      <c r="CB14">
+        <v>160.36000000000001</v>
+      </c>
+      <c r="CC14">
+        <v>99.74</v>
+      </c>
     </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5478,34 +5419,34 @@
         <v>13</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K15" s="30" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L15" s="30" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O15" s="37">
         <v>47675</v>
@@ -5514,89 +5455,89 @@
         <v>47675</v>
       </c>
       <c r="Q15" s="54" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="R15" s="19" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="S15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T15" s="16" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="16" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="X15" s="16" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="Y15" s="33">
         <v>5</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB15" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC15" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD15" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF15" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC15" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD15" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE15" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF15" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG15" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH15" s="59" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AI15" s="59" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AJ15" s="59" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="AK15" s="59" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AL15" s="59"/>
       <c r="AM15" s="61" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AN15" s="62"/>
       <c r="AO15" s="63">
         <v>0.01</v>
       </c>
       <c r="AQ15" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AR15" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AS15" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AT15" s="42">
         <v>15</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AV15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW15" t="s">
         <v>8</v>
@@ -5608,13 +5549,13 @@
         <v>10</v>
       </c>
       <c r="AZ15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA15" t="s">
         <v>11</v>
       </c>
       <c r="BB15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD15">
         <v>151</v>
@@ -5630,7 +5571,7 @@
         <v>41227</v>
       </c>
       <c r="BM15" s="66" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="BN15" s="67">
         <v>31.94068</v>
@@ -5639,30 +5580,35 @@
         <v>34.687379999999997</v>
       </c>
       <c r="BP15" s="42" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="BQ15" s="58" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="BR15" s="25"/>
       <c r="BW15">
         <v>19</v>
       </c>
       <c r="BX15" s="71" t="s">
-        <v>259</v>
-      </c>
-      <c r="BY15" s="71">
-        <v>175.69</v>
-      </c>
-      <c r="BZ15"/>
-      <c r="CA15"/>
-      <c r="CB15"/>
-      <c r="CC15"/>
-      <c r="CD15"/>
-      <c r="CE15"/>
-      <c r="CF15"/>
+        <v>253</v>
+      </c>
+      <c r="BY15" s="70">
+        <v>130.54</v>
+      </c>
+      <c r="BZ15">
+        <v>40.5</v>
+      </c>
+      <c r="CA15">
+        <v>24.85</v>
+      </c>
+      <c r="CB15">
+        <v>163.64500000000001</v>
+      </c>
+      <c r="CC15">
+        <v>99.39</v>
+      </c>
     </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5671,31 +5617,31 @@
         <v>14</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K16" s="30" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N16" s="30"/>
       <c r="O16" s="37">
@@ -5707,78 +5653,78 @@
       <c r="Q16" s="54"/>
       <c r="R16" s="19"/>
       <c r="S16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T16" s="16" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="U16" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="16" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="X16" s="16" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="Y16" s="33">
         <v>5</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC16" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD16" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE16" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF16" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC16" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD16" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE16" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF16" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG16" s="1"/>
       <c r="AH16" s="59" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AI16" s="59" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AJ16" s="59" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AK16" s="59" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="AL16" s="59"/>
       <c r="AM16" s="61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AN16" s="62"/>
       <c r="AO16" s="63">
         <v>0.01</v>
       </c>
       <c r="AQ16" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AR16" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AS16" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AT16" s="42">
         <v>15</v>
       </c>
       <c r="AU16" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AW16" t="s">
         <v>8</v>
@@ -5790,13 +5736,13 @@
         <v>10</v>
       </c>
       <c r="AZ16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA16" t="s">
         <v>11</v>
       </c>
       <c r="BB16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD16">
         <v>151</v>
@@ -5812,7 +5758,7 @@
         <v>41227</v>
       </c>
       <c r="BM16" s="66" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="BN16" s="67">
         <v>31.94068</v>
@@ -5821,30 +5767,35 @@
         <v>34.687379999999997</v>
       </c>
       <c r="BP16" s="42" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="BQ16" s="58" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="BR16" s="25"/>
       <c r="BW16">
         <v>19</v>
       </c>
       <c r="BX16" s="71" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="BY16" s="71">
-        <v>175.69</v>
-      </c>
-      <c r="BZ16"/>
-      <c r="CA16"/>
-      <c r="CB16"/>
-      <c r="CC16"/>
-      <c r="CD16"/>
-      <c r="CE16"/>
-      <c r="CF16"/>
+        <v>130.54</v>
+      </c>
+      <c r="BZ16">
+        <v>40.5</v>
+      </c>
+      <c r="CA16">
+        <v>24.85</v>
+      </c>
+      <c r="CB16">
+        <v>163.64500000000001</v>
+      </c>
+      <c r="CC16">
+        <v>99.39</v>
+      </c>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5853,31 +5804,31 @@
         <v>15</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K17" s="30" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="L17" s="30" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N17" s="30"/>
       <c r="O17" s="37">
@@ -5887,84 +5838,84 @@
         <v>33556</v>
       </c>
       <c r="Q17" s="55" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="R17" s="19" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="S17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T17" s="16" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="U17" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="16" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="X17" s="16" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="Y17" s="33">
         <v>5</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB17" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC17" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD17" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE17" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF17" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC17" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD17" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE17" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF17" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG17" s="1"/>
       <c r="AH17" s="59" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AI17" s="59" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AJ17" s="59" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AK17" s="59" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AL17" s="59"/>
       <c r="AM17" s="61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AN17" s="62"/>
       <c r="AO17" s="63">
         <v>0.01</v>
       </c>
       <c r="AQ17" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AR17" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AS17" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AT17" s="42">
         <v>15</v>
       </c>
       <c r="AU17" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AW17" t="s">
         <v>8</v>
@@ -5976,13 +5927,13 @@
         <v>10</v>
       </c>
       <c r="AZ17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA17" t="s">
         <v>11</v>
       </c>
       <c r="BB17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD17">
         <v>151</v>
@@ -5998,7 +5949,7 @@
         <v>41227</v>
       </c>
       <c r="BM17" s="66" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="BN17" s="67">
         <v>31.94068</v>
@@ -6007,30 +5958,35 @@
         <v>34.687379999999997</v>
       </c>
       <c r="BP17" s="42" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="BQ17" s="58" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="BR17" s="25"/>
       <c r="BW17">
         <v>19</v>
       </c>
       <c r="BX17" s="71" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="BY17" s="71">
-        <v>175.69</v>
-      </c>
-      <c r="BZ17"/>
-      <c r="CA17"/>
-      <c r="CB17"/>
-      <c r="CC17"/>
-      <c r="CD17"/>
-      <c r="CE17"/>
-      <c r="CF17"/>
+        <v>130.54</v>
+      </c>
+      <c r="BZ17">
+        <v>40.5</v>
+      </c>
+      <c r="CA17">
+        <v>24.85</v>
+      </c>
+      <c r="CB17">
+        <v>163.64500000000001</v>
+      </c>
+      <c r="CC17">
+        <v>99.39</v>
+      </c>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6039,31 +5995,31 @@
         <v>16</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="L18" s="30" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="M18" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N18" s="30"/>
       <c r="O18" s="37">
@@ -6073,84 +6029,84 @@
         <v>38282</v>
       </c>
       <c r="Q18" s="54" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="R18" s="19" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="S18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T18" s="16" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U18" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="16" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="X18" s="16" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="Y18" s="33">
         <v>6</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB18" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC18" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD18" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE18" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF18" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC18" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD18" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE18" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF18" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG18" s="1"/>
       <c r="AH18" s="59" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AI18" s="59" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AJ18" s="59" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AK18" s="59" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="AL18" s="59"/>
       <c r="AM18" s="61" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AN18" s="62"/>
       <c r="AO18" s="63">
         <v>0.01</v>
       </c>
       <c r="AQ18" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AR18" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AS18" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AT18" s="42">
         <v>15</v>
       </c>
       <c r="AU18" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AW18" t="s">
         <v>8</v>
@@ -6162,13 +6118,13 @@
         <v>10</v>
       </c>
       <c r="AZ18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA18" t="s">
         <v>11</v>
       </c>
       <c r="BB18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD18">
         <v>151</v>
@@ -6184,7 +6140,7 @@
         <v>41227</v>
       </c>
       <c r="BM18" s="66" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="BN18" s="67">
         <v>31.931660000000001</v>
@@ -6193,30 +6149,35 @@
         <v>34.68336</v>
       </c>
       <c r="BP18" s="42" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="BQ18" s="58" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="BR18" s="25"/>
       <c r="BW18">
         <v>18</v>
       </c>
       <c r="BX18" s="71" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="BY18" s="71">
-        <v>1235.56</v>
-      </c>
-      <c r="BZ18"/>
-      <c r="CA18"/>
-      <c r="CB18"/>
-      <c r="CC18"/>
-      <c r="CD18"/>
-      <c r="CE18"/>
-      <c r="CF18"/>
+        <v>1196.8399999999999</v>
+      </c>
+      <c r="BZ18">
+        <v>39.6</v>
+      </c>
+      <c r="CA18">
+        <v>24.45</v>
+      </c>
+      <c r="CB18">
+        <v>163.03299999999999</v>
+      </c>
+      <c r="CC18">
+        <v>99.2</v>
+      </c>
     </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6225,31 +6186,31 @@
         <v>17</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L19" s="30" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="M19" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N19" s="30"/>
       <c r="O19" s="37">
@@ -6261,78 +6222,78 @@
       <c r="Q19" s="54"/>
       <c r="R19" s="19"/>
       <c r="S19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T19" s="16" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="U19" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="16" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="X19" s="16" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="Y19" s="33">
         <v>6</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB19" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC19" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD19" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE19" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF19" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC19" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD19" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE19" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF19" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG19" s="1"/>
       <c r="AH19" s="59" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AI19" s="59" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AJ19" s="59" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AK19" s="59" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="AL19" s="59"/>
       <c r="AM19" s="61" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AN19" s="62"/>
       <c r="AO19" s="63">
         <v>0.01</v>
       </c>
       <c r="AQ19" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AR19" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AS19" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AT19" s="42">
         <v>15</v>
       </c>
       <c r="AU19" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AW19" t="s">
         <v>8</v>
@@ -6344,13 +6305,13 @@
         <v>10</v>
       </c>
       <c r="AZ19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA19" t="s">
         <v>11</v>
       </c>
       <c r="BB19" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD19">
         <v>151</v>
@@ -6366,7 +6327,7 @@
         <v>41227</v>
       </c>
       <c r="BM19" s="66" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="BN19" s="67">
         <v>31.931660000000001</v>
@@ -6375,30 +6336,35 @@
         <v>34.68336</v>
       </c>
       <c r="BP19" s="42" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="BQ19" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="BR19" s="25"/>
       <c r="BW19">
         <v>18</v>
       </c>
       <c r="BX19" s="71" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="BY19" s="71">
-        <v>1235.56</v>
-      </c>
-      <c r="BZ19"/>
-      <c r="CA19"/>
-      <c r="CB19"/>
-      <c r="CC19"/>
-      <c r="CD19"/>
-      <c r="CE19"/>
-      <c r="CF19"/>
+        <v>1196.8399999999999</v>
+      </c>
+      <c r="BZ19">
+        <v>39.6</v>
+      </c>
+      <c r="CA19">
+        <v>24.45</v>
+      </c>
+      <c r="CB19">
+        <v>163.03299999999999</v>
+      </c>
+      <c r="CC19">
+        <v>99.2</v>
+      </c>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6407,31 +6373,31 @@
         <v>18</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L20" s="30" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="M20" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N20" s="30"/>
       <c r="O20" s="37">
@@ -6441,84 +6407,84 @@
         <v>57154</v>
       </c>
       <c r="Q20" s="54" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="R20" s="19" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="S20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T20" s="16" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="U20" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="16" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="X20" s="16" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="Y20" s="33">
         <v>6</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB20" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC20" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD20" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE20" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF20" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC20" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD20" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE20" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF20" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG20" s="1"/>
       <c r="AH20" s="59" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AI20" s="59" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ20" s="59" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="AK20" s="59" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="AL20" s="59"/>
       <c r="AM20" s="61" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AN20" s="62"/>
       <c r="AO20" s="63">
         <v>0.01</v>
       </c>
       <c r="AQ20" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AR20" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AS20" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AT20" s="42">
         <v>15</v>
       </c>
       <c r="AU20" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AW20" t="s">
         <v>8</v>
@@ -6530,13 +6496,13 @@
         <v>10</v>
       </c>
       <c r="AZ20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA20" t="s">
         <v>11</v>
       </c>
       <c r="BB20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD20">
         <v>151</v>
@@ -6552,7 +6518,7 @@
         <v>41227</v>
       </c>
       <c r="BM20" s="66" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="BN20" s="67">
         <v>31.931660000000001</v>
@@ -6561,30 +6527,35 @@
         <v>34.68336</v>
       </c>
       <c r="BP20" s="42" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="BQ20" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="BR20" s="25"/>
       <c r="BW20">
         <v>18</v>
       </c>
       <c r="BX20" s="71" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="BY20" s="71">
-        <v>1235.56</v>
-      </c>
-      <c r="BZ20"/>
-      <c r="CA20"/>
-      <c r="CB20"/>
-      <c r="CC20"/>
-      <c r="CD20"/>
-      <c r="CE20"/>
-      <c r="CF20"/>
+        <v>1196.8399999999999</v>
+      </c>
+      <c r="BZ20">
+        <v>39.6</v>
+      </c>
+      <c r="CA20">
+        <v>24.45</v>
+      </c>
+      <c r="CB20">
+        <v>163.03299999999999</v>
+      </c>
+      <c r="CC20">
+        <v>99.2</v>
+      </c>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6593,31 +6564,31 @@
         <v>19</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L21" s="30" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M21" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N21" s="30"/>
       <c r="O21" s="37">
@@ -6629,78 +6600,78 @@
       <c r="Q21" s="54"/>
       <c r="R21" s="19"/>
       <c r="S21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T21" s="16" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="U21" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="16" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="X21" s="16" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="Y21" s="33">
         <v>7</v>
       </c>
       <c r="Z21" s="1"/>
       <c r="AA21" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB21" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC21" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD21" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE21" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF21" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC21" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD21" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE21" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF21" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG21" s="1"/>
       <c r="AH21" s="59" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AI21" s="59" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AJ21" s="59" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AK21" s="59" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AL21" s="59"/>
       <c r="AM21" s="61" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AN21" s="62"/>
       <c r="AO21" s="63">
         <v>0.01</v>
       </c>
       <c r="AQ21" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AR21" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AS21" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AT21" s="42">
         <v>15</v>
       </c>
       <c r="AU21" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AW21" t="s">
         <v>8</v>
@@ -6712,13 +6683,13 @@
         <v>10</v>
       </c>
       <c r="AZ21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA21" t="s">
         <v>11</v>
       </c>
       <c r="BB21" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD21">
         <v>151</v>
@@ -6734,7 +6705,7 @@
         <v>41233</v>
       </c>
       <c r="BM21" s="66" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="BN21" s="67">
         <v>32.465020000000003</v>
@@ -6743,30 +6714,35 @@
         <v>34.882582999999997</v>
       </c>
       <c r="BP21" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="BQ21" s="58" t="s">
         <v>260</v>
-      </c>
-      <c r="BQ21" s="58" t="s">
-        <v>266</v>
       </c>
       <c r="BR21" s="25"/>
       <c r="BW21">
         <v>3.8</v>
       </c>
       <c r="BX21" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="BY21" s="74">
+        <v>252</v>
+      </c>
+      <c r="BY21" s="42">
         <v>0</v>
       </c>
-      <c r="BZ21"/>
-      <c r="CA21"/>
-      <c r="CB21"/>
-      <c r="CC21"/>
-      <c r="CD21"/>
-      <c r="CE21"/>
-      <c r="CF21"/>
+      <c r="BZ21">
+        <v>41.04</v>
+      </c>
+      <c r="CA21">
+        <v>25.24</v>
+      </c>
+      <c r="CB21">
+        <v>237.71</v>
+      </c>
+      <c r="CC21">
+        <v>105.6</v>
+      </c>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6775,31 +6751,31 @@
         <v>20</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L22" s="30" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M22" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N22" s="30"/>
       <c r="O22" s="37">
@@ -6809,84 +6785,84 @@
         <v>24875</v>
       </c>
       <c r="Q22" s="54" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="R22" s="19" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="S22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T22" s="16" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="V22" s="1"/>
       <c r="W22" s="16" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="X22" s="16" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="Y22" s="33">
         <v>7</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB22" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC22" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD22" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE22" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF22" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC22" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD22" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE22" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF22" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG22" s="1"/>
       <c r="AH22" s="59" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AI22" s="59" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AJ22" s="59" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AK22" s="59" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="AL22" s="59"/>
       <c r="AM22" s="61" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AN22" s="62"/>
       <c r="AO22" s="63">
         <v>0.01</v>
       </c>
       <c r="AQ22" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AR22" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AS22" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AT22" s="42">
         <v>15</v>
       </c>
       <c r="AU22" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AW22" t="s">
         <v>8</v>
@@ -6898,13 +6874,13 @@
         <v>10</v>
       </c>
       <c r="AZ22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA22" t="s">
         <v>11</v>
       </c>
       <c r="BB22" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD22">
         <v>151</v>
@@ -6920,7 +6896,7 @@
         <v>41233</v>
       </c>
       <c r="BM22" s="66" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="BN22" s="67">
         <v>32.465020000000003</v>
@@ -6929,30 +6905,35 @@
         <v>34.882582999999997</v>
       </c>
       <c r="BP22" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="BQ22" s="58" t="s">
         <v>260</v>
-      </c>
-      <c r="BQ22" s="58" t="s">
-        <v>266</v>
       </c>
       <c r="BR22" s="25"/>
       <c r="BW22">
         <v>3.8</v>
       </c>
       <c r="BX22" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="BY22" s="74">
+        <v>252</v>
+      </c>
+      <c r="BY22" s="42">
         <v>0</v>
       </c>
-      <c r="BZ22"/>
-      <c r="CA22"/>
-      <c r="CB22"/>
-      <c r="CC22"/>
-      <c r="CD22"/>
-      <c r="CE22"/>
-      <c r="CF22"/>
+      <c r="BZ22">
+        <v>41.04</v>
+      </c>
+      <c r="CA22">
+        <v>25.24</v>
+      </c>
+      <c r="CB22">
+        <v>237.71</v>
+      </c>
+      <c r="CC22">
+        <v>105.6</v>
+      </c>
     </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6961,31 +6942,31 @@
         <v>21</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K23" s="30" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L23" s="30" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M23" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N23" s="30"/>
       <c r="O23" s="37">
@@ -6997,78 +6978,78 @@
       <c r="Q23" s="54"/>
       <c r="R23" s="19"/>
       <c r="S23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T23" s="16" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="16" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="X23" s="16" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="Y23" s="33">
         <v>7</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB23" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC23" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD23" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE23" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF23" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC23" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD23" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE23" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF23" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG23" s="1"/>
       <c r="AH23" s="59" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AI23" s="59" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AJ23" s="59" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AK23" s="59" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="AL23" s="59"/>
       <c r="AM23" s="61" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AN23" s="62"/>
       <c r="AO23" s="63">
         <v>0.01</v>
       </c>
       <c r="AQ23" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AR23" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AS23" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AT23" s="42">
         <v>15</v>
       </c>
       <c r="AU23" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AW23" t="s">
         <v>8</v>
@@ -7080,13 +7061,13 @@
         <v>10</v>
       </c>
       <c r="AZ23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA23" t="s">
         <v>11</v>
       </c>
       <c r="BB23" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD23">
         <v>151</v>
@@ -7102,7 +7083,7 @@
         <v>41233</v>
       </c>
       <c r="BM23" s="66" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="BN23" s="67">
         <v>32.465020000000003</v>
@@ -7111,30 +7092,35 @@
         <v>34.882582999999997</v>
       </c>
       <c r="BP23" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="BQ23" s="58" t="s">
         <v>260</v>
-      </c>
-      <c r="BQ23" s="58" t="s">
-        <v>266</v>
       </c>
       <c r="BR23" s="25"/>
       <c r="BW23">
         <v>3.8</v>
       </c>
       <c r="BX23" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="BY23" s="74">
+        <v>252</v>
+      </c>
+      <c r="BY23" s="42">
         <v>0</v>
       </c>
-      <c r="BZ23"/>
-      <c r="CA23"/>
-      <c r="CB23"/>
-      <c r="CC23"/>
-      <c r="CD23"/>
-      <c r="CE23"/>
-      <c r="CF23"/>
+      <c r="BZ23">
+        <v>41.04</v>
+      </c>
+      <c r="CA23">
+        <v>25.24</v>
+      </c>
+      <c r="CB23">
+        <v>237.71</v>
+      </c>
+      <c r="CC23">
+        <v>105.6</v>
+      </c>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7143,31 +7129,31 @@
         <v>22</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M24" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N24" s="30"/>
       <c r="O24" s="37">
@@ -7177,84 +7163,84 @@
         <v>52815</v>
       </c>
       <c r="Q24" s="54" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="R24" s="19" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="S24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T24" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="U24" s="16" t="s">
         <v>293</v>
-      </c>
-      <c r="U24" s="16" t="s">
-        <v>299</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="16" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="X24" s="16" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="Y24" s="33">
         <v>8</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB24" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC24" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD24" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE24" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF24" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC24" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD24" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE24" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF24" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG24" s="1"/>
       <c r="AH24" s="59" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AI24" s="59" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AJ24" s="59" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AK24" s="59" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AL24" s="59"/>
       <c r="AM24" s="61" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AN24" s="62"/>
       <c r="AO24" s="63">
         <v>0.01</v>
       </c>
       <c r="AQ24" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AR24" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AS24" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AT24" s="42">
         <v>15</v>
       </c>
       <c r="AU24" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AW24" t="s">
         <v>8</v>
@@ -7266,13 +7252,13 @@
         <v>10</v>
       </c>
       <c r="AZ24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA24" t="s">
         <v>11</v>
       </c>
       <c r="BB24" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD24">
         <v>151</v>
@@ -7288,7 +7274,7 @@
         <v>41233</v>
       </c>
       <c r="BM24" s="66" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="BN24" s="67">
         <v>32.463700000000003</v>
@@ -7297,30 +7283,35 @@
         <v>34.879339999999999</v>
       </c>
       <c r="BP24" s="42" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="BQ24" s="58" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="BR24" s="25"/>
       <c r="BW24">
         <v>5.5</v>
       </c>
       <c r="BX24" s="71" t="s">
-        <v>259</v>
-      </c>
-      <c r="BY24" s="71">
+        <v>253</v>
+      </c>
+      <c r="BY24" s="70">
         <v>338.21</v>
       </c>
-      <c r="BZ24"/>
-      <c r="CA24"/>
-      <c r="CB24"/>
-      <c r="CC24"/>
-      <c r="CD24"/>
-      <c r="CE24"/>
-      <c r="CF24"/>
+      <c r="BZ24">
+        <v>39.4</v>
+      </c>
+      <c r="CA24">
+        <v>23.09</v>
+      </c>
+      <c r="CB24">
+        <v>197.125</v>
+      </c>
+      <c r="CC24">
+        <v>100.05</v>
+      </c>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7329,31 +7320,31 @@
         <v>23</v>
       </c>
       <c r="C25" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K25" s="30" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L25" s="30" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M25" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N25" s="30"/>
       <c r="O25" s="37">
@@ -7363,84 +7354,84 @@
         <v>52637</v>
       </c>
       <c r="Q25" s="54" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="R25" s="19" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="S25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T25" s="16" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="U25" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="16" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="X25" s="16" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="Y25" s="33">
         <v>8</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB25" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC25" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD25" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE25" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF25" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC25" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD25" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE25" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF25" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG25" s="1"/>
       <c r="AH25" s="59" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AI25" s="59" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AJ25" s="59" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="AK25" s="59" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AL25" s="59"/>
       <c r="AM25" s="61" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AN25" s="62"/>
       <c r="AO25" s="63">
         <v>0.01</v>
       </c>
       <c r="AQ25" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AR25" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AS25" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AT25" s="42">
         <v>15</v>
       </c>
       <c r="AU25" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AW25" t="s">
         <v>8</v>
@@ -7452,13 +7443,13 @@
         <v>10</v>
       </c>
       <c r="AZ25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA25" t="s">
         <v>11</v>
       </c>
       <c r="BB25" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD25">
         <v>151</v>
@@ -7474,7 +7465,7 @@
         <v>41233</v>
       </c>
       <c r="BM25" s="66" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="BN25" s="67">
         <v>32.463700000000003</v>
@@ -7483,30 +7474,35 @@
         <v>34.879339999999999</v>
       </c>
       <c r="BP25" s="42" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="BQ25" s="58" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="BR25" s="25"/>
       <c r="BW25">
         <v>5.5</v>
       </c>
       <c r="BX25" s="71" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="BY25" s="71">
         <v>338.21</v>
       </c>
-      <c r="BZ25"/>
-      <c r="CA25"/>
-      <c r="CB25"/>
-      <c r="CC25"/>
-      <c r="CD25"/>
-      <c r="CE25"/>
-      <c r="CF25"/>
+      <c r="BZ25">
+        <v>39.4</v>
+      </c>
+      <c r="CA25">
+        <v>23.09</v>
+      </c>
+      <c r="CB25">
+        <v>197.125</v>
+      </c>
+      <c r="CC25">
+        <v>100.05</v>
+      </c>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7515,31 +7511,31 @@
         <v>24</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K26" s="30" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L26" s="30" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N26" s="30"/>
       <c r="O26" s="37">
@@ -7549,84 +7545,84 @@
         <v>28701</v>
       </c>
       <c r="Q26" s="54" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="R26" s="19" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="S26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T26" s="16" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="U26" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="16" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="X26" s="16" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="Y26" s="33">
         <v>8</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB26" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC26" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD26" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE26" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF26" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC26" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD26" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE26" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF26" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG26" s="1"/>
       <c r="AH26" s="59" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="AI26" s="59" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AJ26" s="59" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="AK26" s="59" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="AL26" s="59"/>
       <c r="AM26" s="61" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AN26" s="62"/>
       <c r="AO26" s="63">
         <v>0.01</v>
       </c>
       <c r="AQ26" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AR26" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AS26" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AT26" s="42">
         <v>15</v>
       </c>
       <c r="AU26" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AW26" t="s">
         <v>8</v>
@@ -7638,13 +7634,13 @@
         <v>10</v>
       </c>
       <c r="AZ26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA26" t="s">
         <v>11</v>
       </c>
       <c r="BB26" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD26">
         <v>151</v>
@@ -7660,7 +7656,7 @@
         <v>41233</v>
       </c>
       <c r="BM26" s="66" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="BN26" s="67">
         <v>32.463700000000003</v>
@@ -7669,30 +7665,35 @@
         <v>34.879339999999999</v>
       </c>
       <c r="BP26" s="42" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="BQ26" s="58" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="BR26" s="25"/>
       <c r="BW26">
         <v>5.5</v>
       </c>
       <c r="BX26" s="71" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="BY26" s="71">
         <v>338.21</v>
       </c>
-      <c r="BZ26"/>
-      <c r="CA26"/>
-      <c r="CB26"/>
-      <c r="CC26"/>
-      <c r="CD26"/>
-      <c r="CE26"/>
-      <c r="CF26"/>
+      <c r="BZ26">
+        <v>39.4</v>
+      </c>
+      <c r="CA26">
+        <v>23.09</v>
+      </c>
+      <c r="CB26">
+        <v>197.125</v>
+      </c>
+      <c r="CC26">
+        <v>100.05</v>
+      </c>
     </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7701,31 +7702,31 @@
         <v>25</v>
       </c>
       <c r="C27" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K27" s="30" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="L27" s="30" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N27" s="30"/>
       <c r="O27" s="37">
@@ -7735,84 +7736,84 @@
         <v>50119</v>
       </c>
       <c r="Q27" s="54" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="R27" s="19" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="S27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T27" s="16" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="U27" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="16" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="X27" s="16" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="Y27" s="33">
         <v>9</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB27" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC27" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD27" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE27" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF27" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC27" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD27" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF27" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG27" s="1"/>
       <c r="AH27" s="59" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AI27" s="59" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AJ27" s="59" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="AK27" s="59" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AL27" s="59"/>
       <c r="AM27" s="61" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AN27" s="62"/>
       <c r="AO27" s="63">
         <v>0.01</v>
       </c>
       <c r="AQ27" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AR27" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AS27" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AT27" s="42">
         <v>15</v>
       </c>
       <c r="AU27" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AW27" t="s">
         <v>8</v>
@@ -7824,13 +7825,13 @@
         <v>10</v>
       </c>
       <c r="AZ27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA27" t="s">
         <v>11</v>
       </c>
       <c r="BB27" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD27">
         <v>151</v>
@@ -7846,7 +7847,7 @@
         <v>41233</v>
       </c>
       <c r="BM27" s="66" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="BN27" s="67">
         <v>32.42868</v>
@@ -7855,30 +7856,35 @@
         <v>34.870280000000001</v>
       </c>
       <c r="BP27" s="42" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="BQ27" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="BR27" s="25"/>
       <c r="BW27">
         <v>6.5</v>
       </c>
       <c r="BX27" s="71" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="BY27" s="71">
         <v>4192.68</v>
       </c>
-      <c r="BZ27"/>
-      <c r="CA27"/>
-      <c r="CB27"/>
-      <c r="CC27"/>
-      <c r="CD27"/>
-      <c r="CE27"/>
-      <c r="CF27"/>
+      <c r="BZ27">
+        <v>39.5</v>
+      </c>
+      <c r="CA27">
+        <v>22.5</v>
+      </c>
+      <c r="CB27">
+        <v>201.655</v>
+      </c>
+      <c r="CC27">
+        <v>98.32</v>
+      </c>
     </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7887,31 +7893,31 @@
         <v>26</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K28" s="30" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L28" s="30" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N28" s="30"/>
       <c r="O28" s="37">
@@ -7921,84 +7927,84 @@
         <v>22752</v>
       </c>
       <c r="Q28" s="54" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="R28" s="19" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="S28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T28" s="16" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="U28" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="16" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="X28" s="16" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="Y28" s="33">
         <v>9</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB28" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC28" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD28" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE28" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF28" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC28" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD28" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE28" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF28" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG28" s="1"/>
       <c r="AH28" s="59" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AI28" s="59" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="AJ28" s="59" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AK28" s="59" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="AL28" s="59"/>
       <c r="AM28" s="61" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AN28" s="62"/>
       <c r="AO28" s="63">
         <v>0.01</v>
       </c>
       <c r="AQ28" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AR28" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AS28" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AT28" s="42">
         <v>15</v>
       </c>
       <c r="AU28" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AW28" t="s">
         <v>8</v>
@@ -8010,13 +8016,13 @@
         <v>10</v>
       </c>
       <c r="AZ28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA28" t="s">
         <v>11</v>
       </c>
       <c r="BB28" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD28">
         <v>151</v>
@@ -8032,7 +8038,7 @@
         <v>41233</v>
       </c>
       <c r="BM28" s="66" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="BN28" s="67">
         <v>32.42868</v>
@@ -8041,30 +8047,35 @@
         <v>34.870280000000001</v>
       </c>
       <c r="BP28" s="42" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="BQ28" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="BR28" s="25"/>
       <c r="BW28">
         <v>6.5</v>
       </c>
       <c r="BX28" s="71" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="BY28" s="71">
         <v>4192.68</v>
       </c>
-      <c r="BZ28"/>
-      <c r="CA28"/>
-      <c r="CB28"/>
-      <c r="CC28"/>
-      <c r="CD28"/>
-      <c r="CE28"/>
-      <c r="CF28"/>
+      <c r="BZ28">
+        <v>39.5</v>
+      </c>
+      <c r="CA28">
+        <v>22.5</v>
+      </c>
+      <c r="CB28">
+        <v>201.655</v>
+      </c>
+      <c r="CC28">
+        <v>98.32</v>
+      </c>
     </row>
-    <row r="29" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8073,31 +8084,31 @@
         <v>27</v>
       </c>
       <c r="C29" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K29" s="30" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="L29" s="30" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="M29" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N29" s="30"/>
       <c r="O29" s="37">
@@ -8107,84 +8118,84 @@
         <v>52659</v>
       </c>
       <c r="Q29" s="54" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="R29" s="19" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="S29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T29" s="16" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="U29" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="16" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="X29" s="16" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="Y29" s="33">
         <v>9</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB29" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC29" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD29" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE29" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF29" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC29" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD29" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE29" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF29" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG29" s="1"/>
       <c r="AH29" s="59" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="AI29" s="59" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AJ29" s="59" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AK29" s="59" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="AL29" s="59"/>
       <c r="AM29" s="61" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AN29" s="62"/>
       <c r="AO29" s="63">
         <v>0.01</v>
       </c>
       <c r="AQ29" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AR29" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AS29" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AT29" s="42">
         <v>15</v>
       </c>
       <c r="AU29" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AW29" t="s">
         <v>8</v>
@@ -8196,13 +8207,13 @@
         <v>10</v>
       </c>
       <c r="AZ29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA29" t="s">
         <v>11</v>
       </c>
       <c r="BB29" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD29">
         <v>151</v>
@@ -8218,7 +8229,7 @@
         <v>41233</v>
       </c>
       <c r="BM29" s="66" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="BN29" s="67">
         <v>32.42868</v>
@@ -8227,36 +8238,41 @@
         <v>34.870280000000001</v>
       </c>
       <c r="BP29" s="42" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="BQ29" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="BR29" s="25"/>
       <c r="BW29">
         <v>6.5</v>
       </c>
       <c r="BX29" s="71" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="BY29" s="71">
         <v>4192.68</v>
       </c>
-      <c r="BZ29"/>
-      <c r="CA29"/>
-      <c r="CB29"/>
-      <c r="CC29"/>
-      <c r="CD29"/>
-      <c r="CE29"/>
-      <c r="CF29"/>
+      <c r="BZ29">
+        <v>39.5</v>
+      </c>
+      <c r="CA29">
+        <v>22.5</v>
+      </c>
+      <c r="CB29">
+        <v>201.655</v>
+      </c>
+      <c r="CC29">
+        <v>98.32</v>
+      </c>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:81" x14ac:dyDescent="0.2">
       <c r="AO30" s="13"/>
     </row>
-    <row r="31" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:81" x14ac:dyDescent="0.2">
       <c r="AO31" s="13"/>
     </row>
-    <row r="32" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:81" x14ac:dyDescent="0.2">
       <c r="AO32" s="13"/>
       <c r="BM32" s="66"/>
     </row>
@@ -8343,9 +8359,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -8363,24 +8389,14 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/metadata/excel/projects/unige/foram/metadata.xlsx
+++ b/metadata/excel/projects/unige/foram/metadata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="4960" windowWidth="47660" windowHeight="24240" tabRatio="500"/>
+    <workbookView xWindow="4780" yWindow="10840" windowWidth="47660" windowHeight="24240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="micans_v6_ex1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="412">
   <si>
     <t>Country</t>
   </si>
@@ -1276,6 +1276,24 @@
   </si>
   <si>
     <t>Luminescent Dissolved Oxygen [% Sat]</t>
+  </si>
+  <si>
+    <t>Sediments were grabbed from a boat in the vincinty of the desalination plants, and sterile spoons used for sampling. The standard Illumina Truseq PCR free kit protocol was used, and the Nano setting was chosen with the MiSeq regent kit V2.</t>
+  </si>
+  <si>
+    <t>PRJNA386776</t>
+  </si>
+  <si>
+    <t>marine sediment metagenome</t>
+  </si>
+  <si>
+    <t>temperate mediterranean sea biome</t>
+  </si>
+  <si>
+    <t>marine sub-littoral zone</t>
+  </si>
+  <si>
+    <t>shallow marine sediment</t>
   </si>
 </sst>
 </file>
@@ -2648,10 +2666,10 @@
   </sheetPr>
   <dimension ref="A1:CD51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BC1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="CD11" sqref="CD11"/>
+      <selection pane="bottomLeft" activeCell="BL8" sqref="BL8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2712,8 +2730,10 @@
     <col min="56" max="56" width="12.1640625" customWidth="1"/>
     <col min="57" max="57" width="13" customWidth="1"/>
     <col min="58" max="58" width="10.1640625" customWidth="1"/>
-    <col min="59" max="61" width="19.83203125" customWidth="1"/>
-    <col min="62" max="62" width="20.83203125" customWidth="1"/>
+    <col min="59" max="59" width="29.1640625" customWidth="1"/>
+    <col min="60" max="60" width="34.5" customWidth="1"/>
+    <col min="61" max="61" width="29" customWidth="1"/>
+    <col min="62" max="62" width="23.1640625" customWidth="1"/>
     <col min="63" max="63" width="8.6640625" customWidth="1"/>
     <col min="64" max="65" width="15.5" customWidth="1"/>
     <col min="66" max="66" width="13.6640625" style="11" customWidth="1"/>
@@ -3041,7 +3061,7 @@
     <row r="3" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <f t="shared" ref="A3:A29" si="0">COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BR3,"&lt;&gt;"&amp;"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="23">
         <v>1</v>
@@ -3191,10 +3211,18 @@
       <c r="BE3">
         <v>151</v>
       </c>
-      <c r="BG3" s="57"/>
-      <c r="BH3" s="57"/>
-      <c r="BI3" s="57"/>
-      <c r="BJ3" s="57"/>
+      <c r="BG3" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>411</v>
+      </c>
       <c r="BL3" s="65">
         <v>41226</v>
       </c>
@@ -3213,7 +3241,15 @@
       <c r="BQ3" t="s">
         <v>256</v>
       </c>
-      <c r="BR3" s="25"/>
+      <c r="BR3" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>407</v>
+      </c>
       <c r="BW3">
         <v>1.5</v>
       </c>
@@ -3239,7 +3275,7 @@
     <row r="4" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="23">
         <v>2</v>
@@ -3389,10 +3425,18 @@
       <c r="BE4">
         <v>151</v>
       </c>
-      <c r="BG4" s="57"/>
-      <c r="BH4" s="57"/>
-      <c r="BI4" s="57"/>
-      <c r="BJ4" s="57"/>
+      <c r="BG4" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>411</v>
+      </c>
       <c r="BL4" s="65">
         <v>41226</v>
       </c>
@@ -3411,7 +3455,15 @@
       <c r="BQ4" t="s">
         <v>256</v>
       </c>
-      <c r="BR4" s="25"/>
+      <c r="BR4" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>407</v>
+      </c>
       <c r="BW4">
         <v>1.5</v>
       </c>
@@ -3437,7 +3489,7 @@
     <row r="5" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="23">
         <v>3</v>
@@ -3587,10 +3639,18 @@
       <c r="BE5">
         <v>151</v>
       </c>
-      <c r="BG5" s="57"/>
-      <c r="BH5" s="57"/>
-      <c r="BI5" s="57"/>
-      <c r="BJ5" s="57"/>
+      <c r="BG5" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>411</v>
+      </c>
       <c r="BL5" s="65">
         <v>41226</v>
       </c>
@@ -3609,7 +3669,15 @@
       <c r="BQ5" t="s">
         <v>256</v>
       </c>
-      <c r="BR5" s="25"/>
+      <c r="BR5" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>407</v>
+      </c>
       <c r="BW5">
         <v>1.5</v>
       </c>
@@ -3635,7 +3703,7 @@
     <row r="6" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="23">
         <v>4</v>
@@ -3785,10 +3853,18 @@
       <c r="BE6">
         <v>151</v>
       </c>
-      <c r="BG6" s="57"/>
-      <c r="BH6" s="57"/>
-      <c r="BI6" s="57"/>
-      <c r="BJ6" s="57"/>
+      <c r="BG6" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>411</v>
+      </c>
       <c r="BL6" s="65">
         <v>41226</v>
       </c>
@@ -3807,7 +3883,15 @@
       <c r="BQ6" t="s">
         <v>255</v>
       </c>
-      <c r="BR6" s="25"/>
+      <c r="BR6" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>407</v>
+      </c>
       <c r="BW6">
         <v>10</v>
       </c>
@@ -3833,7 +3917,7 @@
     <row r="7" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="23">
         <v>5</v>
@@ -3983,10 +4067,18 @@
       <c r="BE7">
         <v>151</v>
       </c>
-      <c r="BG7" s="57"/>
-      <c r="BH7" s="57"/>
-      <c r="BI7" s="57"/>
-      <c r="BJ7" s="57"/>
+      <c r="BG7" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>411</v>
+      </c>
       <c r="BL7" s="65">
         <v>41226</v>
       </c>
@@ -4005,7 +4097,15 @@
       <c r="BQ7" t="s">
         <v>255</v>
       </c>
-      <c r="BR7" s="25"/>
+      <c r="BR7" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>407</v>
+      </c>
       <c r="BW7">
         <v>10</v>
       </c>
@@ -4031,7 +4131,7 @@
     <row r="8" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="23">
         <v>6</v>
@@ -4181,10 +4281,18 @@
       <c r="BE8">
         <v>151</v>
       </c>
-      <c r="BG8" s="57"/>
-      <c r="BH8" s="57"/>
-      <c r="BI8" s="57"/>
-      <c r="BJ8" s="57"/>
+      <c r="BG8" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>411</v>
+      </c>
       <c r="BL8" s="65">
         <v>41226</v>
       </c>
@@ -4203,7 +4311,15 @@
       <c r="BQ8" t="s">
         <v>255</v>
       </c>
-      <c r="BR8" s="25"/>
+      <c r="BR8" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>407</v>
+      </c>
       <c r="BW8">
         <v>10</v>
       </c>
@@ -4229,7 +4345,7 @@
     <row r="9" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="23">
         <v>7</v>
@@ -4375,10 +4491,18 @@
       <c r="BE9">
         <v>151</v>
       </c>
-      <c r="BG9" s="57"/>
-      <c r="BH9" s="57"/>
-      <c r="BI9" s="57"/>
-      <c r="BJ9" s="57"/>
+      <c r="BG9" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>411</v>
+      </c>
       <c r="BL9" s="65">
         <v>41226</v>
       </c>
@@ -4397,7 +4521,15 @@
       <c r="BQ9" t="s">
         <v>257</v>
       </c>
-      <c r="BR9" s="25"/>
+      <c r="BR9" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>407</v>
+      </c>
       <c r="BW9">
         <v>5</v>
       </c>
@@ -4423,7 +4555,7 @@
     <row r="10" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="23">
         <v>8</v>
@@ -4573,10 +4705,18 @@
       <c r="BE10">
         <v>151</v>
       </c>
-      <c r="BG10" s="57"/>
-      <c r="BH10" s="57"/>
-      <c r="BI10" s="57"/>
-      <c r="BJ10" s="57"/>
+      <c r="BG10" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>411</v>
+      </c>
       <c r="BL10" s="65">
         <v>41226</v>
       </c>
@@ -4595,7 +4735,15 @@
       <c r="BQ10" t="s">
         <v>257</v>
       </c>
-      <c r="BR10" s="25"/>
+      <c r="BR10" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>407</v>
+      </c>
       <c r="BW10">
         <v>5</v>
       </c>
@@ -4621,7 +4769,7 @@
     <row r="11" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="23">
         <v>9</v>
@@ -4771,10 +4919,18 @@
       <c r="BE11">
         <v>151</v>
       </c>
-      <c r="BG11" s="57"/>
-      <c r="BH11" s="57"/>
-      <c r="BI11" s="57"/>
-      <c r="BJ11" s="57"/>
+      <c r="BG11" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>411</v>
+      </c>
       <c r="BL11" s="65">
         <v>41226</v>
       </c>
@@ -4793,7 +4949,15 @@
       <c r="BQ11" t="s">
         <v>257</v>
       </c>
-      <c r="BR11" s="25"/>
+      <c r="BR11" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>407</v>
+      </c>
       <c r="BW11">
         <v>5</v>
       </c>
@@ -4819,7 +4983,7 @@
     <row r="12" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="23">
         <v>10</v>
@@ -4969,10 +5133,18 @@
       <c r="BE12">
         <v>151</v>
       </c>
-      <c r="BG12" s="57"/>
-      <c r="BH12" s="57"/>
-      <c r="BI12" s="57"/>
-      <c r="BJ12" s="57"/>
+      <c r="BG12" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>411</v>
+      </c>
       <c r="BL12" s="65">
         <v>41227</v>
       </c>
@@ -4991,7 +5163,15 @@
       <c r="BQ12" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="BR12" s="25"/>
+      <c r="BR12" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>407</v>
+      </c>
       <c r="BW12">
         <v>18</v>
       </c>
@@ -5017,7 +5197,7 @@
     <row r="13" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" s="23">
         <v>11</v>
@@ -5167,10 +5347,18 @@
       <c r="BE13">
         <v>151</v>
       </c>
-      <c r="BG13" s="57"/>
-      <c r="BH13" s="57"/>
-      <c r="BI13" s="57"/>
-      <c r="BJ13" s="57"/>
+      <c r="BG13" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>411</v>
+      </c>
       <c r="BL13" s="65">
         <v>41227</v>
       </c>
@@ -5189,7 +5377,15 @@
       <c r="BQ13" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="BR13" s="25"/>
+      <c r="BR13" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>407</v>
+      </c>
       <c r="BW13">
         <v>18</v>
       </c>
@@ -5215,7 +5411,7 @@
     <row r="14" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" s="23">
         <v>12</v>
@@ -5365,10 +5561,18 @@
       <c r="BE14">
         <v>151</v>
       </c>
-      <c r="BG14" s="57"/>
-      <c r="BH14" s="57"/>
-      <c r="BI14" s="57"/>
-      <c r="BJ14" s="57"/>
+      <c r="BG14" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>411</v>
+      </c>
       <c r="BL14" s="65">
         <v>41227</v>
       </c>
@@ -5387,7 +5591,15 @@
       <c r="BQ14" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="BR14" s="25"/>
+      <c r="BR14" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>407</v>
+      </c>
       <c r="BW14">
         <v>18</v>
       </c>
@@ -5413,7 +5625,7 @@
     <row r="15" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" s="23">
         <v>13</v>
@@ -5563,10 +5775,18 @@
       <c r="BE15">
         <v>151</v>
       </c>
-      <c r="BG15" s="57"/>
-      <c r="BH15" s="57"/>
-      <c r="BI15" s="57"/>
-      <c r="BJ15" s="57"/>
+      <c r="BG15" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>411</v>
+      </c>
       <c r="BL15" s="65">
         <v>41227</v>
       </c>
@@ -5585,7 +5805,15 @@
       <c r="BQ15" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="BR15" s="25"/>
+      <c r="BR15" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>407</v>
+      </c>
       <c r="BW15">
         <v>19</v>
       </c>
@@ -5611,7 +5839,7 @@
     <row r="16" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" s="23">
         <v>14</v>
@@ -5750,10 +5978,18 @@
       <c r="BE16">
         <v>151</v>
       </c>
-      <c r="BG16" s="57"/>
-      <c r="BH16" s="57"/>
-      <c r="BI16" s="57"/>
-      <c r="BJ16" s="57"/>
+      <c r="BG16" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>411</v>
+      </c>
       <c r="BL16" s="65">
         <v>41227</v>
       </c>
@@ -5772,7 +6008,15 @@
       <c r="BQ16" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="BR16" s="25"/>
+      <c r="BR16" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>407</v>
+      </c>
       <c r="BW16">
         <v>19</v>
       </c>
@@ -5798,7 +6042,7 @@
     <row r="17" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" s="23">
         <v>15</v>
@@ -5941,10 +6185,18 @@
       <c r="BE17">
         <v>151</v>
       </c>
-      <c r="BG17" s="57"/>
-      <c r="BH17" s="57"/>
-      <c r="BI17" s="57"/>
-      <c r="BJ17" s="57"/>
+      <c r="BG17" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>411</v>
+      </c>
       <c r="BL17" s="65">
         <v>41227</v>
       </c>
@@ -5963,7 +6215,15 @@
       <c r="BQ17" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="BR17" s="25"/>
+      <c r="BR17" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>407</v>
+      </c>
       <c r="BW17">
         <v>19</v>
       </c>
@@ -5989,7 +6249,7 @@
     <row r="18" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" s="23">
         <v>16</v>
@@ -6132,10 +6392,18 @@
       <c r="BE18">
         <v>151</v>
       </c>
-      <c r="BG18" s="57"/>
-      <c r="BH18" s="57"/>
-      <c r="BI18" s="57"/>
-      <c r="BJ18" s="57"/>
+      <c r="BG18" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>411</v>
+      </c>
       <c r="BL18" s="65">
         <v>41227</v>
       </c>
@@ -6154,7 +6422,15 @@
       <c r="BQ18" s="58" t="s">
         <v>259</v>
       </c>
-      <c r="BR18" s="25"/>
+      <c r="BR18" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>407</v>
+      </c>
       <c r="BW18">
         <v>18</v>
       </c>
@@ -6180,7 +6456,7 @@
     <row r="19" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" s="23">
         <v>17</v>
@@ -6319,10 +6595,18 @@
       <c r="BE19">
         <v>151</v>
       </c>
-      <c r="BG19" s="57"/>
-      <c r="BH19" s="57"/>
-      <c r="BI19" s="57"/>
-      <c r="BJ19" s="57"/>
+      <c r="BG19" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>411</v>
+      </c>
       <c r="BL19" s="65">
         <v>41227</v>
       </c>
@@ -6341,7 +6625,15 @@
       <c r="BQ19" t="s">
         <v>259</v>
       </c>
-      <c r="BR19" s="25"/>
+      <c r="BR19" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>407</v>
+      </c>
       <c r="BW19">
         <v>18</v>
       </c>
@@ -6367,7 +6659,7 @@
     <row r="20" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" s="23">
         <v>18</v>
@@ -6510,10 +6802,18 @@
       <c r="BE20">
         <v>151</v>
       </c>
-      <c r="BG20" s="57"/>
-      <c r="BH20" s="57"/>
-      <c r="BI20" s="57"/>
-      <c r="BJ20" s="57"/>
+      <c r="BG20" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>411</v>
+      </c>
       <c r="BL20" s="65">
         <v>41227</v>
       </c>
@@ -6532,7 +6832,15 @@
       <c r="BQ20" t="s">
         <v>259</v>
       </c>
-      <c r="BR20" s="25"/>
+      <c r="BR20" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>407</v>
+      </c>
       <c r="BW20">
         <v>18</v>
       </c>
@@ -6558,7 +6866,7 @@
     <row r="21" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" s="23">
         <v>19</v>
@@ -6697,10 +7005,18 @@
       <c r="BE21">
         <v>151</v>
       </c>
-      <c r="BG21" s="57"/>
-      <c r="BH21" s="57"/>
-      <c r="BI21" s="57"/>
-      <c r="BJ21" s="57"/>
+      <c r="BG21" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>411</v>
+      </c>
       <c r="BL21" s="65">
         <v>41233</v>
       </c>
@@ -6719,7 +7035,15 @@
       <c r="BQ21" s="58" t="s">
         <v>260</v>
       </c>
-      <c r="BR21" s="25"/>
+      <c r="BR21" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>407</v>
+      </c>
       <c r="BW21">
         <v>3.8</v>
       </c>
@@ -6745,7 +7069,7 @@
     <row r="22" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" s="23">
         <v>20</v>
@@ -6888,10 +7212,18 @@
       <c r="BE22">
         <v>151</v>
       </c>
-      <c r="BG22" s="57"/>
-      <c r="BH22" s="57"/>
-      <c r="BI22" s="57"/>
-      <c r="BJ22" s="57"/>
+      <c r="BG22" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>411</v>
+      </c>
       <c r="BL22" s="65">
         <v>41233</v>
       </c>
@@ -6910,7 +7242,15 @@
       <c r="BQ22" s="58" t="s">
         <v>260</v>
       </c>
-      <c r="BR22" s="25"/>
+      <c r="BR22" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS22" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT22" t="s">
+        <v>407</v>
+      </c>
       <c r="BW22">
         <v>3.8</v>
       </c>
@@ -6936,7 +7276,7 @@
     <row r="23" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" s="23">
         <v>21</v>
@@ -7075,10 +7415,18 @@
       <c r="BE23">
         <v>151</v>
       </c>
-      <c r="BG23" s="57"/>
-      <c r="BH23" s="57"/>
-      <c r="BI23" s="57"/>
-      <c r="BJ23" s="57"/>
+      <c r="BG23" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>411</v>
+      </c>
       <c r="BL23" s="65">
         <v>41233</v>
       </c>
@@ -7097,7 +7445,15 @@
       <c r="BQ23" s="58" t="s">
         <v>260</v>
       </c>
-      <c r="BR23" s="25"/>
+      <c r="BR23" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>407</v>
+      </c>
       <c r="BW23">
         <v>3.8</v>
       </c>
@@ -7123,7 +7479,7 @@
     <row r="24" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" s="23">
         <v>22</v>
@@ -7266,10 +7622,18 @@
       <c r="BE24">
         <v>151</v>
       </c>
-      <c r="BG24" s="57"/>
-      <c r="BH24" s="57"/>
-      <c r="BI24" s="57"/>
-      <c r="BJ24" s="57"/>
+      <c r="BG24" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>411</v>
+      </c>
       <c r="BL24" s="65">
         <v>41233</v>
       </c>
@@ -7288,7 +7652,15 @@
       <c r="BQ24" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="BR24" s="25"/>
+      <c r="BR24" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS24" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT24" t="s">
+        <v>407</v>
+      </c>
       <c r="BW24">
         <v>5.5</v>
       </c>
@@ -7314,7 +7686,7 @@
     <row r="25" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" s="23">
         <v>23</v>
@@ -7457,10 +7829,18 @@
       <c r="BE25">
         <v>151</v>
       </c>
-      <c r="BG25" s="57"/>
-      <c r="BH25" s="57"/>
-      <c r="BI25" s="57"/>
-      <c r="BJ25" s="57"/>
+      <c r="BG25" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>411</v>
+      </c>
       <c r="BL25" s="65">
         <v>41233</v>
       </c>
@@ -7479,7 +7859,15 @@
       <c r="BQ25" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="BR25" s="25"/>
+      <c r="BR25" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS25" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT25" t="s">
+        <v>407</v>
+      </c>
       <c r="BW25">
         <v>5.5</v>
       </c>
@@ -7505,7 +7893,7 @@
     <row r="26" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" s="23">
         <v>24</v>
@@ -7648,10 +8036,18 @@
       <c r="BE26">
         <v>151</v>
       </c>
-      <c r="BG26" s="57"/>
-      <c r="BH26" s="57"/>
-      <c r="BI26" s="57"/>
-      <c r="BJ26" s="57"/>
+      <c r="BG26" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>411</v>
+      </c>
       <c r="BL26" s="65">
         <v>41233</v>
       </c>
@@ -7670,7 +8066,15 @@
       <c r="BQ26" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="BR26" s="25"/>
+      <c r="BR26" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS26" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT26" t="s">
+        <v>407</v>
+      </c>
       <c r="BW26">
         <v>5.5</v>
       </c>
@@ -7696,7 +8100,7 @@
     <row r="27" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" s="23">
         <v>25</v>
@@ -7839,10 +8243,18 @@
       <c r="BE27">
         <v>151</v>
       </c>
-      <c r="BG27" s="57"/>
-      <c r="BH27" s="57"/>
-      <c r="BI27" s="57"/>
-      <c r="BJ27" s="57"/>
+      <c r="BG27" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>411</v>
+      </c>
       <c r="BL27" s="65">
         <v>41233</v>
       </c>
@@ -7861,7 +8273,15 @@
       <c r="BQ27" t="s">
         <v>261</v>
       </c>
-      <c r="BR27" s="25"/>
+      <c r="BR27" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS27" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>407</v>
+      </c>
       <c r="BW27">
         <v>6.5</v>
       </c>
@@ -7887,7 +8307,7 @@
     <row r="28" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" s="23">
         <v>26</v>
@@ -8030,10 +8450,18 @@
       <c r="BE28">
         <v>151</v>
       </c>
-      <c r="BG28" s="57"/>
-      <c r="BH28" s="57"/>
-      <c r="BI28" s="57"/>
-      <c r="BJ28" s="57"/>
+      <c r="BG28" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>411</v>
+      </c>
       <c r="BL28" s="65">
         <v>41233</v>
       </c>
@@ -8052,7 +8480,15 @@
       <c r="BQ28" t="s">
         <v>261</v>
       </c>
-      <c r="BR28" s="25"/>
+      <c r="BR28" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS28" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT28" t="s">
+        <v>407</v>
+      </c>
       <c r="BW28">
         <v>6.5</v>
       </c>
@@ -8078,7 +8514,7 @@
     <row r="29" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" s="23">
         <v>27</v>
@@ -8221,10 +8657,18 @@
       <c r="BE29">
         <v>151</v>
       </c>
-      <c r="BG29" s="57"/>
-      <c r="BH29" s="57"/>
-      <c r="BI29" s="57"/>
-      <c r="BJ29" s="57"/>
+      <c r="BG29" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>411</v>
+      </c>
       <c r="BL29" s="65">
         <v>41233</v>
       </c>
@@ -8243,7 +8687,15 @@
       <c r="BQ29" t="s">
         <v>261</v>
       </c>
-      <c r="BR29" s="25"/>
+      <c r="BR29" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS29" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT29" t="s">
+        <v>407</v>
+      </c>
       <c r="BW29">
         <v>6.5</v>
       </c>

--- a/metadata/excel/projects/unige/foram/metadata.xlsx
+++ b/metadata/excel/projects/unige/foram/metadata.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="10840" windowWidth="47660" windowHeight="24240" tabRatio="500"/>
+    <workbookView xWindow="1240" yWindow="2480" windowWidth="47660" windowHeight="24240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="micans_v6_ex1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="434">
   <si>
     <t>Country</t>
   </si>
@@ -1294,6 +1294,72 @@
   </si>
   <si>
     <t>shallow marine sediment</t>
+  </si>
+  <si>
+    <t>SAMN07139205</t>
+  </si>
+  <si>
+    <t>SAMN07139206</t>
+  </si>
+  <si>
+    <t>SAMN07139207</t>
+  </si>
+  <si>
+    <t>SAMN07139208</t>
+  </si>
+  <si>
+    <t>SAMN07139209</t>
+  </si>
+  <si>
+    <t>SAMN07139210</t>
+  </si>
+  <si>
+    <t>SAMN07139211</t>
+  </si>
+  <si>
+    <t>SAMN07139212</t>
+  </si>
+  <si>
+    <t>SAMN07139213</t>
+  </si>
+  <si>
+    <t>SAMN07139214</t>
+  </si>
+  <si>
+    <t>SAMN07139215</t>
+  </si>
+  <si>
+    <t>SAMN07139216</t>
+  </si>
+  <si>
+    <t>SAMN07139217</t>
+  </si>
+  <si>
+    <t>SAMN07139218</t>
+  </si>
+  <si>
+    <t>SAMN07139219</t>
+  </si>
+  <si>
+    <t>SAMN07139220</t>
+  </si>
+  <si>
+    <t>SAMN07139221</t>
+  </si>
+  <si>
+    <t>SAMN07139222</t>
+  </si>
+  <si>
+    <t>SAMN07139223</t>
+  </si>
+  <si>
+    <t>SAMN07139224</t>
+  </si>
+  <si>
+    <t>SAMN07139225</t>
+  </si>
+  <si>
+    <t>SAMN07139226</t>
   </si>
 </sst>
 </file>
@@ -2666,10 +2732,10 @@
   </sheetPr>
   <dimension ref="A1:CD51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BI1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="BL8" sqref="BL8"/>
+      <selection pane="bottomLeft" activeCell="BW7" sqref="BW7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2733,7 +2799,7 @@
     <col min="59" max="59" width="29.1640625" customWidth="1"/>
     <col min="60" max="60" width="34.5" customWidth="1"/>
     <col min="61" max="61" width="29" customWidth="1"/>
-    <col min="62" max="62" width="23.1640625" customWidth="1"/>
+    <col min="62" max="62" width="26.5" customWidth="1"/>
     <col min="63" max="63" width="8.6640625" customWidth="1"/>
     <col min="64" max="65" width="15.5" customWidth="1"/>
     <col min="66" max="66" width="13.6640625" style="11" customWidth="1"/>
@@ -3250,6 +3316,9 @@
       <c r="BT3" t="s">
         <v>407</v>
       </c>
+      <c r="BU3" t="s">
+        <v>412</v>
+      </c>
       <c r="BW3">
         <v>1.5</v>
       </c>
@@ -3464,6 +3533,9 @@
       <c r="BT4" t="s">
         <v>407</v>
       </c>
+      <c r="BU4" t="s">
+        <v>413</v>
+      </c>
       <c r="BW4">
         <v>1.5</v>
       </c>
@@ -3678,6 +3750,9 @@
       <c r="BT5" t="s">
         <v>407</v>
       </c>
+      <c r="BU5" t="s">
+        <v>414</v>
+      </c>
       <c r="BW5">
         <v>1.5</v>
       </c>
@@ -3892,6 +3967,9 @@
       <c r="BT6" t="s">
         <v>407</v>
       </c>
+      <c r="BU6" t="s">
+        <v>415</v>
+      </c>
       <c r="BW6">
         <v>10</v>
       </c>
@@ -4106,6 +4184,9 @@
       <c r="BT7" t="s">
         <v>407</v>
       </c>
+      <c r="BU7" t="s">
+        <v>416</v>
+      </c>
       <c r="BW7">
         <v>10</v>
       </c>
@@ -4320,6 +4401,9 @@
       <c r="BT8" t="s">
         <v>407</v>
       </c>
+      <c r="BU8" t="s">
+        <v>417</v>
+      </c>
       <c r="BW8">
         <v>10</v>
       </c>
@@ -4527,9 +4611,6 @@
       <c r="BS9" t="s">
         <v>46</v>
       </c>
-      <c r="BT9" t="s">
-        <v>407</v>
-      </c>
       <c r="BW9">
         <v>5</v>
       </c>
@@ -4744,6 +4825,9 @@
       <c r="BT10" t="s">
         <v>407</v>
       </c>
+      <c r="BU10" t="s">
+        <v>418</v>
+      </c>
       <c r="BW10">
         <v>5</v>
       </c>
@@ -4958,6 +5042,9 @@
       <c r="BT11" t="s">
         <v>407</v>
       </c>
+      <c r="BU11" t="s">
+        <v>419</v>
+      </c>
       <c r="BW11">
         <v>5</v>
       </c>
@@ -5172,6 +5259,9 @@
       <c r="BT12" t="s">
         <v>407</v>
       </c>
+      <c r="BU12" t="s">
+        <v>420</v>
+      </c>
       <c r="BW12">
         <v>18</v>
       </c>
@@ -5386,6 +5476,9 @@
       <c r="BT13" t="s">
         <v>407</v>
       </c>
+      <c r="BU13" t="s">
+        <v>421</v>
+      </c>
       <c r="BW13">
         <v>18</v>
       </c>
@@ -5600,6 +5693,9 @@
       <c r="BT14" t="s">
         <v>407</v>
       </c>
+      <c r="BU14" t="s">
+        <v>422</v>
+      </c>
       <c r="BW14">
         <v>18</v>
       </c>
@@ -5814,6 +5910,9 @@
       <c r="BT15" t="s">
         <v>407</v>
       </c>
+      <c r="BU15" t="s">
+        <v>423</v>
+      </c>
       <c r="BW15">
         <v>19</v>
       </c>
@@ -6014,9 +6113,6 @@
       <c r="BS16" t="s">
         <v>46</v>
       </c>
-      <c r="BT16" t="s">
-        <v>407</v>
-      </c>
       <c r="BW16">
         <v>19</v>
       </c>
@@ -6224,6 +6320,9 @@
       <c r="BT17" t="s">
         <v>407</v>
       </c>
+      <c r="BU17" t="s">
+        <v>424</v>
+      </c>
       <c r="BW17">
         <v>19</v>
       </c>
@@ -6431,6 +6530,9 @@
       <c r="BT18" t="s">
         <v>407</v>
       </c>
+      <c r="BU18" t="s">
+        <v>425</v>
+      </c>
       <c r="BW18">
         <v>18</v>
       </c>
@@ -6631,9 +6733,6 @@
       <c r="BS19" t="s">
         <v>46</v>
       </c>
-      <c r="BT19" t="s">
-        <v>407</v>
-      </c>
       <c r="BW19">
         <v>18</v>
       </c>
@@ -6841,6 +6940,9 @@
       <c r="BT20" t="s">
         <v>407</v>
       </c>
+      <c r="BU20" t="s">
+        <v>426</v>
+      </c>
       <c r="BW20">
         <v>18</v>
       </c>
@@ -7041,9 +7143,6 @@
       <c r="BS21" t="s">
         <v>46</v>
       </c>
-      <c r="BT21" t="s">
-        <v>407</v>
-      </c>
       <c r="BW21">
         <v>3.8</v>
       </c>
@@ -7251,6 +7350,9 @@
       <c r="BT22" t="s">
         <v>407</v>
       </c>
+      <c r="BU22" t="s">
+        <v>427</v>
+      </c>
       <c r="BW22">
         <v>3.8</v>
       </c>
@@ -7451,9 +7553,6 @@
       <c r="BS23" t="s">
         <v>46</v>
       </c>
-      <c r="BT23" t="s">
-        <v>407</v>
-      </c>
       <c r="BW23">
         <v>3.8</v>
       </c>
@@ -7661,6 +7760,9 @@
       <c r="BT24" t="s">
         <v>407</v>
       </c>
+      <c r="BU24" t="s">
+        <v>428</v>
+      </c>
       <c r="BW24">
         <v>5.5</v>
       </c>
@@ -7868,6 +7970,9 @@
       <c r="BT25" t="s">
         <v>407</v>
       </c>
+      <c r="BU25" t="s">
+        <v>429</v>
+      </c>
       <c r="BW25">
         <v>5.5</v>
       </c>
@@ -8075,6 +8180,9 @@
       <c r="BT26" t="s">
         <v>407</v>
       </c>
+      <c r="BU26" t="s">
+        <v>430</v>
+      </c>
       <c r="BW26">
         <v>5.5</v>
       </c>
@@ -8282,6 +8390,9 @@
       <c r="BT27" t="s">
         <v>407</v>
       </c>
+      <c r="BU27" t="s">
+        <v>431</v>
+      </c>
       <c r="BW27">
         <v>6.5</v>
       </c>
@@ -8489,6 +8600,9 @@
       <c r="BT28" t="s">
         <v>407</v>
       </c>
+      <c r="BU28" t="s">
+        <v>432</v>
+      </c>
       <c r="BW28">
         <v>6.5</v>
       </c>
@@ -8695,6 +8809,9 @@
       </c>
       <c r="BT29" t="s">
         <v>407</v>
+      </c>
+      <c r="BU29" t="s">
+        <v>433</v>
       </c>
       <c r="BW29">
         <v>6.5</v>
@@ -8811,19 +8928,9 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -8841,14 +8948,24 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/metadata/excel/projects/unige/foram/metadata.xlsx
+++ b/metadata/excel/projects/unige/foram/metadata.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="2480" windowWidth="47660" windowHeight="24240" tabRatio="500"/>
+    <workbookView xWindow="3360" yWindow="3620" windowWidth="47660" windowHeight="24240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="micans_v6_ex1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="460">
   <si>
     <t>Country</t>
   </si>
@@ -1360,6 +1360,84 @@
   </si>
   <si>
     <t>SAMN07139226</t>
+  </si>
+  <si>
+    <t>Label (less than 10 characters)</t>
+  </si>
+  <si>
+    <t>AS prox 1</t>
+  </si>
+  <si>
+    <t>AS prox 2</t>
+  </si>
+  <si>
+    <t>AS prox 3</t>
+  </si>
+  <si>
+    <t>AS mid 1</t>
+  </si>
+  <si>
+    <t>AS mid 2</t>
+  </si>
+  <si>
+    <t>AS mid 3</t>
+  </si>
+  <si>
+    <t>AS dist 1</t>
+  </si>
+  <si>
+    <t>SO prox 1</t>
+  </si>
+  <si>
+    <t>SO prox 2</t>
+  </si>
+  <si>
+    <t>SO prox 3</t>
+  </si>
+  <si>
+    <t>SO mid 1</t>
+  </si>
+  <si>
+    <t>SO mid 2</t>
+  </si>
+  <si>
+    <t>SO mid 3</t>
+  </si>
+  <si>
+    <t>SO dist 1</t>
+  </si>
+  <si>
+    <t>SO dist 2</t>
+  </si>
+  <si>
+    <t>SO dist 3</t>
+  </si>
+  <si>
+    <t>HA prox 1</t>
+  </si>
+  <si>
+    <t>HA prox 2</t>
+  </si>
+  <si>
+    <t>HA prox 3</t>
+  </si>
+  <si>
+    <t>HA mid 1</t>
+  </si>
+  <si>
+    <t>HA mid 2</t>
+  </si>
+  <si>
+    <t>HA mid 3</t>
+  </si>
+  <si>
+    <t>HA dist 1</t>
+  </si>
+  <si>
+    <t>HA dist 2</t>
+  </si>
+  <si>
+    <t>HA dist 3</t>
   </si>
 </sst>
 </file>
@@ -2730,12 +2808,12 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CD51"/>
+  <dimension ref="A1:CE51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="BW7" sqref="BW7"/>
+      <selection pane="bottomLeft" activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2763,65 +2841,66 @@
     <col min="23" max="23" width="13.83203125" style="16" customWidth="1"/>
     <col min="24" max="24" width="13.1640625" style="16" customWidth="1"/>
     <col min="25" max="25" width="13.5" style="33" customWidth="1"/>
-    <col min="26" max="26" width="9.83203125" customWidth="1"/>
-    <col min="27" max="27" width="25.5" style="33" customWidth="1"/>
-    <col min="28" max="28" width="20.1640625" style="16" customWidth="1"/>
-    <col min="29" max="29" width="22" style="19" customWidth="1"/>
-    <col min="30" max="30" width="17.83203125" style="33" customWidth="1"/>
-    <col min="31" max="31" width="21.5" style="16" customWidth="1"/>
-    <col min="32" max="32" width="27.6640625" style="20" customWidth="1"/>
-    <col min="33" max="33" width="9.83203125" customWidth="1"/>
-    <col min="34" max="34" width="11" customWidth="1"/>
-    <col min="35" max="35" width="13.5" style="2" customWidth="1"/>
-    <col min="36" max="36" width="9.1640625" customWidth="1"/>
-    <col min="37" max="37" width="14.33203125" style="2" customWidth="1"/>
-    <col min="38" max="38" width="15.83203125" style="2" customWidth="1"/>
-    <col min="39" max="39" width="8.5" customWidth="1"/>
-    <col min="40" max="40" width="10.33203125" style="15" customWidth="1"/>
-    <col min="41" max="41" width="10.33203125" customWidth="1"/>
-    <col min="42" max="42" width="11.5" customWidth="1"/>
-    <col min="43" max="43" width="16.5" customWidth="1"/>
-    <col min="44" max="44" width="12.1640625" style="42" customWidth="1"/>
-    <col min="45" max="45" width="32.83203125" style="1" customWidth="1"/>
-    <col min="46" max="46" width="12.83203125" style="42" customWidth="1"/>
-    <col min="47" max="47" width="35.6640625" style="1" customWidth="1"/>
-    <col min="48" max="48" width="10.1640625" customWidth="1"/>
-    <col min="49" max="49" width="12.5" customWidth="1"/>
-    <col min="50" max="50" width="15" customWidth="1"/>
-    <col min="51" max="51" width="10.83203125" customWidth="1"/>
-    <col min="52" max="52" width="14" customWidth="1"/>
-    <col min="53" max="53" width="13.1640625" customWidth="1"/>
-    <col min="54" max="54" width="15.6640625" customWidth="1"/>
-    <col min="55" max="55" width="11.6640625" customWidth="1"/>
-    <col min="56" max="56" width="12.1640625" customWidth="1"/>
-    <col min="57" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="10.1640625" customWidth="1"/>
-    <col min="59" max="59" width="29.1640625" customWidth="1"/>
-    <col min="60" max="60" width="34.5" customWidth="1"/>
-    <col min="61" max="61" width="29" customWidth="1"/>
-    <col min="62" max="62" width="26.5" customWidth="1"/>
-    <col min="63" max="63" width="8.6640625" customWidth="1"/>
-    <col min="64" max="65" width="15.5" customWidth="1"/>
-    <col min="66" max="66" width="13.6640625" style="11" customWidth="1"/>
-    <col min="67" max="67" width="13.1640625" style="11" customWidth="1"/>
-    <col min="68" max="68" width="13.1640625" style="68" customWidth="1"/>
-    <col min="69" max="69" width="28" style="16" customWidth="1"/>
-    <col min="70" max="70" width="31.33203125" style="16" customWidth="1"/>
-    <col min="71" max="71" width="9" customWidth="1"/>
-    <col min="72" max="72" width="16.5" customWidth="1"/>
-    <col min="73" max="73" width="16" customWidth="1"/>
-    <col min="74" max="74" width="9.5" customWidth="1"/>
-    <col min="75" max="75" width="11" style="22" customWidth="1"/>
-    <col min="76" max="76" width="11" style="72" customWidth="1"/>
-    <col min="77" max="77" width="13" style="72" customWidth="1"/>
-    <col min="78" max="78" width="11.6640625" style="22" customWidth="1"/>
-    <col min="79" max="79" width="12.6640625" style="22" customWidth="1"/>
-    <col min="80" max="80" width="13.5" style="22" customWidth="1"/>
-    <col min="81" max="81" width="20.83203125" style="22" customWidth="1"/>
-    <col min="82" max="82" width="9.6640625" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" style="33" customWidth="1"/>
+    <col min="27" max="27" width="9.83203125" customWidth="1"/>
+    <col min="28" max="28" width="25.5" style="33" customWidth="1"/>
+    <col min="29" max="29" width="20.1640625" style="16" customWidth="1"/>
+    <col min="30" max="30" width="22" style="19" customWidth="1"/>
+    <col min="31" max="31" width="17.83203125" style="33" customWidth="1"/>
+    <col min="32" max="32" width="21.5" style="16" customWidth="1"/>
+    <col min="33" max="33" width="27.6640625" style="20" customWidth="1"/>
+    <col min="34" max="34" width="9.83203125" customWidth="1"/>
+    <col min="35" max="35" width="11" customWidth="1"/>
+    <col min="36" max="36" width="13.5" style="2" customWidth="1"/>
+    <col min="37" max="37" width="9.1640625" customWidth="1"/>
+    <col min="38" max="38" width="14.33203125" style="2" customWidth="1"/>
+    <col min="39" max="39" width="15.83203125" style="2" customWidth="1"/>
+    <col min="40" max="40" width="8.5" customWidth="1"/>
+    <col min="41" max="41" width="10.33203125" style="15" customWidth="1"/>
+    <col min="42" max="42" width="10.33203125" customWidth="1"/>
+    <col min="43" max="43" width="11.5" customWidth="1"/>
+    <col min="44" max="44" width="16.5" customWidth="1"/>
+    <col min="45" max="45" width="12.1640625" style="42" customWidth="1"/>
+    <col min="46" max="46" width="32.83203125" style="1" customWidth="1"/>
+    <col min="47" max="47" width="12.83203125" style="42" customWidth="1"/>
+    <col min="48" max="48" width="35.6640625" style="1" customWidth="1"/>
+    <col min="49" max="49" width="10.1640625" customWidth="1"/>
+    <col min="50" max="50" width="12.5" customWidth="1"/>
+    <col min="51" max="51" width="15" customWidth="1"/>
+    <col min="52" max="52" width="10.83203125" customWidth="1"/>
+    <col min="53" max="53" width="14" customWidth="1"/>
+    <col min="54" max="54" width="13.1640625" customWidth="1"/>
+    <col min="55" max="55" width="15.6640625" customWidth="1"/>
+    <col min="56" max="56" width="11.6640625" customWidth="1"/>
+    <col min="57" max="57" width="12.1640625" customWidth="1"/>
+    <col min="58" max="58" width="13" customWidth="1"/>
+    <col min="59" max="59" width="10.1640625" customWidth="1"/>
+    <col min="60" max="60" width="29.1640625" customWidth="1"/>
+    <col min="61" max="61" width="34.5" customWidth="1"/>
+    <col min="62" max="62" width="29" customWidth="1"/>
+    <col min="63" max="63" width="26.5" customWidth="1"/>
+    <col min="64" max="64" width="8.6640625" customWidth="1"/>
+    <col min="65" max="66" width="15.5" customWidth="1"/>
+    <col min="67" max="67" width="13.6640625" style="11" customWidth="1"/>
+    <col min="68" max="68" width="13.1640625" style="11" customWidth="1"/>
+    <col min="69" max="69" width="13.1640625" style="68" customWidth="1"/>
+    <col min="70" max="70" width="28" style="16" customWidth="1"/>
+    <col min="71" max="71" width="31.33203125" style="16" customWidth="1"/>
+    <col min="72" max="72" width="9" customWidth="1"/>
+    <col min="73" max="73" width="16.5" customWidth="1"/>
+    <col min="74" max="74" width="16" customWidth="1"/>
+    <col min="75" max="75" width="9.5" customWidth="1"/>
+    <col min="76" max="76" width="11" style="22" customWidth="1"/>
+    <col min="77" max="77" width="11" style="72" customWidth="1"/>
+    <col min="78" max="78" width="13" style="72" customWidth="1"/>
+    <col min="79" max="79" width="11.6640625" style="22" customWidth="1"/>
+    <col min="80" max="80" width="12.6640625" style="22" customWidth="1"/>
+    <col min="81" max="81" width="13.5" style="22" customWidth="1"/>
+    <col min="82" max="82" width="20.83203125" style="22" customWidth="1"/>
+    <col min="83" max="83" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
@@ -2845,26 +2924,26 @@
       <c r="W1" s="17"/>
       <c r="X1" s="17"/>
       <c r="Y1" s="34"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="5"/>
+      <c r="Z1" s="34"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="3"/>
       <c r="AL1" s="5"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="3"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="7"/>
-      <c r="AW1" s="3"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="3"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="7"/>
       <c r="AX1" s="3"/>
       <c r="AY1" s="3"/>
       <c r="AZ1" s="3"/>
@@ -2872,37 +2951,38 @@
       <c r="BB1" s="3"/>
       <c r="BC1" s="3"/>
       <c r="BD1" s="3"/>
-      <c r="BE1" s="10"/>
-      <c r="BG1" s="73" t="s">
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="10"/>
+      <c r="BH1" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="BH1" s="73"/>
       <c r="BI1" s="73"/>
       <c r="BJ1" s="73"/>
-      <c r="BL1" s="73" t="s">
+      <c r="BK1" s="73"/>
+      <c r="BM1" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="BM1" s="73"/>
       <c r="BN1" s="73"/>
       <c r="BO1" s="73"/>
       <c r="BP1" s="73"/>
       <c r="BQ1" s="73"/>
       <c r="BR1" s="73"/>
-      <c r="BT1" s="73" t="s">
+      <c r="BS1" s="73"/>
+      <c r="BU1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="BU1" s="73"/>
-      <c r="BW1" s="8" t="s">
+      <c r="BV1" s="73"/>
+      <c r="BX1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="BX1" s="69"/>
       <c r="BY1" s="69"/>
-      <c r="BZ1" s="21"/>
+      <c r="BZ1" s="69"/>
       <c r="CA1" s="21"/>
       <c r="CB1" s="21"/>
       <c r="CC1" s="21"/>
+      <c r="CD1" s="21"/>
     </row>
-    <row r="2" spans="1:82" s="53" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:83" s="53" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>46</v>
       </c>
@@ -2970,163 +3050,166 @@
       <c r="Y2" s="43" t="s">
         <v>395</v>
       </c>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="43" t="s">
+      <c r="Z2" s="43" t="s">
+        <v>434</v>
+      </c>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="AB2" s="43" t="s">
+      <c r="AC2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="43" t="s">
+      <c r="AD2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="AD2" s="43" t="s">
+      <c r="AE2" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="AE2" s="43" t="s">
+      <c r="AF2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="AF2" s="43" t="s">
+      <c r="AG2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="43" t="s">
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="AI2" s="43" t="s">
+      <c r="AJ2" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="AJ2" s="43" t="s">
+      <c r="AK2" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="AK2" s="43" t="s">
+      <c r="AL2" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="43" t="s">
+      <c r="AM2" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="AM2" s="43" t="s">
+      <c r="AN2" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="AN2" s="47" t="s">
+      <c r="AO2" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="AO2" s="43" t="s">
+      <c r="AP2" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AP2" s="45"/>
-      <c r="AQ2" s="43" t="s">
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="AR2" s="43" t="s">
+      <c r="AS2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AS2" s="43" t="s">
+      <c r="AT2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AT2" s="43" t="s">
+      <c r="AU2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AU2" s="43" t="s">
+      <c r="AV2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="43" t="s">
+      <c r="AW2" s="48"/>
+      <c r="AX2" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="AX2" s="43" t="s">
+      <c r="AY2" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="AY2" s="43" t="s">
+      <c r="AZ2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AZ2" s="43" t="s">
+      <c r="BA2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="BA2" s="43" t="s">
+      <c r="BB2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="BB2" s="43" t="s">
+      <c r="BC2" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="BC2" s="43" t="s">
+      <c r="BD2" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="BD2" s="43" t="s">
+      <c r="BE2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="BE2" s="43" t="s">
+      <c r="BF2" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="BF2" s="48"/>
-      <c r="BG2" s="49" t="s">
+      <c r="BG2" s="48"/>
+      <c r="BH2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="BH2" s="49" t="s">
+      <c r="BI2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="BI2" s="49" t="s">
+      <c r="BJ2" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="BJ2" s="49" t="s">
+      <c r="BK2" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="BK2" s="48"/>
-      <c r="BL2" s="50" t="s">
+      <c r="BL2" s="48"/>
+      <c r="BM2" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="BM2" s="50" t="s">
+      <c r="BN2" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="BN2" s="50" t="s">
+      <c r="BO2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="BO2" s="50" t="s">
+      <c r="BP2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="BP2" s="50" t="s">
+      <c r="BQ2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="BQ2" s="50" t="s">
+      <c r="BR2" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="BR2" s="50" t="s">
+      <c r="BS2" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="BS2" s="48"/>
-      <c r="BT2" s="51" t="s">
+      <c r="BT2" s="48"/>
+      <c r="BU2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="BU2" s="51" t="s">
+      <c r="BV2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="BV2" s="48"/>
-      <c r="BW2" s="52" t="s">
+      <c r="BW2" s="48"/>
+      <c r="BX2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="BX2" s="52" t="s">
+      <c r="BY2" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="BY2" s="52" t="s">
+      <c r="BZ2" s="52" t="s">
         <v>402</v>
       </c>
-      <c r="BZ2" s="52" t="s">
+      <c r="CA2" s="52" t="s">
         <v>403</v>
       </c>
-      <c r="CA2" s="52" t="s">
+      <c r="CB2" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="CB2" s="52" t="s">
+      <c r="CC2" s="52" t="s">
         <v>404</v>
       </c>
-      <c r="CC2" s="52" t="s">
+      <c r="CD2" s="52" t="s">
         <v>405</v>
       </c>
-      <c r="CD2" s="48"/>
+      <c r="CE2" s="48"/>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
-        <f t="shared" ref="A3:A29" si="0">COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BR3,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BS3,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B3" s="23">
@@ -3193,157 +3276,160 @@
       <c r="Y3" s="33">
         <v>1</v>
       </c>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="33" t="s">
+      <c r="Z3" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB3" s="16" t="s">
+      <c r="AC3" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC3" s="56" t="s">
+      <c r="AD3" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD3" s="33" t="s">
+      <c r="AE3" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE3" s="16" t="s">
+      <c r="AF3" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF3" s="56" t="s">
+      <c r="AG3" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH3" s="59" t="s">
+      <c r="AH3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI3" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="AI3" s="59" t="s">
+      <c r="AJ3" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="AJ3" s="59" t="s">
+      <c r="AK3" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="AK3" s="59" t="s">
+      <c r="AL3" s="59" t="s">
         <v>323</v>
       </c>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="61" t="s">
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="63">
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="63">
         <v>0.01</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AR3" t="s">
         <v>294</v>
       </c>
-      <c r="AR3" s="42" t="s">
+      <c r="AS3" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AT3" s="42">
+      <c r="AU3" s="42">
         <v>15</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AV3" t="s">
-        <v>46</v>
-      </c>
       <c r="AW3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX3" t="s">
         <v>8</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>9</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>10</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
         <v>64</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
         <v>11</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BC3" t="s">
         <v>70</v>
-      </c>
-      <c r="BD3">
-        <v>151</v>
       </c>
       <c r="BE3">
         <v>151</v>
       </c>
-      <c r="BG3" s="57" t="s">
+      <c r="BF3">
+        <v>151</v>
+      </c>
+      <c r="BH3" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BI3" t="s">
         <v>409</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BJ3" t="s">
         <v>410</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BK3" t="s">
         <v>411</v>
       </c>
-      <c r="BL3" s="65">
+      <c r="BM3" s="65">
         <v>41226</v>
       </c>
-      <c r="BM3" s="66" t="s">
+      <c r="BN3" s="66" t="s">
         <v>242</v>
       </c>
-      <c r="BN3" s="67">
+      <c r="BO3" s="67">
         <v>31.63212</v>
       </c>
-      <c r="BO3" s="67">
+      <c r="BP3" s="67">
         <v>34.5167</v>
       </c>
-      <c r="BP3" s="42" t="s">
+      <c r="BQ3" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="BQ3" t="s">
+      <c r="BR3" t="s">
         <v>256</v>
       </c>
-      <c r="BR3" s="25" t="s">
+      <c r="BS3" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="BS3" t="s">
-        <v>46</v>
-      </c>
       <c r="BT3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU3" t="s">
         <v>407</v>
       </c>
-      <c r="BU3" t="s">
+      <c r="BV3" t="s">
         <v>412</v>
       </c>
-      <c r="BW3">
+      <c r="BX3">
         <v>1.5</v>
       </c>
-      <c r="BX3" s="42" t="s">
+      <c r="BY3" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="BY3" s="42">
+      <c r="BZ3" s="42">
         <v>0</v>
       </c>
-      <c r="BZ3">
+      <c r="CA3">
         <v>42.3</v>
       </c>
-      <c r="CA3">
+      <c r="CB3">
         <v>31.81</v>
       </c>
-      <c r="CB3">
+      <c r="CC3">
         <v>584.20399999999995</v>
       </c>
-      <c r="CC3">
+      <c r="CD3">
         <v>114.9</v>
       </c>
     </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D4,"&lt;&gt;"&amp;"")+COUNTIF(BS4,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B4" s="23">
@@ -3410,157 +3496,160 @@
       <c r="Y4" s="33">
         <v>1</v>
       </c>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="33" t="s">
+      <c r="Z4" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB4" s="16" t="s">
+      <c r="AC4" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC4" s="56" t="s">
+      <c r="AD4" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD4" s="33" t="s">
+      <c r="AE4" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE4" s="16" t="s">
+      <c r="AF4" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF4" s="56" t="s">
+      <c r="AG4" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH4" s="59" t="s">
+      <c r="AH4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI4" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="AI4" s="59" t="s">
+      <c r="AJ4" s="59" t="s">
         <v>298</v>
       </c>
-      <c r="AJ4" s="59" t="s">
+      <c r="AK4" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="AK4" s="59" t="s">
+      <c r="AL4" s="59" t="s">
         <v>324</v>
       </c>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="61" t="s">
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="AN4" s="62"/>
-      <c r="AO4" s="63">
+      <c r="AO4" s="62"/>
+      <c r="AP4" s="63">
         <v>0.01</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AR4" t="s">
         <v>294</v>
       </c>
-      <c r="AR4" s="42" t="s">
+      <c r="AS4" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="AS4" s="1" t="s">
+      <c r="AT4" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AT4" s="42">
+      <c r="AU4" s="42">
         <v>15</v>
       </c>
-      <c r="AU4" s="1" t="s">
+      <c r="AV4" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AV4" t="s">
-        <v>46</v>
-      </c>
       <c r="AW4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX4" t="s">
         <v>8</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" t="s">
         <v>9</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>10</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>64</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
         <v>11</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
         <v>70</v>
-      </c>
-      <c r="BD4">
-        <v>151</v>
       </c>
       <c r="BE4">
         <v>151</v>
       </c>
-      <c r="BG4" s="57" t="s">
+      <c r="BF4">
+        <v>151</v>
+      </c>
+      <c r="BH4" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BI4" t="s">
         <v>409</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BJ4" t="s">
         <v>410</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BK4" t="s">
         <v>411</v>
       </c>
-      <c r="BL4" s="65">
+      <c r="BM4" s="65">
         <v>41226</v>
       </c>
-      <c r="BM4" s="66" t="s">
+      <c r="BN4" s="66" t="s">
         <v>242</v>
       </c>
-      <c r="BN4" s="67">
+      <c r="BO4" s="67">
         <v>31.63212</v>
       </c>
-      <c r="BO4" s="67">
+      <c r="BP4" s="67">
         <v>34.5167</v>
       </c>
-      <c r="BP4" s="42" t="s">
+      <c r="BQ4" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="BQ4" t="s">
+      <c r="BR4" t="s">
         <v>256</v>
       </c>
-      <c r="BR4" s="25" t="s">
+      <c r="BS4" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="BS4" t="s">
-        <v>46</v>
-      </c>
       <c r="BT4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU4" t="s">
         <v>407</v>
       </c>
-      <c r="BU4" t="s">
+      <c r="BV4" t="s">
         <v>413</v>
       </c>
-      <c r="BW4">
+      <c r="BX4">
         <v>1.5</v>
       </c>
-      <c r="BX4" s="42" t="s">
+      <c r="BY4" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="BY4" s="42">
+      <c r="BZ4" s="42">
         <v>0</v>
       </c>
-      <c r="BZ4">
+      <c r="CA4">
         <v>42.3</v>
       </c>
-      <c r="CA4">
+      <c r="CB4">
         <v>31.81</v>
       </c>
-      <c r="CB4">
+      <c r="CC4">
         <v>584.20399999999995</v>
       </c>
-      <c r="CC4">
+      <c r="CD4">
         <v>114.9</v>
       </c>
     </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D5,"&lt;&gt;"&amp;"")+COUNTIF(BS5,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B5" s="23">
@@ -3627,157 +3716,160 @@
       <c r="Y5" s="33">
         <v>1</v>
       </c>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="33" t="s">
+      <c r="Z5" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB5" s="16" t="s">
+      <c r="AC5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC5" s="56" t="s">
+      <c r="AD5" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD5" s="33" t="s">
+      <c r="AE5" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE5" s="16" t="s">
+      <c r="AF5" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF5" s="56" t="s">
+      <c r="AG5" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH5" s="59" t="s">
+      <c r="AH5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI5" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="AI5" s="59" t="s">
+      <c r="AJ5" s="59" t="s">
         <v>299</v>
       </c>
-      <c r="AJ5" s="59" t="s">
+      <c r="AK5" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="AK5" s="59" t="s">
+      <c r="AL5" s="59" t="s">
         <v>325</v>
       </c>
-      <c r="AL5" s="59"/>
-      <c r="AM5" s="61" t="s">
+      <c r="AM5" s="59"/>
+      <c r="AN5" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="AN5" s="64"/>
-      <c r="AO5" s="63">
+      <c r="AO5" s="64"/>
+      <c r="AP5" s="63">
         <v>0.01</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AR5" t="s">
         <v>294</v>
       </c>
-      <c r="AR5" s="42" t="s">
+      <c r="AS5" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="AS5" s="1" t="s">
+      <c r="AT5" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AT5" s="42">
+      <c r="AU5" s="42">
         <v>15</v>
       </c>
-      <c r="AU5" s="1" t="s">
+      <c r="AV5" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AV5" t="s">
-        <v>46</v>
-      </c>
       <c r="AW5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX5" t="s">
         <v>8</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AY5" t="s">
         <v>9</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AZ5" t="s">
         <v>10</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="BA5" t="s">
         <v>64</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BB5" t="s">
         <v>11</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BC5" t="s">
         <v>70</v>
-      </c>
-      <c r="BD5">
-        <v>151</v>
       </c>
       <c r="BE5">
         <v>151</v>
       </c>
-      <c r="BG5" s="57" t="s">
+      <c r="BF5">
+        <v>151</v>
+      </c>
+      <c r="BH5" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BI5" t="s">
         <v>409</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BJ5" t="s">
         <v>410</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BK5" t="s">
         <v>411</v>
       </c>
-      <c r="BL5" s="65">
+      <c r="BM5" s="65">
         <v>41226</v>
       </c>
-      <c r="BM5" s="66" t="s">
+      <c r="BN5" s="66" t="s">
         <v>242</v>
       </c>
-      <c r="BN5" s="67">
+      <c r="BO5" s="67">
         <v>31.63212</v>
       </c>
-      <c r="BO5" s="67">
+      <c r="BP5" s="67">
         <v>34.5167</v>
       </c>
-      <c r="BP5" s="42" t="s">
+      <c r="BQ5" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="BQ5" t="s">
+      <c r="BR5" t="s">
         <v>256</v>
       </c>
-      <c r="BR5" s="25" t="s">
+      <c r="BS5" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="BS5" t="s">
-        <v>46</v>
-      </c>
       <c r="BT5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU5" t="s">
         <v>407</v>
       </c>
-      <c r="BU5" t="s">
+      <c r="BV5" t="s">
         <v>414</v>
       </c>
-      <c r="BW5">
+      <c r="BX5">
         <v>1.5</v>
       </c>
-      <c r="BX5" s="42" t="s">
+      <c r="BY5" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="BY5" s="42">
+      <c r="BZ5" s="42">
         <v>0</v>
       </c>
-      <c r="BZ5">
+      <c r="CA5">
         <v>42.3</v>
       </c>
-      <c r="CA5">
+      <c r="CB5">
         <v>31.81</v>
       </c>
-      <c r="CB5">
+      <c r="CC5">
         <v>584.20399999999995</v>
       </c>
-      <c r="CC5">
+      <c r="CD5">
         <v>114.9</v>
       </c>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D6,"&lt;&gt;"&amp;"")+COUNTIF(BS6,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B6" s="23">
@@ -3844,157 +3936,160 @@
       <c r="Y6" s="33">
         <v>2</v>
       </c>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="33" t="s">
+      <c r="Z6" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB6" s="16" t="s">
+      <c r="AC6" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC6" s="56" t="s">
+      <c r="AD6" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD6" s="33" t="s">
+      <c r="AE6" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE6" s="16" t="s">
+      <c r="AF6" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF6" s="56" t="s">
+      <c r="AG6" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH6" s="59" t="s">
+      <c r="AH6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI6" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="AI6" s="59" t="s">
+      <c r="AJ6" s="59" t="s">
         <v>300</v>
       </c>
-      <c r="AJ6" s="59" t="s">
+      <c r="AK6" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="AK6" s="59" t="s">
+      <c r="AL6" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="61" t="s">
+      <c r="AM6" s="59"/>
+      <c r="AN6" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="AN6" s="62"/>
-      <c r="AO6" s="63">
+      <c r="AO6" s="62"/>
+      <c r="AP6" s="63">
         <v>0.01</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AR6" t="s">
         <v>294</v>
       </c>
-      <c r="AR6" s="42" t="s">
+      <c r="AS6" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="AS6" s="1" t="s">
+      <c r="AT6" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AT6" s="42">
+      <c r="AU6" s="42">
         <v>15</v>
       </c>
-      <c r="AU6" s="1" t="s">
+      <c r="AV6" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AV6" t="s">
-        <v>46</v>
-      </c>
       <c r="AW6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX6" t="s">
         <v>8</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AY6" t="s">
         <v>9</v>
       </c>
-      <c r="AY6" t="s">
+      <c r="AZ6" t="s">
         <v>10</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="BA6" t="s">
         <v>64</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BB6" t="s">
         <v>11</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BC6" t="s">
         <v>70</v>
-      </c>
-      <c r="BD6">
-        <v>151</v>
       </c>
       <c r="BE6">
         <v>151</v>
       </c>
-      <c r="BG6" s="57" t="s">
+      <c r="BF6">
+        <v>151</v>
+      </c>
+      <c r="BH6" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BI6" t="s">
         <v>409</v>
       </c>
-      <c r="BI6" t="s">
+      <c r="BJ6" t="s">
         <v>410</v>
       </c>
-      <c r="BJ6" t="s">
+      <c r="BK6" t="s">
         <v>411</v>
       </c>
-      <c r="BL6" s="65">
+      <c r="BM6" s="65">
         <v>41226</v>
       </c>
-      <c r="BM6" s="66" t="s">
+      <c r="BN6" s="66" t="s">
         <v>243</v>
       </c>
-      <c r="BN6" s="67">
+      <c r="BO6" s="67">
         <v>31.6341</v>
       </c>
-      <c r="BO6" s="67">
+      <c r="BP6" s="67">
         <v>34.51144</v>
       </c>
-      <c r="BP6" s="42" t="s">
+      <c r="BQ6" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="BQ6" t="s">
+      <c r="BR6" t="s">
         <v>255</v>
       </c>
-      <c r="BR6" s="25" t="s">
+      <c r="BS6" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="BS6" t="s">
-        <v>46</v>
-      </c>
       <c r="BT6" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU6" t="s">
         <v>407</v>
       </c>
-      <c r="BU6" t="s">
+      <c r="BV6" t="s">
         <v>415</v>
       </c>
-      <c r="BW6">
+      <c r="BX6">
         <v>10</v>
       </c>
-      <c r="BX6" s="70" t="s">
+      <c r="BY6" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="BY6" s="70">
+      <c r="BZ6" s="70">
         <v>545.16</v>
       </c>
-      <c r="BZ6">
+      <c r="CA6">
         <v>39.6</v>
       </c>
-      <c r="CA6">
+      <c r="CB6">
         <v>24.87</v>
       </c>
-      <c r="CB6">
+      <c r="CC6">
         <v>209.97499999999999</v>
       </c>
-      <c r="CC6">
+      <c r="CD6">
         <v>99.7</v>
       </c>
     </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D7,"&lt;&gt;"&amp;"")+COUNTIF(BS7,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B7" s="23">
@@ -4061,157 +4156,160 @@
       <c r="Y7" s="33">
         <v>2</v>
       </c>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="33" t="s">
+      <c r="Z7" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB7" s="16" t="s">
+      <c r="AC7" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC7" s="56" t="s">
+      <c r="AD7" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD7" s="33" t="s">
+      <c r="AE7" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE7" s="16" t="s">
+      <c r="AF7" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF7" s="56" t="s">
+      <c r="AG7" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH7" s="59" t="s">
+      <c r="AH7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI7" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="AI7" s="59" t="s">
+      <c r="AJ7" s="59" t="s">
         <v>301</v>
       </c>
-      <c r="AJ7" s="59" t="s">
+      <c r="AK7" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="AK7" s="59" t="s">
+      <c r="AL7" s="59" t="s">
         <v>327</v>
       </c>
-      <c r="AL7" s="59"/>
-      <c r="AM7" s="61" t="s">
+      <c r="AM7" s="59"/>
+      <c r="AN7" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="AN7" s="62"/>
-      <c r="AO7" s="63">
+      <c r="AO7" s="62"/>
+      <c r="AP7" s="63">
         <v>0.01</v>
       </c>
-      <c r="AQ7" t="s">
+      <c r="AR7" t="s">
         <v>294</v>
       </c>
-      <c r="AR7" s="42" t="s">
+      <c r="AS7" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="AS7" s="1" t="s">
+      <c r="AT7" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AT7" s="42">
+      <c r="AU7" s="42">
         <v>15</v>
       </c>
-      <c r="AU7" s="1" t="s">
+      <c r="AV7" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AV7" t="s">
-        <v>46</v>
-      </c>
       <c r="AW7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX7" t="s">
         <v>8</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AY7" t="s">
         <v>9</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="AZ7" t="s">
         <v>10</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="BA7" t="s">
         <v>64</v>
       </c>
-      <c r="BA7" t="s">
+      <c r="BB7" t="s">
         <v>11</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BC7" t="s">
         <v>70</v>
-      </c>
-      <c r="BD7">
-        <v>151</v>
       </c>
       <c r="BE7">
         <v>151</v>
       </c>
-      <c r="BG7" s="57" t="s">
+      <c r="BF7">
+        <v>151</v>
+      </c>
+      <c r="BH7" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BI7" t="s">
         <v>409</v>
       </c>
-      <c r="BI7" t="s">
+      <c r="BJ7" t="s">
         <v>410</v>
       </c>
-      <c r="BJ7" t="s">
+      <c r="BK7" t="s">
         <v>411</v>
       </c>
-      <c r="BL7" s="65">
+      <c r="BM7" s="65">
         <v>41226</v>
       </c>
-      <c r="BM7" s="66" t="s">
+      <c r="BN7" s="66" t="s">
         <v>243</v>
       </c>
-      <c r="BN7" s="67">
+      <c r="BO7" s="67">
         <v>31.6341</v>
       </c>
-      <c r="BO7" s="67">
+      <c r="BP7" s="67">
         <v>34.51144</v>
       </c>
-      <c r="BP7" s="42" t="s">
+      <c r="BQ7" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="BQ7" t="s">
+      <c r="BR7" t="s">
         <v>255</v>
       </c>
-      <c r="BR7" s="25" t="s">
+      <c r="BS7" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="BS7" t="s">
-        <v>46</v>
-      </c>
       <c r="BT7" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU7" t="s">
         <v>407</v>
       </c>
-      <c r="BU7" t="s">
+      <c r="BV7" t="s">
         <v>416</v>
       </c>
-      <c r="BW7">
+      <c r="BX7">
         <v>10</v>
       </c>
-      <c r="BX7" s="71" t="s">
+      <c r="BY7" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="BY7" s="71">
+      <c r="BZ7" s="71">
         <v>545.16</v>
       </c>
-      <c r="BZ7">
+      <c r="CA7">
         <v>39.6</v>
       </c>
-      <c r="CA7">
+      <c r="CB7">
         <v>24.87</v>
       </c>
-      <c r="CB7">
+      <c r="CC7">
         <v>209.97499999999999</v>
       </c>
-      <c r="CC7">
+      <c r="CD7">
         <v>99.7</v>
       </c>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D8,"&lt;&gt;"&amp;"")+COUNTIF(BS8,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B8" s="23">
@@ -4278,157 +4376,160 @@
       <c r="Y8" s="33">
         <v>2</v>
       </c>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="33" t="s">
+      <c r="Z8" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB8" s="16" t="s">
+      <c r="AC8" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC8" s="56" t="s">
+      <c r="AD8" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD8" s="33" t="s">
+      <c r="AE8" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE8" s="16" t="s">
+      <c r="AF8" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF8" s="56" t="s">
+      <c r="AG8" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH8" s="59" t="s">
+      <c r="AH8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI8" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="AI8" s="59" t="s">
+      <c r="AJ8" s="59" t="s">
         <v>302</v>
       </c>
-      <c r="AJ8" s="59" t="s">
+      <c r="AK8" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="AK8" s="59" t="s">
+      <c r="AL8" s="59" t="s">
         <v>328</v>
       </c>
-      <c r="AL8" s="59"/>
-      <c r="AM8" s="61" t="s">
+      <c r="AM8" s="59"/>
+      <c r="AN8" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="AN8" s="62"/>
-      <c r="AO8" s="63">
+      <c r="AO8" s="62"/>
+      <c r="AP8" s="63">
         <v>0.01</v>
       </c>
-      <c r="AQ8" t="s">
+      <c r="AR8" t="s">
         <v>294</v>
       </c>
-      <c r="AR8" s="42" t="s">
+      <c r="AS8" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="AS8" s="1" t="s">
+      <c r="AT8" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AT8" s="42">
+      <c r="AU8" s="42">
         <v>15</v>
       </c>
-      <c r="AU8" s="1" t="s">
+      <c r="AV8" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AV8" t="s">
-        <v>46</v>
-      </c>
       <c r="AW8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX8" t="s">
         <v>8</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AY8" t="s">
         <v>9</v>
       </c>
-      <c r="AY8" t="s">
+      <c r="AZ8" t="s">
         <v>10</v>
       </c>
-      <c r="AZ8" t="s">
+      <c r="BA8" t="s">
         <v>64</v>
       </c>
-      <c r="BA8" t="s">
+      <c r="BB8" t="s">
         <v>11</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BC8" t="s">
         <v>70</v>
-      </c>
-      <c r="BD8">
-        <v>151</v>
       </c>
       <c r="BE8">
         <v>151</v>
       </c>
-      <c r="BG8" s="57" t="s">
+      <c r="BF8">
+        <v>151</v>
+      </c>
+      <c r="BH8" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="BH8" t="s">
+      <c r="BI8" t="s">
         <v>409</v>
       </c>
-      <c r="BI8" t="s">
+      <c r="BJ8" t="s">
         <v>410</v>
       </c>
-      <c r="BJ8" t="s">
+      <c r="BK8" t="s">
         <v>411</v>
       </c>
-      <c r="BL8" s="65">
+      <c r="BM8" s="65">
         <v>41226</v>
       </c>
-      <c r="BM8" s="66" t="s">
+      <c r="BN8" s="66" t="s">
         <v>243</v>
       </c>
-      <c r="BN8" s="67">
+      <c r="BO8" s="67">
         <v>31.6341</v>
       </c>
-      <c r="BO8" s="67">
+      <c r="BP8" s="67">
         <v>34.51144</v>
       </c>
-      <c r="BP8" s="42" t="s">
+      <c r="BQ8" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="BQ8" t="s">
+      <c r="BR8" t="s">
         <v>255</v>
       </c>
-      <c r="BR8" s="25" t="s">
+      <c r="BS8" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="BS8" t="s">
-        <v>46</v>
-      </c>
       <c r="BT8" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU8" t="s">
         <v>407</v>
       </c>
-      <c r="BU8" t="s">
+      <c r="BV8" t="s">
         <v>417</v>
       </c>
-      <c r="BW8">
+      <c r="BX8">
         <v>10</v>
       </c>
-      <c r="BX8" s="71" t="s">
+      <c r="BY8" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="BY8" s="71">
+      <c r="BZ8" s="71">
         <v>545.16</v>
       </c>
-      <c r="BZ8">
+      <c r="CA8">
         <v>39.6</v>
       </c>
-      <c r="CA8">
+      <c r="CB8">
         <v>24.87</v>
       </c>
-      <c r="CB8">
+      <c r="CC8">
         <v>209.97499999999999</v>
       </c>
-      <c r="CC8">
+      <c r="CD8">
         <v>99.7</v>
       </c>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D9,"&lt;&gt;"&amp;"")+COUNTIF(BS9,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B9" s="23">
@@ -4491,151 +4592,154 @@
       <c r="Y9" s="33">
         <v>3</v>
       </c>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="33" t="s">
+      <c r="Z9" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB9" s="16" t="s">
+      <c r="AC9" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC9" s="56" t="s">
+      <c r="AD9" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD9" s="33" t="s">
+      <c r="AE9" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE9" s="16" t="s">
+      <c r="AF9" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF9" s="56" t="s">
+      <c r="AG9" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH9" s="59" t="s">
+      <c r="AH9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI9" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="AI9" s="59" t="s">
+      <c r="AJ9" s="59" t="s">
         <v>303</v>
       </c>
-      <c r="AJ9" s="59" t="s">
+      <c r="AK9" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="AK9" s="59" t="s">
+      <c r="AL9" s="59" t="s">
         <v>329</v>
       </c>
-      <c r="AL9" s="59"/>
-      <c r="AM9" s="61" t="s">
+      <c r="AM9" s="59"/>
+      <c r="AN9" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="AN9" s="62"/>
-      <c r="AO9" s="63">
+      <c r="AO9" s="62"/>
+      <c r="AP9" s="63">
         <v>0.01</v>
       </c>
-      <c r="AQ9" t="s">
+      <c r="AR9" t="s">
         <v>294</v>
       </c>
-      <c r="AR9" s="42" t="s">
+      <c r="AS9" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="AS9" s="1" t="s">
+      <c r="AT9" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AT9" s="42">
+      <c r="AU9" s="42">
         <v>15</v>
       </c>
-      <c r="AU9" s="1" t="s">
+      <c r="AV9" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AV9" t="s">
-        <v>46</v>
-      </c>
       <c r="AW9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX9" t="s">
         <v>8</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="AY9" t="s">
         <v>9</v>
       </c>
-      <c r="AY9" t="s">
+      <c r="AZ9" t="s">
         <v>10</v>
       </c>
-      <c r="AZ9" t="s">
+      <c r="BA9" t="s">
         <v>64</v>
       </c>
-      <c r="BA9" t="s">
+      <c r="BB9" t="s">
         <v>11</v>
       </c>
-      <c r="BB9" t="s">
+      <c r="BC9" t="s">
         <v>70</v>
-      </c>
-      <c r="BD9">
-        <v>151</v>
       </c>
       <c r="BE9">
         <v>151</v>
       </c>
-      <c r="BG9" s="57" t="s">
+      <c r="BF9">
+        <v>151</v>
+      </c>
+      <c r="BH9" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="BH9" t="s">
+      <c r="BI9" t="s">
         <v>409</v>
       </c>
-      <c r="BI9" t="s">
+      <c r="BJ9" t="s">
         <v>410</v>
       </c>
-      <c r="BJ9" t="s">
+      <c r="BK9" t="s">
         <v>411</v>
       </c>
-      <c r="BL9" s="65">
+      <c r="BM9" s="65">
         <v>41226</v>
       </c>
-      <c r="BM9" s="66" t="s">
+      <c r="BN9" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="BN9" s="67">
+      <c r="BO9" s="67">
         <v>31.671759999999999</v>
       </c>
-      <c r="BO9" s="67">
+      <c r="BP9" s="67">
         <v>34.543559999999999</v>
       </c>
-      <c r="BP9" s="42" t="s">
+      <c r="BQ9" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="BQ9" t="s">
+      <c r="BR9" t="s">
         <v>257</v>
       </c>
-      <c r="BR9" s="25" t="s">
+      <c r="BS9" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="BS9" t="s">
-        <v>46</v>
-      </c>
-      <c r="BW9">
+      <c r="BT9" t="s">
+        <v>46</v>
+      </c>
+      <c r="BX9">
         <v>5</v>
       </c>
-      <c r="BX9" s="71" t="s">
+      <c r="BY9" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="BY9" s="71">
+      <c r="BZ9" s="71">
         <v>5080.2700000000004</v>
       </c>
-      <c r="BZ9">
+      <c r="CA9">
         <v>39.6</v>
       </c>
-      <c r="CA9">
+      <c r="CB9">
         <v>24.92</v>
       </c>
-      <c r="CB9">
+      <c r="CC9">
         <v>210.3</v>
       </c>
-      <c r="CC9">
+      <c r="CD9">
         <v>100.9</v>
       </c>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D10,"&lt;&gt;"&amp;"")+COUNTIF(BS10,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B10" s="23">
@@ -4702,157 +4806,160 @@
       <c r="Y10" s="33">
         <v>3</v>
       </c>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="33" t="s">
+      <c r="Z10" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB10" s="16" t="s">
+      <c r="AC10" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC10" s="56" t="s">
+      <c r="AD10" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD10" s="33" t="s">
+      <c r="AE10" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE10" s="16" t="s">
+      <c r="AF10" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF10" s="56" t="s">
+      <c r="AG10" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH10" s="59" t="s">
+      <c r="AH10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI10" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="AI10" s="59" t="s">
+      <c r="AJ10" s="59" t="s">
         <v>304</v>
       </c>
-      <c r="AJ10" s="59" t="s">
+      <c r="AK10" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="AK10" s="59" t="s">
+      <c r="AL10" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="AL10" s="59"/>
-      <c r="AM10" s="61" t="s">
+      <c r="AM10" s="59"/>
+      <c r="AN10" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="AN10" s="62"/>
-      <c r="AO10" s="63">
+      <c r="AO10" s="62"/>
+      <c r="AP10" s="63">
         <v>0.01</v>
       </c>
-      <c r="AQ10" t="s">
+      <c r="AR10" t="s">
         <v>294</v>
       </c>
-      <c r="AR10" s="42" t="s">
+      <c r="AS10" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="AS10" s="1" t="s">
+      <c r="AT10" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AT10" s="42">
+      <c r="AU10" s="42">
         <v>15</v>
       </c>
-      <c r="AU10" s="1" t="s">
+      <c r="AV10" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AV10" t="s">
-        <v>46</v>
-      </c>
       <c r="AW10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX10" t="s">
         <v>8</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AY10" t="s">
         <v>9</v>
       </c>
-      <c r="AY10" t="s">
+      <c r="AZ10" t="s">
         <v>10</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="BA10" t="s">
         <v>64</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="BB10" t="s">
         <v>11</v>
       </c>
-      <c r="BB10" t="s">
+      <c r="BC10" t="s">
         <v>70</v>
-      </c>
-      <c r="BD10">
-        <v>151</v>
       </c>
       <c r="BE10">
         <v>151</v>
       </c>
-      <c r="BG10" s="57" t="s">
+      <c r="BF10">
+        <v>151</v>
+      </c>
+      <c r="BH10" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="BH10" t="s">
+      <c r="BI10" t="s">
         <v>409</v>
       </c>
-      <c r="BI10" t="s">
+      <c r="BJ10" t="s">
         <v>410</v>
       </c>
-      <c r="BJ10" t="s">
+      <c r="BK10" t="s">
         <v>411</v>
       </c>
-      <c r="BL10" s="65">
+      <c r="BM10" s="65">
         <v>41226</v>
       </c>
-      <c r="BM10" s="66" t="s">
+      <c r="BN10" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="BN10" s="67">
+      <c r="BO10" s="67">
         <v>31.671759999999999</v>
       </c>
-      <c r="BO10" s="67">
+      <c r="BP10" s="67">
         <v>34.543559999999999</v>
       </c>
-      <c r="BP10" s="42" t="s">
+      <c r="BQ10" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="BQ10" t="s">
+      <c r="BR10" t="s">
         <v>257</v>
       </c>
-      <c r="BR10" s="25" t="s">
+      <c r="BS10" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="BS10" t="s">
-        <v>46</v>
-      </c>
       <c r="BT10" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU10" t="s">
         <v>407</v>
       </c>
-      <c r="BU10" t="s">
+      <c r="BV10" t="s">
         <v>418</v>
       </c>
-      <c r="BW10">
+      <c r="BX10">
         <v>5</v>
       </c>
-      <c r="BX10" s="71" t="s">
+      <c r="BY10" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="BY10" s="71">
+      <c r="BZ10" s="71">
         <v>5080.2700000000004</v>
       </c>
-      <c r="BZ10">
+      <c r="CA10">
         <v>39.6</v>
       </c>
-      <c r="CA10">
+      <c r="CB10">
         <v>24.92</v>
       </c>
-      <c r="CB10">
+      <c r="CC10">
         <v>210.3</v>
       </c>
-      <c r="CC10">
+      <c r="CD10">
         <v>100.9</v>
       </c>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D11,"&lt;&gt;"&amp;"")+COUNTIF(BS11,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B11" s="23">
@@ -4919,157 +5026,160 @@
       <c r="Y11" s="33">
         <v>3</v>
       </c>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="33" t="s">
+      <c r="Z11" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB11" s="16" t="s">
+      <c r="AC11" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC11" s="56" t="s">
+      <c r="AD11" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD11" s="33" t="s">
+      <c r="AE11" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE11" s="16" t="s">
+      <c r="AF11" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF11" s="56" t="s">
+      <c r="AG11" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH11" s="59" t="s">
+      <c r="AH11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI11" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="AI11" s="59" t="s">
+      <c r="AJ11" s="59" t="s">
         <v>305</v>
       </c>
-      <c r="AJ11" s="59" t="s">
+      <c r="AK11" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="AK11" s="59" t="s">
+      <c r="AL11" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="AL11" s="59"/>
-      <c r="AM11" s="61" t="s">
+      <c r="AM11" s="59"/>
+      <c r="AN11" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="AN11" s="62"/>
-      <c r="AO11" s="63">
+      <c r="AO11" s="62"/>
+      <c r="AP11" s="63">
         <v>0.01</v>
       </c>
-      <c r="AQ11" t="s">
+      <c r="AR11" t="s">
         <v>294</v>
       </c>
-      <c r="AR11" s="42" t="s">
+      <c r="AS11" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="AS11" s="1" t="s">
+      <c r="AT11" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AT11" s="42">
+      <c r="AU11" s="42">
         <v>15</v>
       </c>
-      <c r="AU11" s="1" t="s">
+      <c r="AV11" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AV11" t="s">
-        <v>46</v>
-      </c>
       <c r="AW11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX11" t="s">
         <v>8</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="AY11" t="s">
         <v>9</v>
       </c>
-      <c r="AY11" t="s">
+      <c r="AZ11" t="s">
         <v>10</v>
       </c>
-      <c r="AZ11" t="s">
+      <c r="BA11" t="s">
         <v>64</v>
       </c>
-      <c r="BA11" t="s">
+      <c r="BB11" t="s">
         <v>11</v>
       </c>
-      <c r="BB11" t="s">
+      <c r="BC11" t="s">
         <v>70</v>
-      </c>
-      <c r="BD11">
-        <v>151</v>
       </c>
       <c r="BE11">
         <v>151</v>
       </c>
-      <c r="BG11" s="57" t="s">
+      <c r="BF11">
+        <v>151</v>
+      </c>
+      <c r="BH11" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="BH11" t="s">
+      <c r="BI11" t="s">
         <v>409</v>
       </c>
-      <c r="BI11" t="s">
+      <c r="BJ11" t="s">
         <v>410</v>
       </c>
-      <c r="BJ11" t="s">
+      <c r="BK11" t="s">
         <v>411</v>
       </c>
-      <c r="BL11" s="65">
+      <c r="BM11" s="65">
         <v>41226</v>
       </c>
-      <c r="BM11" s="66" t="s">
+      <c r="BN11" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="BN11" s="67">
+      <c r="BO11" s="67">
         <v>31.671759999999999</v>
       </c>
-      <c r="BO11" s="67">
+      <c r="BP11" s="67">
         <v>34.543559999999999</v>
       </c>
-      <c r="BP11" s="42" t="s">
+      <c r="BQ11" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="BQ11" t="s">
+      <c r="BR11" t="s">
         <v>257</v>
       </c>
-      <c r="BR11" s="25" t="s">
+      <c r="BS11" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="BS11" t="s">
-        <v>46</v>
-      </c>
       <c r="BT11" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU11" t="s">
         <v>407</v>
       </c>
-      <c r="BU11" t="s">
+      <c r="BV11" t="s">
         <v>419</v>
       </c>
-      <c r="BW11">
+      <c r="BX11">
         <v>5</v>
       </c>
-      <c r="BX11" s="71" t="s">
+      <c r="BY11" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="BY11" s="71">
+      <c r="BZ11" s="71">
         <v>5080.2700000000004</v>
       </c>
-      <c r="BZ11">
+      <c r="CA11">
         <v>39.6</v>
       </c>
-      <c r="CA11">
+      <c r="CB11">
         <v>24.92</v>
       </c>
-      <c r="CB11">
+      <c r="CC11">
         <v>210.3</v>
       </c>
-      <c r="CC11">
+      <c r="CD11">
         <v>100.9</v>
       </c>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D12,"&lt;&gt;"&amp;"")+COUNTIF(BS12,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B12" s="23">
@@ -5136,157 +5246,160 @@
       <c r="Y12" s="33">
         <v>4</v>
       </c>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="33" t="s">
+      <c r="Z12" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB12" s="16" t="s">
+      <c r="AC12" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC12" s="56" t="s">
+      <c r="AD12" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD12" s="33" t="s">
+      <c r="AE12" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE12" s="16" t="s">
+      <c r="AF12" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF12" s="56" t="s">
+      <c r="AG12" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH12" s="59" t="s">
+      <c r="AH12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI12" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="AI12" s="59" t="s">
+      <c r="AJ12" s="59" t="s">
         <v>306</v>
       </c>
-      <c r="AJ12" s="59" t="s">
+      <c r="AK12" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="AK12" s="59" t="s">
+      <c r="AL12" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="AL12" s="59"/>
-      <c r="AM12" s="61" t="s">
+      <c r="AM12" s="59"/>
+      <c r="AN12" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="AN12" s="62"/>
-      <c r="AO12" s="63">
+      <c r="AO12" s="62"/>
+      <c r="AP12" s="63">
         <v>0.01</v>
       </c>
-      <c r="AQ12" t="s">
+      <c r="AR12" t="s">
         <v>294</v>
       </c>
-      <c r="AR12" s="42" t="s">
+      <c r="AS12" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="AS12" s="1" t="s">
+      <c r="AT12" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AT12" s="42">
+      <c r="AU12" s="42">
         <v>15</v>
       </c>
-      <c r="AU12" s="1" t="s">
+      <c r="AV12" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AV12" t="s">
-        <v>46</v>
-      </c>
       <c r="AW12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX12" t="s">
         <v>8</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="AY12" t="s">
         <v>9</v>
       </c>
-      <c r="AY12" t="s">
+      <c r="AZ12" t="s">
         <v>10</v>
       </c>
-      <c r="AZ12" t="s">
+      <c r="BA12" t="s">
         <v>64</v>
       </c>
-      <c r="BA12" t="s">
+      <c r="BB12" t="s">
         <v>11</v>
       </c>
-      <c r="BB12" t="s">
+      <c r="BC12" t="s">
         <v>70</v>
-      </c>
-      <c r="BD12">
-        <v>151</v>
       </c>
       <c r="BE12">
         <v>151</v>
       </c>
-      <c r="BG12" s="57" t="s">
+      <c r="BF12">
+        <v>151</v>
+      </c>
+      <c r="BH12" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="BH12" t="s">
+      <c r="BI12" t="s">
         <v>409</v>
       </c>
-      <c r="BI12" t="s">
+      <c r="BJ12" t="s">
         <v>410</v>
       </c>
-      <c r="BJ12" t="s">
+      <c r="BK12" t="s">
         <v>411</v>
       </c>
-      <c r="BL12" s="65">
+      <c r="BM12" s="65">
         <v>41227</v>
       </c>
-      <c r="BM12" s="66" t="s">
+      <c r="BN12" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="BN12" s="67">
+      <c r="BO12" s="67">
         <v>31.941859999999998</v>
       </c>
-      <c r="BO12" s="67">
+      <c r="BP12" s="67">
         <v>34.68862</v>
       </c>
-      <c r="BP12" s="42" t="s">
+      <c r="BQ12" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="BQ12" s="58" t="s">
+      <c r="BR12" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="BR12" s="25" t="s">
+      <c r="BS12" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="BS12" t="s">
-        <v>46</v>
-      </c>
       <c r="BT12" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU12" t="s">
         <v>407</v>
       </c>
-      <c r="BU12" t="s">
+      <c r="BV12" t="s">
         <v>420</v>
       </c>
-      <c r="BW12">
+      <c r="BX12">
         <v>18</v>
       </c>
-      <c r="BX12" s="71" t="s">
+      <c r="BY12" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="BY12" s="42">
+      <c r="BZ12" s="42">
         <v>102.78</v>
       </c>
-      <c r="BZ12">
+      <c r="CA12">
         <v>40.799999999999997</v>
       </c>
-      <c r="CA12">
+      <c r="CB12">
         <v>24.88</v>
       </c>
-      <c r="CB12">
+      <c r="CC12">
         <v>160.36000000000001</v>
       </c>
-      <c r="CC12">
+      <c r="CD12">
         <v>99.74</v>
       </c>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D13,"&lt;&gt;"&amp;"")+COUNTIF(BS13,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B13" s="23">
@@ -5353,157 +5466,160 @@
       <c r="Y13" s="33">
         <v>4</v>
       </c>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="33" t="s">
+      <c r="Z13" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB13" s="16" t="s">
+      <c r="AC13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC13" s="56" t="s">
+      <c r="AD13" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD13" s="33" t="s">
+      <c r="AE13" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE13" s="16" t="s">
+      <c r="AF13" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF13" s="56" t="s">
+      <c r="AG13" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH13" s="59" t="s">
+      <c r="AH13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI13" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="AI13" s="59" t="s">
+      <c r="AJ13" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="AJ13" s="59" t="s">
+      <c r="AK13" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="AK13" s="59" t="s">
+      <c r="AL13" s="59" t="s">
         <v>333</v>
       </c>
-      <c r="AL13" s="59"/>
-      <c r="AM13" s="61" t="s">
+      <c r="AM13" s="59"/>
+      <c r="AN13" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="AN13" s="62"/>
-      <c r="AO13" s="63">
+      <c r="AO13" s="62"/>
+      <c r="AP13" s="63">
         <v>0.01</v>
       </c>
-      <c r="AQ13" t="s">
+      <c r="AR13" t="s">
         <v>294</v>
       </c>
-      <c r="AR13" s="42" t="s">
+      <c r="AS13" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="AS13" s="1" t="s">
+      <c r="AT13" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AT13" s="42">
+      <c r="AU13" s="42">
         <v>15</v>
       </c>
-      <c r="AU13" s="1" t="s">
+      <c r="AV13" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AV13" t="s">
-        <v>46</v>
-      </c>
       <c r="AW13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX13" t="s">
         <v>8</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="AY13" t="s">
         <v>9</v>
       </c>
-      <c r="AY13" t="s">
+      <c r="AZ13" t="s">
         <v>10</v>
       </c>
-      <c r="AZ13" t="s">
+      <c r="BA13" t="s">
         <v>64</v>
       </c>
-      <c r="BA13" t="s">
+      <c r="BB13" t="s">
         <v>11</v>
       </c>
-      <c r="BB13" t="s">
+      <c r="BC13" t="s">
         <v>70</v>
-      </c>
-      <c r="BD13">
-        <v>151</v>
       </c>
       <c r="BE13">
         <v>151</v>
       </c>
-      <c r="BG13" s="57" t="s">
+      <c r="BF13">
+        <v>151</v>
+      </c>
+      <c r="BH13" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="BH13" t="s">
+      <c r="BI13" t="s">
         <v>409</v>
       </c>
-      <c r="BI13" t="s">
+      <c r="BJ13" t="s">
         <v>410</v>
       </c>
-      <c r="BJ13" t="s">
+      <c r="BK13" t="s">
         <v>411</v>
       </c>
-      <c r="BL13" s="65">
+      <c r="BM13" s="65">
         <v>41227</v>
       </c>
-      <c r="BM13" s="66" t="s">
+      <c r="BN13" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="BN13" s="67">
+      <c r="BO13" s="67">
         <v>31.941859999999998</v>
       </c>
-      <c r="BO13" s="67">
+      <c r="BP13" s="67">
         <v>34.68862</v>
       </c>
-      <c r="BP13" s="42" t="s">
+      <c r="BQ13" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="BQ13" s="58" t="s">
+      <c r="BR13" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="BR13" s="25" t="s">
+      <c r="BS13" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="BS13" t="s">
-        <v>46</v>
-      </c>
       <c r="BT13" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU13" t="s">
         <v>407</v>
       </c>
-      <c r="BU13" t="s">
+      <c r="BV13" t="s">
         <v>421</v>
       </c>
-      <c r="BW13">
+      <c r="BX13">
         <v>18</v>
       </c>
-      <c r="BX13" s="71" t="s">
+      <c r="BY13" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="BY13" s="42">
+      <c r="BZ13" s="42">
         <v>102.78</v>
       </c>
-      <c r="BZ13">
+      <c r="CA13">
         <v>40.799999999999997</v>
       </c>
-      <c r="CA13">
+      <c r="CB13">
         <v>24.88</v>
       </c>
-      <c r="CB13">
+      <c r="CC13">
         <v>160.36000000000001</v>
       </c>
-      <c r="CC13">
+      <c r="CD13">
         <v>99.74</v>
       </c>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D14,"&lt;&gt;"&amp;"")+COUNTIF(BS14,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B14" s="23">
@@ -5570,157 +5686,160 @@
       <c r="Y14" s="33">
         <v>4</v>
       </c>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="33" t="s">
+      <c r="Z14" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB14" s="16" t="s">
+      <c r="AC14" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC14" s="56" t="s">
+      <c r="AD14" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD14" s="33" t="s">
+      <c r="AE14" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE14" s="16" t="s">
+      <c r="AF14" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF14" s="56" t="s">
+      <c r="AG14" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH14" s="59" t="s">
+      <c r="AH14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI14" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="AI14" s="59" t="s">
+      <c r="AJ14" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="AJ14" s="59" t="s">
+      <c r="AK14" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="AK14" s="59" t="s">
+      <c r="AL14" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="AL14" s="59"/>
-      <c r="AM14" s="61" t="s">
+      <c r="AM14" s="59"/>
+      <c r="AN14" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="AN14" s="62"/>
-      <c r="AO14" s="63">
+      <c r="AO14" s="62"/>
+      <c r="AP14" s="63">
         <v>0.01</v>
       </c>
-      <c r="AQ14" t="s">
+      <c r="AR14" t="s">
         <v>294</v>
       </c>
-      <c r="AR14" s="42" t="s">
+      <c r="AS14" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="AS14" s="1" t="s">
+      <c r="AT14" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AT14" s="42">
+      <c r="AU14" s="42">
         <v>15</v>
       </c>
-      <c r="AU14" s="1" t="s">
+      <c r="AV14" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AV14" t="s">
-        <v>46</v>
-      </c>
       <c r="AW14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX14" t="s">
         <v>8</v>
       </c>
-      <c r="AX14" t="s">
+      <c r="AY14" t="s">
         <v>9</v>
       </c>
-      <c r="AY14" t="s">
+      <c r="AZ14" t="s">
         <v>10</v>
       </c>
-      <c r="AZ14" t="s">
+      <c r="BA14" t="s">
         <v>64</v>
       </c>
-      <c r="BA14" t="s">
+      <c r="BB14" t="s">
         <v>11</v>
       </c>
-      <c r="BB14" t="s">
+      <c r="BC14" t="s">
         <v>70</v>
-      </c>
-      <c r="BD14">
-        <v>151</v>
       </c>
       <c r="BE14">
         <v>151</v>
       </c>
-      <c r="BG14" s="57" t="s">
+      <c r="BF14">
+        <v>151</v>
+      </c>
+      <c r="BH14" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="BH14" t="s">
+      <c r="BI14" t="s">
         <v>409</v>
       </c>
-      <c r="BI14" t="s">
+      <c r="BJ14" t="s">
         <v>410</v>
       </c>
-      <c r="BJ14" t="s">
+      <c r="BK14" t="s">
         <v>411</v>
       </c>
-      <c r="BL14" s="65">
+      <c r="BM14" s="65">
         <v>41227</v>
       </c>
-      <c r="BM14" s="66" t="s">
+      <c r="BN14" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="BN14" s="67">
+      <c r="BO14" s="67">
         <v>31.941859999999998</v>
       </c>
-      <c r="BO14" s="67">
+      <c r="BP14" s="67">
         <v>34.68862</v>
       </c>
-      <c r="BP14" s="42" t="s">
+      <c r="BQ14" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="BQ14" s="58" t="s">
+      <c r="BR14" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="BR14" s="25" t="s">
+      <c r="BS14" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="BS14" t="s">
-        <v>46</v>
-      </c>
       <c r="BT14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU14" t="s">
         <v>407</v>
       </c>
-      <c r="BU14" t="s">
+      <c r="BV14" t="s">
         <v>422</v>
       </c>
-      <c r="BW14">
+      <c r="BX14">
         <v>18</v>
       </c>
-      <c r="BX14" s="71" t="s">
+      <c r="BY14" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="BY14" s="42">
+      <c r="BZ14" s="42">
         <v>102.78</v>
       </c>
-      <c r="BZ14">
+      <c r="CA14">
         <v>40.799999999999997</v>
       </c>
-      <c r="CA14">
+      <c r="CB14">
         <v>24.88</v>
       </c>
-      <c r="CB14">
+      <c r="CC14">
         <v>160.36000000000001</v>
       </c>
-      <c r="CC14">
+      <c r="CD14">
         <v>99.74</v>
       </c>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D15,"&lt;&gt;"&amp;"")+COUNTIF(BS15,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B15" s="23">
@@ -5787,157 +5906,160 @@
       <c r="Y15" s="33">
         <v>5</v>
       </c>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="33" t="s">
+      <c r="Z15" s="33" t="s">
+        <v>445</v>
+      </c>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB15" s="16" t="s">
+      <c r="AC15" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC15" s="56" t="s">
+      <c r="AD15" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD15" s="33" t="s">
+      <c r="AE15" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE15" s="16" t="s">
+      <c r="AF15" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF15" s="56" t="s">
+      <c r="AG15" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH15" s="59" t="s">
+      <c r="AH15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI15" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="AI15" s="59" t="s">
+      <c r="AJ15" s="59" t="s">
         <v>309</v>
       </c>
-      <c r="AJ15" s="59" t="s">
+      <c r="AK15" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="AK15" s="59" t="s">
+      <c r="AL15" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="AL15" s="59"/>
-      <c r="AM15" s="61" t="s">
+      <c r="AM15" s="59"/>
+      <c r="AN15" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="AN15" s="62"/>
-      <c r="AO15" s="63">
+      <c r="AO15" s="62"/>
+      <c r="AP15" s="63">
         <v>0.01</v>
       </c>
-      <c r="AQ15" t="s">
+      <c r="AR15" t="s">
         <v>294</v>
       </c>
-      <c r="AR15" s="42" t="s">
+      <c r="AS15" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="AS15" s="1" t="s">
+      <c r="AT15" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AT15" s="42">
+      <c r="AU15" s="42">
         <v>15</v>
       </c>
-      <c r="AU15" s="1" t="s">
+      <c r="AV15" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AV15" t="s">
-        <v>46</v>
-      </c>
       <c r="AW15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX15" t="s">
         <v>8</v>
       </c>
-      <c r="AX15" t="s">
+      <c r="AY15" t="s">
         <v>9</v>
       </c>
-      <c r="AY15" t="s">
+      <c r="AZ15" t="s">
         <v>10</v>
       </c>
-      <c r="AZ15" t="s">
+      <c r="BA15" t="s">
         <v>64</v>
       </c>
-      <c r="BA15" t="s">
+      <c r="BB15" t="s">
         <v>11</v>
       </c>
-      <c r="BB15" t="s">
+      <c r="BC15" t="s">
         <v>70</v>
-      </c>
-      <c r="BD15">
-        <v>151</v>
       </c>
       <c r="BE15">
         <v>151</v>
       </c>
-      <c r="BG15" s="57" t="s">
+      <c r="BF15">
+        <v>151</v>
+      </c>
+      <c r="BH15" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="BH15" t="s">
+      <c r="BI15" t="s">
         <v>409</v>
       </c>
-      <c r="BI15" t="s">
+      <c r="BJ15" t="s">
         <v>410</v>
       </c>
-      <c r="BJ15" t="s">
+      <c r="BK15" t="s">
         <v>411</v>
       </c>
-      <c r="BL15" s="65">
+      <c r="BM15" s="65">
         <v>41227</v>
       </c>
-      <c r="BM15" s="66" t="s">
+      <c r="BN15" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="BN15" s="67">
+      <c r="BO15" s="67">
         <v>31.94068</v>
       </c>
-      <c r="BO15" s="67">
+      <c r="BP15" s="67">
         <v>34.687379999999997</v>
       </c>
-      <c r="BP15" s="42" t="s">
+      <c r="BQ15" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="BQ15" s="58" t="s">
+      <c r="BR15" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="BR15" s="25" t="s">
+      <c r="BS15" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="BS15" t="s">
-        <v>46</v>
-      </c>
       <c r="BT15" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU15" t="s">
         <v>407</v>
       </c>
-      <c r="BU15" t="s">
+      <c r="BV15" t="s">
         <v>423</v>
       </c>
-      <c r="BW15">
+      <c r="BX15">
         <v>19</v>
       </c>
-      <c r="BX15" s="71" t="s">
+      <c r="BY15" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="BY15" s="70">
+      <c r="BZ15" s="70">
         <v>130.54</v>
       </c>
-      <c r="BZ15">
+      <c r="CA15">
         <v>40.5</v>
       </c>
-      <c r="CA15">
+      <c r="CB15">
         <v>24.85</v>
       </c>
-      <c r="CB15">
+      <c r="CC15">
         <v>163.64500000000001</v>
       </c>
-      <c r="CC15">
+      <c r="CD15">
         <v>99.39</v>
       </c>
     </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D16,"&lt;&gt;"&amp;"")+COUNTIF(BS16,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B16" s="23">
@@ -5998,146 +6120,149 @@
       <c r="Y16" s="33">
         <v>5</v>
       </c>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="33" t="s">
+      <c r="Z16" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB16" s="16" t="s">
+      <c r="AC16" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC16" s="56" t="s">
+      <c r="AD16" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD16" s="33" t="s">
+      <c r="AE16" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE16" s="16" t="s">
+      <c r="AF16" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF16" s="56" t="s">
+      <c r="AG16" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="59" t="s">
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="AI16" s="59" t="s">
+      <c r="AJ16" s="59" t="s">
         <v>310</v>
       </c>
-      <c r="AJ16" s="59" t="s">
+      <c r="AK16" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="AK16" s="59" t="s">
+      <c r="AL16" s="59" t="s">
         <v>336</v>
       </c>
-      <c r="AL16" s="59"/>
-      <c r="AM16" s="61" t="s">
+      <c r="AM16" s="59"/>
+      <c r="AN16" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="AN16" s="62"/>
-      <c r="AO16" s="63">
+      <c r="AO16" s="62"/>
+      <c r="AP16" s="63">
         <v>0.01</v>
       </c>
-      <c r="AQ16" t="s">
+      <c r="AR16" t="s">
         <v>294</v>
       </c>
-      <c r="AR16" s="42" t="s">
+      <c r="AS16" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="AS16" s="1" t="s">
+      <c r="AT16" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AT16" s="42">
+      <c r="AU16" s="42">
         <v>15</v>
       </c>
-      <c r="AU16" s="1" t="s">
+      <c r="AV16" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AW16" t="s">
+      <c r="AX16" t="s">
         <v>8</v>
       </c>
-      <c r="AX16" t="s">
+      <c r="AY16" t="s">
         <v>9</v>
       </c>
-      <c r="AY16" t="s">
+      <c r="AZ16" t="s">
         <v>10</v>
       </c>
-      <c r="AZ16" t="s">
+      <c r="BA16" t="s">
         <v>64</v>
       </c>
-      <c r="BA16" t="s">
+      <c r="BB16" t="s">
         <v>11</v>
       </c>
-      <c r="BB16" t="s">
+      <c r="BC16" t="s">
         <v>70</v>
-      </c>
-      <c r="BD16">
-        <v>151</v>
       </c>
       <c r="BE16">
         <v>151</v>
       </c>
-      <c r="BG16" s="57" t="s">
+      <c r="BF16">
+        <v>151</v>
+      </c>
+      <c r="BH16" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="BH16" t="s">
+      <c r="BI16" t="s">
         <v>409</v>
       </c>
-      <c r="BI16" t="s">
+      <c r="BJ16" t="s">
         <v>410</v>
       </c>
-      <c r="BJ16" t="s">
+      <c r="BK16" t="s">
         <v>411</v>
       </c>
-      <c r="BL16" s="65">
+      <c r="BM16" s="65">
         <v>41227</v>
       </c>
-      <c r="BM16" s="66" t="s">
+      <c r="BN16" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="BN16" s="67">
+      <c r="BO16" s="67">
         <v>31.94068</v>
       </c>
-      <c r="BO16" s="67">
+      <c r="BP16" s="67">
         <v>34.687379999999997</v>
       </c>
-      <c r="BP16" s="42" t="s">
+      <c r="BQ16" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="BQ16" s="58" t="s">
+      <c r="BR16" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="BR16" s="25" t="s">
+      <c r="BS16" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="BS16" t="s">
-        <v>46</v>
-      </c>
-      <c r="BW16">
+      <c r="BT16" t="s">
+        <v>46</v>
+      </c>
+      <c r="BX16">
         <v>19</v>
       </c>
-      <c r="BX16" s="71" t="s">
+      <c r="BY16" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="BY16" s="71">
+      <c r="BZ16" s="71">
         <v>130.54</v>
       </c>
-      <c r="BZ16">
+      <c r="CA16">
         <v>40.5</v>
       </c>
-      <c r="CA16">
+      <c r="CB16">
         <v>24.85</v>
       </c>
-      <c r="CB16">
+      <c r="CC16">
         <v>163.64500000000001</v>
       </c>
-      <c r="CC16">
+      <c r="CD16">
         <v>99.39</v>
       </c>
     </row>
-    <row r="17" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D17,"&lt;&gt;"&amp;"")+COUNTIF(BS17,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B17" s="23">
@@ -6202,152 +6327,155 @@
       <c r="Y17" s="33">
         <v>5</v>
       </c>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="33" t="s">
+      <c r="Z17" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB17" s="16" t="s">
+      <c r="AC17" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC17" s="56" t="s">
+      <c r="AD17" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD17" s="33" t="s">
+      <c r="AE17" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE17" s="16" t="s">
+      <c r="AF17" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF17" s="56" t="s">
+      <c r="AG17" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="59" t="s">
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="AI17" s="59" t="s">
+      <c r="AJ17" s="59" t="s">
         <v>311</v>
       </c>
-      <c r="AJ17" s="59" t="s">
+      <c r="AK17" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="AK17" s="59" t="s">
+      <c r="AL17" s="59" t="s">
         <v>337</v>
       </c>
-      <c r="AL17" s="59"/>
-      <c r="AM17" s="61" t="s">
+      <c r="AM17" s="59"/>
+      <c r="AN17" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="AN17" s="62"/>
-      <c r="AO17" s="63">
+      <c r="AO17" s="62"/>
+      <c r="AP17" s="63">
         <v>0.01</v>
       </c>
-      <c r="AQ17" t="s">
+      <c r="AR17" t="s">
         <v>294</v>
       </c>
-      <c r="AR17" s="42" t="s">
+      <c r="AS17" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="AS17" s="1" t="s">
+      <c r="AT17" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AT17" s="42">
+      <c r="AU17" s="42">
         <v>15</v>
       </c>
-      <c r="AU17" s="1" t="s">
+      <c r="AV17" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="AX17" t="s">
         <v>8</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AY17" t="s">
         <v>9</v>
       </c>
-      <c r="AY17" t="s">
+      <c r="AZ17" t="s">
         <v>10</v>
       </c>
-      <c r="AZ17" t="s">
+      <c r="BA17" t="s">
         <v>64</v>
       </c>
-      <c r="BA17" t="s">
+      <c r="BB17" t="s">
         <v>11</v>
       </c>
-      <c r="BB17" t="s">
+      <c r="BC17" t="s">
         <v>70</v>
-      </c>
-      <c r="BD17">
-        <v>151</v>
       </c>
       <c r="BE17">
         <v>151</v>
       </c>
-      <c r="BG17" s="57" t="s">
+      <c r="BF17">
+        <v>151</v>
+      </c>
+      <c r="BH17" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="BH17" t="s">
+      <c r="BI17" t="s">
         <v>409</v>
       </c>
-      <c r="BI17" t="s">
+      <c r="BJ17" t="s">
         <v>410</v>
       </c>
-      <c r="BJ17" t="s">
+      <c r="BK17" t="s">
         <v>411</v>
       </c>
-      <c r="BL17" s="65">
+      <c r="BM17" s="65">
         <v>41227</v>
       </c>
-      <c r="BM17" s="66" t="s">
+      <c r="BN17" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="BN17" s="67">
+      <c r="BO17" s="67">
         <v>31.94068</v>
       </c>
-      <c r="BO17" s="67">
+      <c r="BP17" s="67">
         <v>34.687379999999997</v>
       </c>
-      <c r="BP17" s="42" t="s">
+      <c r="BQ17" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="BQ17" s="58" t="s">
+      <c r="BR17" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="BR17" s="25" t="s">
+      <c r="BS17" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="BS17" t="s">
-        <v>46</v>
-      </c>
       <c r="BT17" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU17" t="s">
         <v>407</v>
       </c>
-      <c r="BU17" t="s">
+      <c r="BV17" t="s">
         <v>424</v>
       </c>
-      <c r="BW17">
+      <c r="BX17">
         <v>19</v>
       </c>
-      <c r="BX17" s="71" t="s">
+      <c r="BY17" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="BY17" s="71">
+      <c r="BZ17" s="71">
         <v>130.54</v>
       </c>
-      <c r="BZ17">
+      <c r="CA17">
         <v>40.5</v>
       </c>
-      <c r="CA17">
+      <c r="CB17">
         <v>24.85</v>
       </c>
-      <c r="CB17">
+      <c r="CC17">
         <v>163.64500000000001</v>
       </c>
-      <c r="CC17">
+      <c r="CD17">
         <v>99.39</v>
       </c>
     </row>
-    <row r="18" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D18,"&lt;&gt;"&amp;"")+COUNTIF(BS18,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B18" s="23">
@@ -6412,152 +6540,155 @@
       <c r="Y18" s="33">
         <v>6</v>
       </c>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="33" t="s">
+      <c r="Z18" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB18" s="16" t="s">
+      <c r="AC18" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC18" s="56" t="s">
+      <c r="AD18" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD18" s="33" t="s">
+      <c r="AE18" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE18" s="16" t="s">
+      <c r="AF18" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF18" s="56" t="s">
+      <c r="AG18" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="59" t="s">
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="AI18" s="59" t="s">
+      <c r="AJ18" s="59" t="s">
         <v>312</v>
       </c>
-      <c r="AJ18" s="59" t="s">
+      <c r="AK18" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="AK18" s="59" t="s">
+      <c r="AL18" s="59" t="s">
         <v>338</v>
       </c>
-      <c r="AL18" s="59"/>
-      <c r="AM18" s="61" t="s">
+      <c r="AM18" s="59"/>
+      <c r="AN18" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="AN18" s="62"/>
-      <c r="AO18" s="63">
+      <c r="AO18" s="62"/>
+      <c r="AP18" s="63">
         <v>0.01</v>
       </c>
-      <c r="AQ18" t="s">
+      <c r="AR18" t="s">
         <v>294</v>
       </c>
-      <c r="AR18" s="42" t="s">
+      <c r="AS18" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="AS18" s="1" t="s">
+      <c r="AT18" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AT18" s="42">
+      <c r="AU18" s="42">
         <v>15</v>
       </c>
-      <c r="AU18" s="1" t="s">
+      <c r="AV18" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AW18" t="s">
+      <c r="AX18" t="s">
         <v>8</v>
       </c>
-      <c r="AX18" t="s">
+      <c r="AY18" t="s">
         <v>9</v>
       </c>
-      <c r="AY18" t="s">
+      <c r="AZ18" t="s">
         <v>10</v>
       </c>
-      <c r="AZ18" t="s">
+      <c r="BA18" t="s">
         <v>64</v>
       </c>
-      <c r="BA18" t="s">
+      <c r="BB18" t="s">
         <v>11</v>
       </c>
-      <c r="BB18" t="s">
+      <c r="BC18" t="s">
         <v>70</v>
-      </c>
-      <c r="BD18">
-        <v>151</v>
       </c>
       <c r="BE18">
         <v>151</v>
       </c>
-      <c r="BG18" s="57" t="s">
+      <c r="BF18">
+        <v>151</v>
+      </c>
+      <c r="BH18" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="BH18" t="s">
+      <c r="BI18" t="s">
         <v>409</v>
       </c>
-      <c r="BI18" t="s">
+      <c r="BJ18" t="s">
         <v>410</v>
       </c>
-      <c r="BJ18" t="s">
+      <c r="BK18" t="s">
         <v>411</v>
       </c>
-      <c r="BL18" s="65">
+      <c r="BM18" s="65">
         <v>41227</v>
       </c>
-      <c r="BM18" s="66" t="s">
+      <c r="BN18" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="BN18" s="67">
+      <c r="BO18" s="67">
         <v>31.931660000000001</v>
       </c>
-      <c r="BO18" s="67">
+      <c r="BP18" s="67">
         <v>34.68336</v>
       </c>
-      <c r="BP18" s="42" t="s">
+      <c r="BQ18" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="BQ18" s="58" t="s">
+      <c r="BR18" s="58" t="s">
         <v>259</v>
       </c>
-      <c r="BR18" s="25" t="s">
+      <c r="BS18" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="BS18" t="s">
-        <v>46</v>
-      </c>
       <c r="BT18" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU18" t="s">
         <v>407</v>
       </c>
-      <c r="BU18" t="s">
+      <c r="BV18" t="s">
         <v>425</v>
       </c>
-      <c r="BW18">
+      <c r="BX18">
         <v>18</v>
       </c>
-      <c r="BX18" s="71" t="s">
+      <c r="BY18" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="BY18" s="71">
+      <c r="BZ18" s="71">
         <v>1196.8399999999999</v>
       </c>
-      <c r="BZ18">
+      <c r="CA18">
         <v>39.6</v>
       </c>
-      <c r="CA18">
+      <c r="CB18">
         <v>24.45</v>
       </c>
-      <c r="CB18">
+      <c r="CC18">
         <v>163.03299999999999</v>
       </c>
-      <c r="CC18">
+      <c r="CD18">
         <v>99.2</v>
       </c>
     </row>
-    <row r="19" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D19,"&lt;&gt;"&amp;"")+COUNTIF(BS19,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B19" s="23">
@@ -6618,146 +6749,149 @@
       <c r="Y19" s="33">
         <v>6</v>
       </c>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="33" t="s">
+      <c r="Z19" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB19" s="16" t="s">
+      <c r="AC19" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC19" s="56" t="s">
+      <c r="AD19" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD19" s="33" t="s">
+      <c r="AE19" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE19" s="16" t="s">
+      <c r="AF19" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF19" s="56" t="s">
+      <c r="AG19" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="59" t="s">
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="AI19" s="59" t="s">
+      <c r="AJ19" s="59" t="s">
         <v>313</v>
       </c>
-      <c r="AJ19" s="59" t="s">
+      <c r="AK19" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="AK19" s="59" t="s">
+      <c r="AL19" s="59" t="s">
         <v>339</v>
       </c>
-      <c r="AL19" s="59"/>
-      <c r="AM19" s="61" t="s">
+      <c r="AM19" s="59"/>
+      <c r="AN19" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="AN19" s="62"/>
-      <c r="AO19" s="63">
+      <c r="AO19" s="62"/>
+      <c r="AP19" s="63">
         <v>0.01</v>
       </c>
-      <c r="AQ19" t="s">
+      <c r="AR19" t="s">
         <v>294</v>
       </c>
-      <c r="AR19" s="42" t="s">
+      <c r="AS19" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="AS19" s="1" t="s">
+      <c r="AT19" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AT19" s="42">
+      <c r="AU19" s="42">
         <v>15</v>
       </c>
-      <c r="AU19" s="1" t="s">
+      <c r="AV19" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AW19" t="s">
+      <c r="AX19" t="s">
         <v>8</v>
       </c>
-      <c r="AX19" t="s">
+      <c r="AY19" t="s">
         <v>9</v>
       </c>
-      <c r="AY19" t="s">
+      <c r="AZ19" t="s">
         <v>10</v>
       </c>
-      <c r="AZ19" t="s">
+      <c r="BA19" t="s">
         <v>64</v>
       </c>
-      <c r="BA19" t="s">
+      <c r="BB19" t="s">
         <v>11</v>
       </c>
-      <c r="BB19" t="s">
+      <c r="BC19" t="s">
         <v>70</v>
-      </c>
-      <c r="BD19">
-        <v>151</v>
       </c>
       <c r="BE19">
         <v>151</v>
       </c>
-      <c r="BG19" s="57" t="s">
+      <c r="BF19">
+        <v>151</v>
+      </c>
+      <c r="BH19" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="BH19" t="s">
+      <c r="BI19" t="s">
         <v>409</v>
       </c>
-      <c r="BI19" t="s">
+      <c r="BJ19" t="s">
         <v>410</v>
       </c>
-      <c r="BJ19" t="s">
+      <c r="BK19" t="s">
         <v>411</v>
       </c>
-      <c r="BL19" s="65">
+      <c r="BM19" s="65">
         <v>41227</v>
       </c>
-      <c r="BM19" s="66" t="s">
+      <c r="BN19" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="BN19" s="67">
+      <c r="BO19" s="67">
         <v>31.931660000000001</v>
       </c>
-      <c r="BO19" s="67">
+      <c r="BP19" s="67">
         <v>34.68336</v>
       </c>
-      <c r="BP19" s="42" t="s">
+      <c r="BQ19" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="BQ19" t="s">
+      <c r="BR19" t="s">
         <v>259</v>
       </c>
-      <c r="BR19" s="25" t="s">
+      <c r="BS19" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="BS19" t="s">
-        <v>46</v>
-      </c>
-      <c r="BW19">
+      <c r="BT19" t="s">
+        <v>46</v>
+      </c>
+      <c r="BX19">
         <v>18</v>
       </c>
-      <c r="BX19" s="71" t="s">
+      <c r="BY19" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="BY19" s="71">
+      <c r="BZ19" s="71">
         <v>1196.8399999999999</v>
       </c>
-      <c r="BZ19">
+      <c r="CA19">
         <v>39.6</v>
       </c>
-      <c r="CA19">
+      <c r="CB19">
         <v>24.45</v>
       </c>
-      <c r="CB19">
+      <c r="CC19">
         <v>163.03299999999999</v>
       </c>
-      <c r="CC19">
+      <c r="CD19">
         <v>99.2</v>
       </c>
     </row>
-    <row r="20" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D20,"&lt;&gt;"&amp;"")+COUNTIF(BS20,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B20" s="23">
@@ -6822,152 +6956,155 @@
       <c r="Y20" s="33">
         <v>6</v>
       </c>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="33" t="s">
+      <c r="Z20" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB20" s="16" t="s">
+      <c r="AC20" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC20" s="56" t="s">
+      <c r="AD20" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD20" s="33" t="s">
+      <c r="AE20" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE20" s="16" t="s">
+      <c r="AF20" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF20" s="56" t="s">
+      <c r="AG20" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="59" t="s">
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="AI20" s="59" t="s">
+      <c r="AJ20" s="59" t="s">
         <v>314</v>
       </c>
-      <c r="AJ20" s="59" t="s">
+      <c r="AK20" s="59" t="s">
         <v>223</v>
       </c>
-      <c r="AK20" s="59" t="s">
+      <c r="AL20" s="59" t="s">
         <v>340</v>
       </c>
-      <c r="AL20" s="59"/>
-      <c r="AM20" s="61" t="s">
+      <c r="AM20" s="59"/>
+      <c r="AN20" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="AN20" s="62"/>
-      <c r="AO20" s="63">
+      <c r="AO20" s="62"/>
+      <c r="AP20" s="63">
         <v>0.01</v>
       </c>
-      <c r="AQ20" t="s">
+      <c r="AR20" t="s">
         <v>294</v>
       </c>
-      <c r="AR20" s="42" t="s">
+      <c r="AS20" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="AS20" s="1" t="s">
+      <c r="AT20" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AT20" s="42">
+      <c r="AU20" s="42">
         <v>15</v>
       </c>
-      <c r="AU20" s="1" t="s">
+      <c r="AV20" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AW20" t="s">
+      <c r="AX20" t="s">
         <v>8</v>
       </c>
-      <c r="AX20" t="s">
+      <c r="AY20" t="s">
         <v>9</v>
       </c>
-      <c r="AY20" t="s">
+      <c r="AZ20" t="s">
         <v>10</v>
       </c>
-      <c r="AZ20" t="s">
+      <c r="BA20" t="s">
         <v>64</v>
       </c>
-      <c r="BA20" t="s">
+      <c r="BB20" t="s">
         <v>11</v>
       </c>
-      <c r="BB20" t="s">
+      <c r="BC20" t="s">
         <v>70</v>
-      </c>
-      <c r="BD20">
-        <v>151</v>
       </c>
       <c r="BE20">
         <v>151</v>
       </c>
-      <c r="BG20" s="57" t="s">
+      <c r="BF20">
+        <v>151</v>
+      </c>
+      <c r="BH20" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="BH20" t="s">
+      <c r="BI20" t="s">
         <v>409</v>
       </c>
-      <c r="BI20" t="s">
+      <c r="BJ20" t="s">
         <v>410</v>
       </c>
-      <c r="BJ20" t="s">
+      <c r="BK20" t="s">
         <v>411</v>
       </c>
-      <c r="BL20" s="65">
+      <c r="BM20" s="65">
         <v>41227</v>
       </c>
-      <c r="BM20" s="66" t="s">
+      <c r="BN20" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="BN20" s="67">
+      <c r="BO20" s="67">
         <v>31.931660000000001</v>
       </c>
-      <c r="BO20" s="67">
+      <c r="BP20" s="67">
         <v>34.68336</v>
       </c>
-      <c r="BP20" s="42" t="s">
+      <c r="BQ20" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="BQ20" t="s">
+      <c r="BR20" t="s">
         <v>259</v>
       </c>
-      <c r="BR20" s="25" t="s">
+      <c r="BS20" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="BS20" t="s">
-        <v>46</v>
-      </c>
       <c r="BT20" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU20" t="s">
         <v>407</v>
       </c>
-      <c r="BU20" t="s">
+      <c r="BV20" t="s">
         <v>426</v>
       </c>
-      <c r="BW20">
+      <c r="BX20">
         <v>18</v>
       </c>
-      <c r="BX20" s="71" t="s">
+      <c r="BY20" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="BY20" s="71">
+      <c r="BZ20" s="71">
         <v>1196.8399999999999</v>
       </c>
-      <c r="BZ20">
+      <c r="CA20">
         <v>39.6</v>
       </c>
-      <c r="CA20">
+      <c r="CB20">
         <v>24.45</v>
       </c>
-      <c r="CB20">
+      <c r="CC20">
         <v>163.03299999999999</v>
       </c>
-      <c r="CC20">
+      <c r="CD20">
         <v>99.2</v>
       </c>
     </row>
-    <row r="21" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D21,"&lt;&gt;"&amp;"")+COUNTIF(BS21,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B21" s="23">
@@ -7028,146 +7165,149 @@
       <c r="Y21" s="33">
         <v>7</v>
       </c>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="33" t="s">
+      <c r="Z21" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB21" s="16" t="s">
+      <c r="AC21" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC21" s="56" t="s">
+      <c r="AD21" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD21" s="33" t="s">
+      <c r="AE21" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE21" s="16" t="s">
+      <c r="AF21" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF21" s="56" t="s">
+      <c r="AG21" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="59" t="s">
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="AI21" s="59" t="s">
+      <c r="AJ21" s="59" t="s">
         <v>315</v>
       </c>
-      <c r="AJ21" s="59" t="s">
+      <c r="AK21" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="AK21" s="59" t="s">
+      <c r="AL21" s="59" t="s">
         <v>341</v>
       </c>
-      <c r="AL21" s="59"/>
-      <c r="AM21" s="61" t="s">
+      <c r="AM21" s="59"/>
+      <c r="AN21" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="AN21" s="62"/>
-      <c r="AO21" s="63">
+      <c r="AO21" s="62"/>
+      <c r="AP21" s="63">
         <v>0.01</v>
       </c>
-      <c r="AQ21" t="s">
+      <c r="AR21" t="s">
         <v>294</v>
       </c>
-      <c r="AR21" s="42" t="s">
+      <c r="AS21" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="AS21" s="1" t="s">
+      <c r="AT21" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AT21" s="42">
+      <c r="AU21" s="42">
         <v>15</v>
       </c>
-      <c r="AU21" s="1" t="s">
+      <c r="AV21" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AW21" t="s">
+      <c r="AX21" t="s">
         <v>8</v>
       </c>
-      <c r="AX21" t="s">
+      <c r="AY21" t="s">
         <v>9</v>
       </c>
-      <c r="AY21" t="s">
+      <c r="AZ21" t="s">
         <v>10</v>
       </c>
-      <c r="AZ21" t="s">
+      <c r="BA21" t="s">
         <v>64</v>
       </c>
-      <c r="BA21" t="s">
+      <c r="BB21" t="s">
         <v>11</v>
       </c>
-      <c r="BB21" t="s">
+      <c r="BC21" t="s">
         <v>70</v>
-      </c>
-      <c r="BD21">
-        <v>151</v>
       </c>
       <c r="BE21">
         <v>151</v>
       </c>
-      <c r="BG21" s="57" t="s">
+      <c r="BF21">
+        <v>151</v>
+      </c>
+      <c r="BH21" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="BH21" t="s">
+      <c r="BI21" t="s">
         <v>409</v>
       </c>
-      <c r="BI21" t="s">
+      <c r="BJ21" t="s">
         <v>410</v>
       </c>
-      <c r="BJ21" t="s">
+      <c r="BK21" t="s">
         <v>411</v>
       </c>
-      <c r="BL21" s="65">
+      <c r="BM21" s="65">
         <v>41233</v>
       </c>
-      <c r="BM21" s="66" t="s">
+      <c r="BN21" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="BN21" s="67">
+      <c r="BO21" s="67">
         <v>32.465020000000003</v>
       </c>
-      <c r="BO21" s="67">
+      <c r="BP21" s="67">
         <v>34.882582999999997</v>
       </c>
-      <c r="BP21" s="42" t="s">
+      <c r="BQ21" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="BQ21" s="58" t="s">
+      <c r="BR21" s="58" t="s">
         <v>260</v>
       </c>
-      <c r="BR21" s="25" t="s">
+      <c r="BS21" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="BS21" t="s">
-        <v>46</v>
-      </c>
-      <c r="BW21">
+      <c r="BT21" t="s">
+        <v>46</v>
+      </c>
+      <c r="BX21">
         <v>3.8</v>
       </c>
-      <c r="BX21" s="42" t="s">
+      <c r="BY21" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="BY21" s="42">
+      <c r="BZ21" s="42">
         <v>0</v>
       </c>
-      <c r="BZ21">
+      <c r="CA21">
         <v>41.04</v>
       </c>
-      <c r="CA21">
+      <c r="CB21">
         <v>25.24</v>
       </c>
-      <c r="CB21">
+      <c r="CC21">
         <v>237.71</v>
       </c>
-      <c r="CC21">
+      <c r="CD21">
         <v>105.6</v>
       </c>
     </row>
-    <row r="22" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D22,"&lt;&gt;"&amp;"")+COUNTIF(BS22,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B22" s="23">
@@ -7232,152 +7372,155 @@
       <c r="Y22" s="33">
         <v>7</v>
       </c>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="33" t="s">
+      <c r="Z22" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB22" s="16" t="s">
+      <c r="AC22" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC22" s="56" t="s">
+      <c r="AD22" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD22" s="33" t="s">
+      <c r="AE22" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE22" s="16" t="s">
+      <c r="AF22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF22" s="56" t="s">
+      <c r="AG22" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="59" t="s">
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="AI22" s="59" t="s">
+      <c r="AJ22" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="AJ22" s="59" t="s">
+      <c r="AK22" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="AK22" s="59" t="s">
+      <c r="AL22" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="AL22" s="59"/>
-      <c r="AM22" s="61" t="s">
+      <c r="AM22" s="59"/>
+      <c r="AN22" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="AN22" s="62"/>
-      <c r="AO22" s="63">
+      <c r="AO22" s="62"/>
+      <c r="AP22" s="63">
         <v>0.01</v>
       </c>
-      <c r="AQ22" t="s">
+      <c r="AR22" t="s">
         <v>294</v>
       </c>
-      <c r="AR22" s="42" t="s">
+      <c r="AS22" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="AS22" s="1" t="s">
+      <c r="AT22" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AT22" s="42">
+      <c r="AU22" s="42">
         <v>15</v>
       </c>
-      <c r="AU22" s="1" t="s">
+      <c r="AV22" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AW22" t="s">
+      <c r="AX22" t="s">
         <v>8</v>
       </c>
-      <c r="AX22" t="s">
+      <c r="AY22" t="s">
         <v>9</v>
       </c>
-      <c r="AY22" t="s">
+      <c r="AZ22" t="s">
         <v>10</v>
       </c>
-      <c r="AZ22" t="s">
+      <c r="BA22" t="s">
         <v>64</v>
       </c>
-      <c r="BA22" t="s">
+      <c r="BB22" t="s">
         <v>11</v>
       </c>
-      <c r="BB22" t="s">
+      <c r="BC22" t="s">
         <v>70</v>
-      </c>
-      <c r="BD22">
-        <v>151</v>
       </c>
       <c r="BE22">
         <v>151</v>
       </c>
-      <c r="BG22" s="57" t="s">
+      <c r="BF22">
+        <v>151</v>
+      </c>
+      <c r="BH22" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="BH22" t="s">
+      <c r="BI22" t="s">
         <v>409</v>
       </c>
-      <c r="BI22" t="s">
+      <c r="BJ22" t="s">
         <v>410</v>
       </c>
-      <c r="BJ22" t="s">
+      <c r="BK22" t="s">
         <v>411</v>
       </c>
-      <c r="BL22" s="65">
+      <c r="BM22" s="65">
         <v>41233</v>
       </c>
-      <c r="BM22" s="66" t="s">
+      <c r="BN22" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="BN22" s="67">
+      <c r="BO22" s="67">
         <v>32.465020000000003</v>
       </c>
-      <c r="BO22" s="67">
+      <c r="BP22" s="67">
         <v>34.882582999999997</v>
       </c>
-      <c r="BP22" s="42" t="s">
+      <c r="BQ22" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="BQ22" s="58" t="s">
+      <c r="BR22" s="58" t="s">
         <v>260</v>
       </c>
-      <c r="BR22" s="25" t="s">
+      <c r="BS22" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="BS22" t="s">
-        <v>46</v>
-      </c>
       <c r="BT22" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU22" t="s">
         <v>407</v>
       </c>
-      <c r="BU22" t="s">
+      <c r="BV22" t="s">
         <v>427</v>
       </c>
-      <c r="BW22">
+      <c r="BX22">
         <v>3.8</v>
       </c>
-      <c r="BX22" s="42" t="s">
+      <c r="BY22" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="BY22" s="42">
+      <c r="BZ22" s="42">
         <v>0</v>
       </c>
-      <c r="BZ22">
+      <c r="CA22">
         <v>41.04</v>
       </c>
-      <c r="CA22">
+      <c r="CB22">
         <v>25.24</v>
       </c>
-      <c r="CB22">
+      <c r="CC22">
         <v>237.71</v>
       </c>
-      <c r="CC22">
+      <c r="CD22">
         <v>105.6</v>
       </c>
     </row>
-    <row r="23" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D23,"&lt;&gt;"&amp;"")+COUNTIF(BS23,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B23" s="23">
@@ -7438,146 +7581,149 @@
       <c r="Y23" s="33">
         <v>7</v>
       </c>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="33" t="s">
+      <c r="Z23" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB23" s="16" t="s">
+      <c r="AC23" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC23" s="56" t="s">
+      <c r="AD23" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD23" s="33" t="s">
+      <c r="AE23" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE23" s="16" t="s">
+      <c r="AF23" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF23" s="56" t="s">
+      <c r="AG23" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="59" t="s">
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="AI23" s="59" t="s">
+      <c r="AJ23" s="59" t="s">
         <v>317</v>
       </c>
-      <c r="AJ23" s="59" t="s">
+      <c r="AK23" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="AK23" s="59" t="s">
+      <c r="AL23" s="59" t="s">
         <v>343</v>
       </c>
-      <c r="AL23" s="59"/>
-      <c r="AM23" s="61" t="s">
+      <c r="AM23" s="59"/>
+      <c r="AN23" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="AN23" s="62"/>
-      <c r="AO23" s="63">
+      <c r="AO23" s="62"/>
+      <c r="AP23" s="63">
         <v>0.01</v>
       </c>
-      <c r="AQ23" t="s">
+      <c r="AR23" t="s">
         <v>294</v>
       </c>
-      <c r="AR23" s="42" t="s">
+      <c r="AS23" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="AS23" s="1" t="s">
+      <c r="AT23" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AT23" s="42">
+      <c r="AU23" s="42">
         <v>15</v>
       </c>
-      <c r="AU23" s="1" t="s">
+      <c r="AV23" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AW23" t="s">
+      <c r="AX23" t="s">
         <v>8</v>
       </c>
-      <c r="AX23" t="s">
+      <c r="AY23" t="s">
         <v>9</v>
       </c>
-      <c r="AY23" t="s">
+      <c r="AZ23" t="s">
         <v>10</v>
       </c>
-      <c r="AZ23" t="s">
+      <c r="BA23" t="s">
         <v>64</v>
       </c>
-      <c r="BA23" t="s">
+      <c r="BB23" t="s">
         <v>11</v>
       </c>
-      <c r="BB23" t="s">
+      <c r="BC23" t="s">
         <v>70</v>
-      </c>
-      <c r="BD23">
-        <v>151</v>
       </c>
       <c r="BE23">
         <v>151</v>
       </c>
-      <c r="BG23" s="57" t="s">
+      <c r="BF23">
+        <v>151</v>
+      </c>
+      <c r="BH23" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="BH23" t="s">
+      <c r="BI23" t="s">
         <v>409</v>
       </c>
-      <c r="BI23" t="s">
+      <c r="BJ23" t="s">
         <v>410</v>
       </c>
-      <c r="BJ23" t="s">
+      <c r="BK23" t="s">
         <v>411</v>
       </c>
-      <c r="BL23" s="65">
+      <c r="BM23" s="65">
         <v>41233</v>
       </c>
-      <c r="BM23" s="66" t="s">
+      <c r="BN23" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="BN23" s="67">
+      <c r="BO23" s="67">
         <v>32.465020000000003</v>
       </c>
-      <c r="BO23" s="67">
+      <c r="BP23" s="67">
         <v>34.882582999999997</v>
       </c>
-      <c r="BP23" s="42" t="s">
+      <c r="BQ23" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="BQ23" s="58" t="s">
+      <c r="BR23" s="58" t="s">
         <v>260</v>
       </c>
-      <c r="BR23" s="25" t="s">
+      <c r="BS23" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="BS23" t="s">
-        <v>46</v>
-      </c>
-      <c r="BW23">
+      <c r="BT23" t="s">
+        <v>46</v>
+      </c>
+      <c r="BX23">
         <v>3.8</v>
       </c>
-      <c r="BX23" s="42" t="s">
+      <c r="BY23" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="BY23" s="42">
+      <c r="BZ23" s="42">
         <v>0</v>
       </c>
-      <c r="BZ23">
+      <c r="CA23">
         <v>41.04</v>
       </c>
-      <c r="CA23">
+      <c r="CB23">
         <v>25.24</v>
       </c>
-      <c r="CB23">
+      <c r="CC23">
         <v>237.71</v>
       </c>
-      <c r="CC23">
+      <c r="CD23">
         <v>105.6</v>
       </c>
     </row>
-    <row r="24" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D24,"&lt;&gt;"&amp;"")+COUNTIF(BS24,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B24" s="23">
@@ -7642,152 +7788,155 @@
       <c r="Y24" s="33">
         <v>8</v>
       </c>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="33" t="s">
+      <c r="Z24" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB24" s="16" t="s">
+      <c r="AC24" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC24" s="56" t="s">
+      <c r="AD24" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD24" s="33" t="s">
+      <c r="AE24" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE24" s="16" t="s">
+      <c r="AF24" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF24" s="56" t="s">
+      <c r="AG24" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="59" t="s">
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="AI24" s="59" t="s">
+      <c r="AJ24" s="59" t="s">
         <v>318</v>
       </c>
-      <c r="AJ24" s="59" t="s">
+      <c r="AK24" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="AK24" s="59" t="s">
+      <c r="AL24" s="59" t="s">
         <v>344</v>
       </c>
-      <c r="AL24" s="59"/>
-      <c r="AM24" s="61" t="s">
+      <c r="AM24" s="59"/>
+      <c r="AN24" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="AN24" s="62"/>
-      <c r="AO24" s="63">
+      <c r="AO24" s="62"/>
+      <c r="AP24" s="63">
         <v>0.01</v>
       </c>
-      <c r="AQ24" t="s">
+      <c r="AR24" t="s">
         <v>294</v>
       </c>
-      <c r="AR24" s="42" t="s">
+      <c r="AS24" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="AS24" s="1" t="s">
+      <c r="AT24" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AT24" s="42">
+      <c r="AU24" s="42">
         <v>15</v>
       </c>
-      <c r="AU24" s="1" t="s">
+      <c r="AV24" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AW24" t="s">
+      <c r="AX24" t="s">
         <v>8</v>
       </c>
-      <c r="AX24" t="s">
+      <c r="AY24" t="s">
         <v>9</v>
       </c>
-      <c r="AY24" t="s">
+      <c r="AZ24" t="s">
         <v>10</v>
       </c>
-      <c r="AZ24" t="s">
+      <c r="BA24" t="s">
         <v>64</v>
       </c>
-      <c r="BA24" t="s">
+      <c r="BB24" t="s">
         <v>11</v>
       </c>
-      <c r="BB24" t="s">
+      <c r="BC24" t="s">
         <v>70</v>
-      </c>
-      <c r="BD24">
-        <v>151</v>
       </c>
       <c r="BE24">
         <v>151</v>
       </c>
-      <c r="BG24" s="57" t="s">
+      <c r="BF24">
+        <v>151</v>
+      </c>
+      <c r="BH24" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="BH24" t="s">
+      <c r="BI24" t="s">
         <v>409</v>
       </c>
-      <c r="BI24" t="s">
+      <c r="BJ24" t="s">
         <v>410</v>
       </c>
-      <c r="BJ24" t="s">
+      <c r="BK24" t="s">
         <v>411</v>
       </c>
-      <c r="BL24" s="65">
+      <c r="BM24" s="65">
         <v>41233</v>
       </c>
-      <c r="BM24" s="66" t="s">
+      <c r="BN24" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="BN24" s="67">
+      <c r="BO24" s="67">
         <v>32.463700000000003</v>
       </c>
-      <c r="BO24" s="67">
+      <c r="BP24" s="67">
         <v>34.879339999999999</v>
       </c>
-      <c r="BP24" s="42" t="s">
+      <c r="BQ24" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="BQ24" s="58" t="s">
+      <c r="BR24" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="BR24" s="25" t="s">
+      <c r="BS24" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="BS24" t="s">
-        <v>46</v>
-      </c>
       <c r="BT24" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU24" t="s">
         <v>407</v>
       </c>
-      <c r="BU24" t="s">
+      <c r="BV24" t="s">
         <v>428</v>
       </c>
-      <c r="BW24">
+      <c r="BX24">
         <v>5.5</v>
       </c>
-      <c r="BX24" s="71" t="s">
+      <c r="BY24" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="BY24" s="70">
+      <c r="BZ24" s="70">
         <v>338.21</v>
       </c>
-      <c r="BZ24">
+      <c r="CA24">
         <v>39.4</v>
       </c>
-      <c r="CA24">
+      <c r="CB24">
         <v>23.09</v>
       </c>
-      <c r="CB24">
+      <c r="CC24">
         <v>197.125</v>
       </c>
-      <c r="CC24">
+      <c r="CD24">
         <v>100.05</v>
       </c>
     </row>
-    <row r="25" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D25,"&lt;&gt;"&amp;"")+COUNTIF(BS25,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B25" s="23">
@@ -7852,152 +8001,155 @@
       <c r="Y25" s="33">
         <v>8</v>
       </c>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="33" t="s">
+      <c r="Z25" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB25" s="16" t="s">
+      <c r="AC25" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC25" s="56" t="s">
+      <c r="AD25" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD25" s="33" t="s">
+      <c r="AE25" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE25" s="16" t="s">
+      <c r="AF25" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF25" s="56" t="s">
+      <c r="AG25" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="59" t="s">
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="AI25" s="59" t="s">
+      <c r="AJ25" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="AJ25" s="59" t="s">
+      <c r="AK25" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="AK25" s="59" t="s">
+      <c r="AL25" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="AL25" s="59"/>
-      <c r="AM25" s="61" t="s">
+      <c r="AM25" s="59"/>
+      <c r="AN25" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="AN25" s="62"/>
-      <c r="AO25" s="63">
+      <c r="AO25" s="62"/>
+      <c r="AP25" s="63">
         <v>0.01</v>
       </c>
-      <c r="AQ25" t="s">
+      <c r="AR25" t="s">
         <v>294</v>
       </c>
-      <c r="AR25" s="42" t="s">
+      <c r="AS25" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="AS25" s="1" t="s">
+      <c r="AT25" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AT25" s="42">
+      <c r="AU25" s="42">
         <v>15</v>
       </c>
-      <c r="AU25" s="1" t="s">
+      <c r="AV25" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AW25" t="s">
+      <c r="AX25" t="s">
         <v>8</v>
       </c>
-      <c r="AX25" t="s">
+      <c r="AY25" t="s">
         <v>9</v>
       </c>
-      <c r="AY25" t="s">
+      <c r="AZ25" t="s">
         <v>10</v>
       </c>
-      <c r="AZ25" t="s">
+      <c r="BA25" t="s">
         <v>64</v>
       </c>
-      <c r="BA25" t="s">
+      <c r="BB25" t="s">
         <v>11</v>
       </c>
-      <c r="BB25" t="s">
+      <c r="BC25" t="s">
         <v>70</v>
-      </c>
-      <c r="BD25">
-        <v>151</v>
       </c>
       <c r="BE25">
         <v>151</v>
       </c>
-      <c r="BG25" s="57" t="s">
+      <c r="BF25">
+        <v>151</v>
+      </c>
+      <c r="BH25" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="BH25" t="s">
+      <c r="BI25" t="s">
         <v>409</v>
       </c>
-      <c r="BI25" t="s">
+      <c r="BJ25" t="s">
         <v>410</v>
       </c>
-      <c r="BJ25" t="s">
+      <c r="BK25" t="s">
         <v>411</v>
       </c>
-      <c r="BL25" s="65">
+      <c r="BM25" s="65">
         <v>41233</v>
       </c>
-      <c r="BM25" s="66" t="s">
+      <c r="BN25" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="BN25" s="67">
+      <c r="BO25" s="67">
         <v>32.463700000000003</v>
       </c>
-      <c r="BO25" s="67">
+      <c r="BP25" s="67">
         <v>34.879339999999999</v>
       </c>
-      <c r="BP25" s="42" t="s">
+      <c r="BQ25" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="BQ25" s="58" t="s">
+      <c r="BR25" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="BR25" s="25" t="s">
+      <c r="BS25" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="BS25" t="s">
-        <v>46</v>
-      </c>
       <c r="BT25" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU25" t="s">
         <v>407</v>
       </c>
-      <c r="BU25" t="s">
+      <c r="BV25" t="s">
         <v>429</v>
       </c>
-      <c r="BW25">
+      <c r="BX25">
         <v>5.5</v>
       </c>
-      <c r="BX25" s="71" t="s">
+      <c r="BY25" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="BY25" s="71">
+      <c r="BZ25" s="71">
         <v>338.21</v>
       </c>
-      <c r="BZ25">
+      <c r="CA25">
         <v>39.4</v>
       </c>
-      <c r="CA25">
+      <c r="CB25">
         <v>23.09</v>
       </c>
-      <c r="CB25">
+      <c r="CC25">
         <v>197.125</v>
       </c>
-      <c r="CC25">
+      <c r="CD25">
         <v>100.05</v>
       </c>
     </row>
-    <row r="26" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D26,"&lt;&gt;"&amp;"")+COUNTIF(BS26,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B26" s="23">
@@ -8062,152 +8214,155 @@
       <c r="Y26" s="33">
         <v>8</v>
       </c>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="33" t="s">
+      <c r="Z26" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB26" s="16" t="s">
+      <c r="AC26" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC26" s="56" t="s">
+      <c r="AD26" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD26" s="33" t="s">
+      <c r="AE26" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE26" s="16" t="s">
+      <c r="AF26" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF26" s="56" t="s">
+      <c r="AG26" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="59" t="s">
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="59" t="s">
         <v>234</v>
       </c>
-      <c r="AI26" s="59" t="s">
+      <c r="AJ26" s="59" t="s">
         <v>320</v>
       </c>
-      <c r="AJ26" s="59" t="s">
+      <c r="AK26" s="59" t="s">
         <v>235</v>
       </c>
-      <c r="AK26" s="59" t="s">
+      <c r="AL26" s="59" t="s">
         <v>346</v>
       </c>
-      <c r="AL26" s="59"/>
-      <c r="AM26" s="61" t="s">
+      <c r="AM26" s="59"/>
+      <c r="AN26" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="AN26" s="62"/>
-      <c r="AO26" s="63">
+      <c r="AO26" s="62"/>
+      <c r="AP26" s="63">
         <v>0.01</v>
       </c>
-      <c r="AQ26" t="s">
+      <c r="AR26" t="s">
         <v>294</v>
       </c>
-      <c r="AR26" s="42" t="s">
+      <c r="AS26" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="AS26" s="1" t="s">
+      <c r="AT26" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AT26" s="42">
+      <c r="AU26" s="42">
         <v>15</v>
       </c>
-      <c r="AU26" s="1" t="s">
+      <c r="AV26" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AW26" t="s">
+      <c r="AX26" t="s">
         <v>8</v>
       </c>
-      <c r="AX26" t="s">
+      <c r="AY26" t="s">
         <v>9</v>
       </c>
-      <c r="AY26" t="s">
+      <c r="AZ26" t="s">
         <v>10</v>
       </c>
-      <c r="AZ26" t="s">
+      <c r="BA26" t="s">
         <v>64</v>
       </c>
-      <c r="BA26" t="s">
+      <c r="BB26" t="s">
         <v>11</v>
       </c>
-      <c r="BB26" t="s">
+      <c r="BC26" t="s">
         <v>70</v>
-      </c>
-      <c r="BD26">
-        <v>151</v>
       </c>
       <c r="BE26">
         <v>151</v>
       </c>
-      <c r="BG26" s="57" t="s">
+      <c r="BF26">
+        <v>151</v>
+      </c>
+      <c r="BH26" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="BH26" t="s">
+      <c r="BI26" t="s">
         <v>409</v>
       </c>
-      <c r="BI26" t="s">
+      <c r="BJ26" t="s">
         <v>410</v>
       </c>
-      <c r="BJ26" t="s">
+      <c r="BK26" t="s">
         <v>411</v>
       </c>
-      <c r="BL26" s="65">
+      <c r="BM26" s="65">
         <v>41233</v>
       </c>
-      <c r="BM26" s="66" t="s">
+      <c r="BN26" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="BN26" s="67">
+      <c r="BO26" s="67">
         <v>32.463700000000003</v>
       </c>
-      <c r="BO26" s="67">
+      <c r="BP26" s="67">
         <v>34.879339999999999</v>
       </c>
-      <c r="BP26" s="42" t="s">
+      <c r="BQ26" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="BQ26" s="58" t="s">
+      <c r="BR26" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="BR26" s="25" t="s">
+      <c r="BS26" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="BS26" t="s">
-        <v>46</v>
-      </c>
       <c r="BT26" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU26" t="s">
         <v>407</v>
       </c>
-      <c r="BU26" t="s">
+      <c r="BV26" t="s">
         <v>430</v>
       </c>
-      <c r="BW26">
+      <c r="BX26">
         <v>5.5</v>
       </c>
-      <c r="BX26" s="71" t="s">
+      <c r="BY26" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="BY26" s="71">
+      <c r="BZ26" s="71">
         <v>338.21</v>
       </c>
-      <c r="BZ26">
+      <c r="CA26">
         <v>39.4</v>
       </c>
-      <c r="CA26">
+      <c r="CB26">
         <v>23.09</v>
       </c>
-      <c r="CB26">
+      <c r="CC26">
         <v>197.125</v>
       </c>
-      <c r="CC26">
+      <c r="CD26">
         <v>100.05</v>
       </c>
     </row>
-    <row r="27" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D27,"&lt;&gt;"&amp;"")+COUNTIF(BS27,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B27" s="23">
@@ -8272,152 +8427,155 @@
       <c r="Y27" s="33">
         <v>9</v>
       </c>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="33" t="s">
+      <c r="Z27" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB27" s="16" t="s">
+      <c r="AC27" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC27" s="56" t="s">
+      <c r="AD27" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD27" s="33" t="s">
+      <c r="AE27" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE27" s="16" t="s">
+      <c r="AF27" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF27" s="56" t="s">
+      <c r="AG27" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="59" t="s">
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="59" t="s">
         <v>236</v>
       </c>
-      <c r="AI27" s="59" t="s">
+      <c r="AJ27" s="59" t="s">
         <v>321</v>
       </c>
-      <c r="AJ27" s="59" t="s">
+      <c r="AK27" s="59" t="s">
         <v>237</v>
       </c>
-      <c r="AK27" s="59" t="s">
+      <c r="AL27" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="AL27" s="59"/>
-      <c r="AM27" s="61" t="s">
+      <c r="AM27" s="59"/>
+      <c r="AN27" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="AN27" s="62"/>
-      <c r="AO27" s="63">
+      <c r="AO27" s="62"/>
+      <c r="AP27" s="63">
         <v>0.01</v>
       </c>
-      <c r="AQ27" t="s">
+      <c r="AR27" t="s">
         <v>294</v>
       </c>
-      <c r="AR27" s="42" t="s">
+      <c r="AS27" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="AS27" s="1" t="s">
+      <c r="AT27" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AT27" s="42">
+      <c r="AU27" s="42">
         <v>15</v>
       </c>
-      <c r="AU27" s="1" t="s">
+      <c r="AV27" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AW27" t="s">
+      <c r="AX27" t="s">
         <v>8</v>
       </c>
-      <c r="AX27" t="s">
+      <c r="AY27" t="s">
         <v>9</v>
       </c>
-      <c r="AY27" t="s">
+      <c r="AZ27" t="s">
         <v>10</v>
       </c>
-      <c r="AZ27" t="s">
+      <c r="BA27" t="s">
         <v>64</v>
       </c>
-      <c r="BA27" t="s">
+      <c r="BB27" t="s">
         <v>11</v>
       </c>
-      <c r="BB27" t="s">
+      <c r="BC27" t="s">
         <v>70</v>
-      </c>
-      <c r="BD27">
-        <v>151</v>
       </c>
       <c r="BE27">
         <v>151</v>
       </c>
-      <c r="BG27" s="57" t="s">
+      <c r="BF27">
+        <v>151</v>
+      </c>
+      <c r="BH27" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="BH27" t="s">
+      <c r="BI27" t="s">
         <v>409</v>
       </c>
-      <c r="BI27" t="s">
+      <c r="BJ27" t="s">
         <v>410</v>
       </c>
-      <c r="BJ27" t="s">
+      <c r="BK27" t="s">
         <v>411</v>
       </c>
-      <c r="BL27" s="65">
+      <c r="BM27" s="65">
         <v>41233</v>
       </c>
-      <c r="BM27" s="66" t="s">
+      <c r="BN27" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="BN27" s="67">
+      <c r="BO27" s="67">
         <v>32.42868</v>
       </c>
-      <c r="BO27" s="67">
+      <c r="BP27" s="67">
         <v>34.870280000000001</v>
       </c>
-      <c r="BP27" s="42" t="s">
+      <c r="BQ27" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="BQ27" t="s">
+      <c r="BR27" t="s">
         <v>261</v>
       </c>
-      <c r="BR27" s="25" t="s">
+      <c r="BS27" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="BS27" t="s">
-        <v>46</v>
-      </c>
       <c r="BT27" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU27" t="s">
         <v>407</v>
       </c>
-      <c r="BU27" t="s">
+      <c r="BV27" t="s">
         <v>431</v>
       </c>
-      <c r="BW27">
+      <c r="BX27">
         <v>6.5</v>
       </c>
-      <c r="BX27" s="71" t="s">
+      <c r="BY27" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="BY27" s="71">
+      <c r="BZ27" s="71">
         <v>4192.68</v>
       </c>
-      <c r="BZ27">
+      <c r="CA27">
         <v>39.5</v>
       </c>
-      <c r="CA27">
+      <c r="CB27">
         <v>22.5</v>
       </c>
-      <c r="CB27">
+      <c r="CC27">
         <v>201.655</v>
       </c>
-      <c r="CC27">
+      <c r="CD27">
         <v>98.32</v>
       </c>
     </row>
-    <row r="28" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D28,"&lt;&gt;"&amp;"")+COUNTIF(BS28,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B28" s="23">
@@ -8482,152 +8640,155 @@
       <c r="Y28" s="33">
         <v>9</v>
       </c>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="33" t="s">
+      <c r="Z28" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB28" s="16" t="s">
+      <c r="AC28" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC28" s="56" t="s">
+      <c r="AD28" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD28" s="33" t="s">
+      <c r="AE28" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE28" s="16" t="s">
+      <c r="AF28" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF28" s="56" t="s">
+      <c r="AG28" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="59" t="s">
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="59" t="s">
         <v>238</v>
       </c>
-      <c r="AI28" s="59" t="s">
+      <c r="AJ28" s="59" t="s">
         <v>322</v>
       </c>
-      <c r="AJ28" s="59" t="s">
+      <c r="AK28" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="AK28" s="59" t="s">
+      <c r="AL28" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="AL28" s="59"/>
-      <c r="AM28" s="61" t="s">
+      <c r="AM28" s="59"/>
+      <c r="AN28" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="AN28" s="62"/>
-      <c r="AO28" s="63">
+      <c r="AO28" s="62"/>
+      <c r="AP28" s="63">
         <v>0.01</v>
       </c>
-      <c r="AQ28" t="s">
+      <c r="AR28" t="s">
         <v>294</v>
       </c>
-      <c r="AR28" s="42" t="s">
+      <c r="AS28" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="AS28" s="1" t="s">
+      <c r="AT28" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AT28" s="42">
+      <c r="AU28" s="42">
         <v>15</v>
       </c>
-      <c r="AU28" s="1" t="s">
+      <c r="AV28" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AW28" t="s">
+      <c r="AX28" t="s">
         <v>8</v>
       </c>
-      <c r="AX28" t="s">
+      <c r="AY28" t="s">
         <v>9</v>
       </c>
-      <c r="AY28" t="s">
+      <c r="AZ28" t="s">
         <v>10</v>
       </c>
-      <c r="AZ28" t="s">
+      <c r="BA28" t="s">
         <v>64</v>
       </c>
-      <c r="BA28" t="s">
+      <c r="BB28" t="s">
         <v>11</v>
       </c>
-      <c r="BB28" t="s">
+      <c r="BC28" t="s">
         <v>70</v>
-      </c>
-      <c r="BD28">
-        <v>151</v>
       </c>
       <c r="BE28">
         <v>151</v>
       </c>
-      <c r="BG28" s="57" t="s">
+      <c r="BF28">
+        <v>151</v>
+      </c>
+      <c r="BH28" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="BH28" t="s">
+      <c r="BI28" t="s">
         <v>409</v>
       </c>
-      <c r="BI28" t="s">
+      <c r="BJ28" t="s">
         <v>410</v>
       </c>
-      <c r="BJ28" t="s">
+      <c r="BK28" t="s">
         <v>411</v>
       </c>
-      <c r="BL28" s="65">
+      <c r="BM28" s="65">
         <v>41233</v>
       </c>
-      <c r="BM28" s="66" t="s">
+      <c r="BN28" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="BN28" s="67">
+      <c r="BO28" s="67">
         <v>32.42868</v>
       </c>
-      <c r="BO28" s="67">
+      <c r="BP28" s="67">
         <v>34.870280000000001</v>
       </c>
-      <c r="BP28" s="42" t="s">
+      <c r="BQ28" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="BQ28" t="s">
+      <c r="BR28" t="s">
         <v>261</v>
       </c>
-      <c r="BR28" s="25" t="s">
+      <c r="BS28" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="BS28" t="s">
-        <v>46</v>
-      </c>
       <c r="BT28" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU28" t="s">
         <v>407</v>
       </c>
-      <c r="BU28" t="s">
+      <c r="BV28" t="s">
         <v>432</v>
       </c>
-      <c r="BW28">
+      <c r="BX28">
         <v>6.5</v>
       </c>
-      <c r="BX28" s="71" t="s">
+      <c r="BY28" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="BY28" s="71">
+      <c r="BZ28" s="71">
         <v>4192.68</v>
       </c>
-      <c r="BZ28">
+      <c r="CA28">
         <v>39.5</v>
       </c>
-      <c r="CA28">
+      <c r="CB28">
         <v>22.5</v>
       </c>
-      <c r="CB28">
+      <c r="CC28">
         <v>201.655</v>
       </c>
-      <c r="CC28">
+      <c r="CD28">
         <v>98.32</v>
       </c>
     </row>
-    <row r="29" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D29,"&lt;&gt;"&amp;"")+COUNTIF(BS29,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B29" s="23">
@@ -8692,245 +8853,258 @@
       <c r="Y29" s="33">
         <v>9</v>
       </c>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="33" t="s">
+      <c r="Z29" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB29" s="16" t="s">
+      <c r="AC29" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC29" s="56" t="s">
+      <c r="AD29" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD29" s="33" t="s">
+      <c r="AE29" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE29" s="16" t="s">
+      <c r="AF29" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF29" s="56" t="s">
+      <c r="AG29" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG29" s="1"/>
-      <c r="AH29" s="59" t="s">
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="AI29" s="59" t="s">
+      <c r="AJ29" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="AJ29" s="59" t="s">
+      <c r="AK29" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="AK29" s="59" t="s">
+      <c r="AL29" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="AL29" s="59"/>
-      <c r="AM29" s="61" t="s">
+      <c r="AM29" s="59"/>
+      <c r="AN29" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="AN29" s="62"/>
-      <c r="AO29" s="63">
+      <c r="AO29" s="62"/>
+      <c r="AP29" s="63">
         <v>0.01</v>
       </c>
-      <c r="AQ29" t="s">
+      <c r="AR29" t="s">
         <v>294</v>
       </c>
-      <c r="AR29" s="42" t="s">
+      <c r="AS29" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="AS29" s="1" t="s">
+      <c r="AT29" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AT29" s="42">
+      <c r="AU29" s="42">
         <v>15</v>
       </c>
-      <c r="AU29" s="1" t="s">
+      <c r="AV29" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AW29" t="s">
+      <c r="AX29" t="s">
         <v>8</v>
       </c>
-      <c r="AX29" t="s">
+      <c r="AY29" t="s">
         <v>9</v>
       </c>
-      <c r="AY29" t="s">
+      <c r="AZ29" t="s">
         <v>10</v>
       </c>
-      <c r="AZ29" t="s">
+      <c r="BA29" t="s">
         <v>64</v>
       </c>
-      <c r="BA29" t="s">
+      <c r="BB29" t="s">
         <v>11</v>
       </c>
-      <c r="BB29" t="s">
+      <c r="BC29" t="s">
         <v>70</v>
-      </c>
-      <c r="BD29">
-        <v>151</v>
       </c>
       <c r="BE29">
         <v>151</v>
       </c>
-      <c r="BG29" s="57" t="s">
+      <c r="BF29">
+        <v>151</v>
+      </c>
+      <c r="BH29" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="BH29" t="s">
+      <c r="BI29" t="s">
         <v>409</v>
       </c>
-      <c r="BI29" t="s">
+      <c r="BJ29" t="s">
         <v>410</v>
       </c>
-      <c r="BJ29" t="s">
+      <c r="BK29" t="s">
         <v>411</v>
       </c>
-      <c r="BL29" s="65">
+      <c r="BM29" s="65">
         <v>41233</v>
       </c>
-      <c r="BM29" s="66" t="s">
+      <c r="BN29" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="BN29" s="67">
+      <c r="BO29" s="67">
         <v>32.42868</v>
       </c>
-      <c r="BO29" s="67">
+      <c r="BP29" s="67">
         <v>34.870280000000001</v>
       </c>
-      <c r="BP29" s="42" t="s">
+      <c r="BQ29" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="BQ29" t="s">
+      <c r="BR29" t="s">
         <v>261</v>
       </c>
-      <c r="BR29" s="25" t="s">
+      <c r="BS29" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="BS29" t="s">
-        <v>46</v>
-      </c>
       <c r="BT29" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU29" t="s">
         <v>407</v>
       </c>
-      <c r="BU29" t="s">
+      <c r="BV29" t="s">
         <v>433</v>
       </c>
-      <c r="BW29">
+      <c r="BX29">
         <v>6.5</v>
       </c>
-      <c r="BX29" s="71" t="s">
+      <c r="BY29" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="BY29" s="71">
+      <c r="BZ29" s="71">
         <v>4192.68</v>
       </c>
-      <c r="BZ29">
+      <c r="CA29">
         <v>39.5</v>
       </c>
-      <c r="CA29">
+      <c r="CB29">
         <v>22.5</v>
       </c>
-      <c r="CB29">
+      <c r="CC29">
         <v>201.655</v>
       </c>
-      <c r="CC29">
+      <c r="CD29">
         <v>98.32</v>
       </c>
     </row>
-    <row r="30" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="AO30" s="13"/>
+    <row r="30" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="AP30" s="13"/>
     </row>
-    <row r="31" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="AO31" s="13"/>
+    <row r="31" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="AP31" s="13"/>
     </row>
-    <row r="32" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="AO32" s="13"/>
-      <c r="BM32" s="66"/>
+    <row r="32" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="AP32" s="13"/>
+      <c r="BN32" s="66"/>
     </row>
-    <row r="33" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO33" s="13"/>
-      <c r="BM33" s="66"/>
-      <c r="BQ33" s="67"/>
+    <row r="33" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP33" s="13"/>
+      <c r="BN33" s="66"/>
       <c r="BR33" s="67"/>
+      <c r="BS33" s="67"/>
     </row>
-    <row r="34" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO34" s="13"/>
-      <c r="BM34" s="66"/>
-      <c r="BQ34" s="67"/>
+    <row r="34" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP34" s="13"/>
+      <c r="BN34" s="66"/>
       <c r="BR34" s="67"/>
+      <c r="BS34" s="67"/>
     </row>
-    <row r="35" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO35" s="13"/>
-      <c r="BM35" s="66"/>
-      <c r="BQ35" s="67"/>
+    <row r="35" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP35" s="13"/>
+      <c r="BN35" s="66"/>
       <c r="BR35" s="67"/>
+      <c r="BS35" s="67"/>
     </row>
-    <row r="36" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO36" s="13"/>
-      <c r="BM36" s="66"/>
-      <c r="BQ36" s="67"/>
+    <row r="36" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP36" s="13"/>
+      <c r="BN36" s="66"/>
       <c r="BR36" s="67"/>
+      <c r="BS36" s="67"/>
     </row>
-    <row r="37" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO37" s="13"/>
-      <c r="BM37" s="66"/>
-      <c r="BQ37" s="67"/>
+    <row r="37" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP37" s="13"/>
+      <c r="BN37" s="66"/>
       <c r="BR37" s="67"/>
+      <c r="BS37" s="67"/>
     </row>
-    <row r="38" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO38" s="13"/>
-      <c r="BM38" s="66"/>
-      <c r="BQ38" s="67"/>
+    <row r="38" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP38" s="13"/>
+      <c r="BN38" s="66"/>
       <c r="BR38" s="67"/>
+      <c r="BS38" s="67"/>
     </row>
-    <row r="39" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO39" s="13"/>
-      <c r="BQ39" s="67"/>
+    <row r="39" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP39" s="13"/>
       <c r="BR39" s="67"/>
+      <c r="BS39" s="67"/>
     </row>
-    <row r="40" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO40" s="13"/>
-      <c r="BQ40" s="67"/>
+    <row r="40" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP40" s="13"/>
       <c r="BR40" s="67"/>
+      <c r="BS40" s="67"/>
     </row>
-    <row r="41" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO41" s="13"/>
-      <c r="BQ41" s="67"/>
+    <row r="41" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP41" s="13"/>
       <c r="BR41" s="67"/>
+      <c r="BS41" s="67"/>
     </row>
-    <row r="42" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO42" s="13"/>
+    <row r="42" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP42" s="13"/>
     </row>
-    <row r="43" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO43" s="13"/>
+    <row r="43" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP43" s="13"/>
     </row>
-    <row r="44" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO44" s="13"/>
+    <row r="44" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP44" s="13"/>
     </row>
-    <row r="45" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO45" s="13"/>
+    <row r="45" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP45" s="13"/>
     </row>
-    <row r="46" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO46" s="13"/>
+    <row r="46" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP46" s="13"/>
     </row>
-    <row r="47" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO47" s="13"/>
+    <row r="47" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP47" s="13"/>
     </row>
-    <row r="48" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO48" s="13"/>
+    <row r="48" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP48" s="13"/>
     </row>
-    <row r="49" spans="41:41" x14ac:dyDescent="0.2">
-      <c r="AO49" s="13"/>
+    <row r="49" spans="42:42" x14ac:dyDescent="0.2">
+      <c r="AP49" s="13"/>
     </row>
-    <row r="50" spans="41:41" x14ac:dyDescent="0.2">
-      <c r="AO50" s="13"/>
+    <row r="50" spans="42:42" x14ac:dyDescent="0.2">
+      <c r="AP50" s="13"/>
     </row>
-    <row r="51" spans="41:41" x14ac:dyDescent="0.2">
-      <c r="AO51" s="13"/>
+    <row r="51" spans="42:42" x14ac:dyDescent="0.2">
+      <c r="AP51" s="13"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -8948,9 +9122,9 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -8958,21 +9132,11 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="BL1:BR1"/>
-    <mergeCell ref="BT1:BU1"/>
+    <mergeCell ref="BH1:BK1"/>
+    <mergeCell ref="BM1:BS1"/>
+    <mergeCell ref="BU1:BV1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A3:A1048576">
@@ -8998,10 +9162,10 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="AC3" r:id="rId1"/>
-    <hyperlink ref="AF3" r:id="rId2"/>
-    <hyperlink ref="AF4:AF29" r:id="rId3" display="jan.pawlowski@unige.ch"/>
-    <hyperlink ref="AC4:AC29" r:id="rId4" display="lucas@sinclair.bio"/>
+    <hyperlink ref="AD3" r:id="rId1"/>
+    <hyperlink ref="AG3" r:id="rId2"/>
+    <hyperlink ref="AG4:AG29" r:id="rId3" display="jan.pawlowski@unige.ch"/>
+    <hyperlink ref="AD4:AD29" r:id="rId4" display="lucas@sinclair.bio"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/metadata/excel/projects/unige/foram/metadata.xlsx
+++ b/metadata/excel/projects/unige/foram/metadata.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="462">
   <si>
     <t>Country</t>
   </si>
@@ -1438,6 +1438,12 @@
   </si>
   <si>
     <t>HA dist 3</t>
+  </si>
+  <si>
+    <t>AS dist 2</t>
+  </si>
+  <si>
+    <t>AS dist 3</t>
   </si>
 </sst>
 </file>
@@ -2813,7 +2819,7 @@
     <sheetView tabSelected="1" topLeftCell="N1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="AA15" sqref="AA15"/>
+      <selection pane="bottomLeft" activeCell="AA31" sqref="AA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2982,7 +2988,7 @@
       <c r="CC1" s="21"/>
       <c r="CD1" s="21"/>
     </row>
-    <row r="2" spans="1:83" s="53" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:83" s="53" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>46</v>
       </c>
@@ -3209,7 +3215,7 @@
     </row>
     <row r="3" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
-        <f>COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BS3,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" ref="A3:A29" si="0">COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BS3,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B3" s="23">
@@ -3429,7 +3435,7 @@
     </row>
     <row r="4" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
-        <f>COUNTIF(D4,"&lt;&gt;"&amp;"")+COUNTIF(BS4,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="23">
@@ -3649,7 +3655,7 @@
     </row>
     <row r="5" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
-        <f>COUNTIF(D5,"&lt;&gt;"&amp;"")+COUNTIF(BS5,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B5" s="23">
@@ -3869,7 +3875,7 @@
     </row>
     <row r="6" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
-        <f>COUNTIF(D6,"&lt;&gt;"&amp;"")+COUNTIF(BS6,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B6" s="23">
@@ -4089,7 +4095,7 @@
     </row>
     <row r="7" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
-        <f>COUNTIF(D7,"&lt;&gt;"&amp;"")+COUNTIF(BS7,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B7" s="23">
@@ -4309,7 +4315,7 @@
     </row>
     <row r="8" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
-        <f>COUNTIF(D8,"&lt;&gt;"&amp;"")+COUNTIF(BS8,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B8" s="23">
@@ -4529,7 +4535,7 @@
     </row>
     <row r="9" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
-        <f>COUNTIF(D9,"&lt;&gt;"&amp;"")+COUNTIF(BS9,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B9" s="23">
@@ -4739,7 +4745,7 @@
     </row>
     <row r="10" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
-        <f>COUNTIF(D10,"&lt;&gt;"&amp;"")+COUNTIF(BS10,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B10" s="23">
@@ -4807,7 +4813,7 @@
         <v>3</v>
       </c>
       <c r="Z10" s="33" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="AA10" s="1"/>
       <c r="AB10" s="33" t="s">
@@ -4959,7 +4965,7 @@
     </row>
     <row r="11" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
-        <f>COUNTIF(D11,"&lt;&gt;"&amp;"")+COUNTIF(BS11,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B11" s="23">
@@ -5027,7 +5033,7 @@
         <v>3</v>
       </c>
       <c r="Z11" s="33" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="AA11" s="1"/>
       <c r="AB11" s="33" t="s">
@@ -5179,7 +5185,7 @@
     </row>
     <row r="12" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
-        <f>COUNTIF(D12,"&lt;&gt;"&amp;"")+COUNTIF(BS12,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B12" s="23">
@@ -5399,7 +5405,7 @@
     </row>
     <row r="13" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
-        <f>COUNTIF(D13,"&lt;&gt;"&amp;"")+COUNTIF(BS13,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B13" s="23">
@@ -5619,7 +5625,7 @@
     </row>
     <row r="14" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
-        <f>COUNTIF(D14,"&lt;&gt;"&amp;"")+COUNTIF(BS14,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B14" s="23">
@@ -5839,7 +5845,7 @@
     </row>
     <row r="15" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
-        <f>COUNTIF(D15,"&lt;&gt;"&amp;"")+COUNTIF(BS15,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B15" s="23">
@@ -6059,7 +6065,7 @@
     </row>
     <row r="16" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
-        <f>COUNTIF(D16,"&lt;&gt;"&amp;"")+COUNTIF(BS16,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B16" s="23">
@@ -6262,7 +6268,7 @@
     </row>
     <row r="17" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
-        <f>COUNTIF(D17,"&lt;&gt;"&amp;"")+COUNTIF(BS17,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B17" s="23">
@@ -6475,7 +6481,7 @@
     </row>
     <row r="18" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
-        <f>COUNTIF(D18,"&lt;&gt;"&amp;"")+COUNTIF(BS18,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B18" s="23">
@@ -6688,7 +6694,7 @@
     </row>
     <row r="19" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
-        <f>COUNTIF(D19,"&lt;&gt;"&amp;"")+COUNTIF(BS19,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B19" s="23">
@@ -6891,7 +6897,7 @@
     </row>
     <row r="20" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
-        <f>COUNTIF(D20,"&lt;&gt;"&amp;"")+COUNTIF(BS20,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B20" s="23">
@@ -7104,7 +7110,7 @@
     </row>
     <row r="21" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
-        <f>COUNTIF(D21,"&lt;&gt;"&amp;"")+COUNTIF(BS21,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B21" s="23">
@@ -7307,7 +7313,7 @@
     </row>
     <row r="22" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
-        <f>COUNTIF(D22,"&lt;&gt;"&amp;"")+COUNTIF(BS22,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B22" s="23">
@@ -7520,7 +7526,7 @@
     </row>
     <row r="23" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
-        <f>COUNTIF(D23,"&lt;&gt;"&amp;"")+COUNTIF(BS23,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B23" s="23">
@@ -7723,7 +7729,7 @@
     </row>
     <row r="24" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
-        <f>COUNTIF(D24,"&lt;&gt;"&amp;"")+COUNTIF(BS24,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B24" s="23">
@@ -7936,7 +7942,7 @@
     </row>
     <row r="25" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
-        <f>COUNTIF(D25,"&lt;&gt;"&amp;"")+COUNTIF(BS25,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B25" s="23">
@@ -8149,7 +8155,7 @@
     </row>
     <row r="26" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
-        <f>COUNTIF(D26,"&lt;&gt;"&amp;"")+COUNTIF(BS26,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B26" s="23">
@@ -8362,7 +8368,7 @@
     </row>
     <row r="27" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
-        <f>COUNTIF(D27,"&lt;&gt;"&amp;"")+COUNTIF(BS27,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B27" s="23">
@@ -8575,7 +8581,7 @@
     </row>
     <row r="28" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
-        <f>COUNTIF(D28,"&lt;&gt;"&amp;"")+COUNTIF(BS28,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B28" s="23">
@@ -8788,7 +8794,7 @@
     </row>
     <row r="29" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
-        <f>COUNTIF(D29,"&lt;&gt;"&amp;"")+COUNTIF(BS29,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B29" s="23">
@@ -9092,19 +9098,9 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -9122,14 +9118,24 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/metadata/excel/projects/unige/foram/metadata.xlsx
+++ b/metadata/excel/projects/unige/foram/metadata.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,22 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="3620" windowWidth="47660" windowHeight="24240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51120" windowHeight="28340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="micans_v6_ex1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1991,7 +1988,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2146,6 +2143,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2816,10 +2816,10 @@
   </sheetPr>
   <dimension ref="A1:CE51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BR1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="AA31" sqref="AA31"/>
+      <selection pane="bottomLeft" activeCell="CC31" sqref="CC30:CC31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3417,8 +3417,8 @@
       <c r="BY3" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="BZ3" s="42">
-        <v>0</v>
+      <c r="BZ3" s="74">
+        <v>154.41999999999999</v>
       </c>
       <c r="CA3">
         <v>42.3</v>
@@ -3637,8 +3637,8 @@
       <c r="BY4" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="BZ4" s="42">
-        <v>0</v>
+      <c r="BZ4" s="74">
+        <v>154.41999999999999</v>
       </c>
       <c r="CA4">
         <v>42.3</v>
@@ -3857,8 +3857,8 @@
       <c r="BY5" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="BZ5" s="42">
-        <v>0</v>
+      <c r="BZ5" s="74">
+        <v>154.41999999999999</v>
       </c>
       <c r="CA5">
         <v>42.3</v>
@@ -4077,8 +4077,8 @@
       <c r="BY6" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="BZ6" s="70">
-        <v>545.16</v>
+      <c r="BZ6" s="71">
+        <v>694.57</v>
       </c>
       <c r="CA6">
         <v>39.6</v>
@@ -4298,7 +4298,7 @@
         <v>253</v>
       </c>
       <c r="BZ7" s="71">
-        <v>545.16</v>
+        <v>694.57</v>
       </c>
       <c r="CA7">
         <v>39.6</v>
@@ -4518,7 +4518,7 @@
         <v>253</v>
       </c>
       <c r="BZ8" s="71">
-        <v>545.16</v>
+        <v>694.57</v>
       </c>
       <c r="CA8">
         <v>39.6</v>
@@ -4728,7 +4728,7 @@
         <v>253</v>
       </c>
       <c r="BZ9" s="71">
-        <v>5080.2700000000004</v>
+        <v>5022.16</v>
       </c>
       <c r="CA9">
         <v>39.6</v>
@@ -4948,7 +4948,7 @@
         <v>253</v>
       </c>
       <c r="BZ10" s="71">
-        <v>5080.2700000000004</v>
+        <v>5022.16</v>
       </c>
       <c r="CA10">
         <v>39.6</v>
@@ -5168,7 +5168,7 @@
         <v>253</v>
       </c>
       <c r="BZ11" s="71">
-        <v>5080.2700000000004</v>
+        <v>5022.16</v>
       </c>
       <c r="CA11">
         <v>39.6</v>
@@ -5387,7 +5387,7 @@
       <c r="BY12" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="BZ12" s="42">
+      <c r="BZ12" s="74">
         <v>102.78</v>
       </c>
       <c r="CA12">
@@ -5607,7 +5607,7 @@
       <c r="BY13" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="BZ13" s="42">
+      <c r="BZ13" s="74">
         <v>102.78</v>
       </c>
       <c r="CA13">
@@ -5827,7 +5827,7 @@
       <c r="BY14" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="BZ14" s="42">
+      <c r="BZ14" s="74">
         <v>102.78</v>
       </c>
       <c r="CA14">
@@ -6047,7 +6047,7 @@
       <c r="BY15" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="BZ15" s="70">
+      <c r="BZ15" s="71">
         <v>130.54</v>
       </c>
       <c r="CA15">
@@ -7295,8 +7295,8 @@
       <c r="BY21" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="BZ21" s="42">
-        <v>0</v>
+      <c r="BZ21" s="74">
+        <v>118.45</v>
       </c>
       <c r="CA21">
         <v>41.04</v>
@@ -7508,8 +7508,8 @@
       <c r="BY22" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="BZ22" s="42">
-        <v>0</v>
+      <c r="BZ22" s="74">
+        <v>118.45</v>
       </c>
       <c r="CA22">
         <v>41.04</v>
@@ -7711,8 +7711,8 @@
       <c r="BY23" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="BZ23" s="42">
-        <v>0</v>
+      <c r="BZ23" s="74">
+        <v>118.45</v>
       </c>
       <c r="CA23">
         <v>41.04</v>
@@ -7924,8 +7924,8 @@
       <c r="BY24" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="BZ24" s="70">
-        <v>338.21</v>
+      <c r="BZ24" s="71">
+        <v>454.75</v>
       </c>
       <c r="CA24">
         <v>39.4</v>
@@ -8138,7 +8138,7 @@
         <v>253</v>
       </c>
       <c r="BZ25" s="71">
-        <v>338.21</v>
+        <v>454.75</v>
       </c>
       <c r="CA25">
         <v>39.4</v>
@@ -8351,7 +8351,7 @@
         <v>253</v>
       </c>
       <c r="BZ26" s="71">
-        <v>338.21</v>
+        <v>454.75</v>
       </c>
       <c r="CA26">
         <v>39.4</v>
@@ -8564,7 +8564,7 @@
         <v>253</v>
       </c>
       <c r="BZ27" s="71">
-        <v>4192.68</v>
+        <v>4288.6400000000003</v>
       </c>
       <c r="CA27">
         <v>39.5</v>
@@ -8777,7 +8777,7 @@
         <v>253</v>
       </c>
       <c r="BZ28" s="71">
-        <v>4192.68</v>
+        <v>4288.6400000000003</v>
       </c>
       <c r="CA28">
         <v>39.5</v>
@@ -8990,7 +8990,7 @@
         <v>253</v>
       </c>
       <c r="BZ29" s="71">
-        <v>4192.68</v>
+        <v>4288.6400000000003</v>
       </c>
       <c r="CA29">
         <v>39.5</v>
@@ -9098,9 +9098,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -9118,24 +9128,14 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
